--- a/dcd_opamp_dcop_pre_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_dcop_pre_feb28_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="194">
   <si>
     <t>Process</t>
   </si>
@@ -1553,67 +1553,67 @@
         <v>184</v>
       </c>
       <c r="W2" s="3">
-        <v>0</v>
+        <v>-15.984591</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>91.40172099999999</v>
       </c>
       <c r="Z2">
-        <v>456.4519</v>
+        <v>453.33385</v>
       </c>
       <c r="AA2">
-        <v>456.45187</v>
+        <v>453.3338</v>
       </c>
       <c r="AB2">
-        <v>456.45188</v>
+        <v>453.33382</v>
       </c>
       <c r="AC2" s="3">
-        <v>2.411485E-05</v>
+        <v>4.1310485E-05</v>
       </c>
       <c r="AD2">
-        <v>-817.12706</v>
+        <v>-827.1378</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>113.0638</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>352.96915</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>43.583009</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>192.5622</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>43.576239</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>43.57063299999999</v>
       </c>
       <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
+        <v>67.618404</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>-285.20541</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>43.585593</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>2.550422</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>43.585593</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>2.5504259</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>43.581176</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1622,22 +1622,22 @@
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>30.767987</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>31.383477</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>30.412875</v>
       </c>
       <c r="AW2">
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
+        <v>141.47533</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>-292.86252</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -1649,55 +1649,55 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1.7195693</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>9.072114299999999</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1.7195693</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>9.072115</v>
       </c>
       <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
+        <v>578.5158700000001</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>-89.514064</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>103.61844</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>308.2219</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>202.99309</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>334.31458</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>233.83536</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>684.06517</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>80.999606</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>168.54714</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>80.999602</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>168.5471</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>124.17033</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -1706,22 +1706,22 @@
         <v>0</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>260.80695</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>173.64943</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>291.99586</v>
       </c>
       <c r="BY2">
         <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
+        <v>284.19215</v>
+      </c>
+      <c r="CA2" s="3">
+        <v>-53.519763</v>
       </c>
       <c r="CB2">
         <v>0</v>
@@ -1733,55 +1733,55 @@
         <v>0</v>
       </c>
       <c r="CE2">
-        <v>0</v>
+        <v>50.138848</v>
       </c>
       <c r="CF2">
-        <v>0</v>
+        <v>76.747332</v>
       </c>
       <c r="CG2">
-        <v>0</v>
+        <v>50.138847</v>
       </c>
       <c r="CH2">
-        <v>0</v>
+        <v>76.74736999999999</v>
       </c>
       <c r="CI2" s="3">
-        <v>0</v>
+        <v>363.62019</v>
       </c>
       <c r="CJ2" s="3">
-        <v>0</v>
+        <v>352.96915</v>
       </c>
       <c r="CK2" s="3">
-        <v>0</v>
+        <v>328.77424</v>
       </c>
       <c r="CL2" s="3">
-        <v>0</v>
+        <v>477.76321</v>
       </c>
       <c r="CM2" s="3">
-        <v>0</v>
+        <v>328.76453</v>
       </c>
       <c r="CN2" s="3">
-        <v>0</v>
+        <v>328.75636</v>
       </c>
       <c r="CO2" s="3">
-        <v>0</v>
+        <v>352.79393</v>
       </c>
       <c r="CP2" s="3">
-        <v>0</v>
+        <v>0.018063985</v>
       </c>
       <c r="CQ2" s="3">
-        <v>0</v>
+        <v>328.7779</v>
       </c>
       <c r="CR2" s="3">
-        <v>0</v>
+        <v>287.75567</v>
       </c>
       <c r="CS2" s="3">
-        <v>0</v>
+        <v>328.7779</v>
       </c>
       <c r="CT2" s="3">
-        <v>0</v>
+        <v>287.75567</v>
       </c>
       <c r="CU2" s="3">
-        <v>0</v>
+        <v>328.77162</v>
       </c>
       <c r="CV2" s="3">
         <v>0</v>
@@ -1790,22 +1790,22 @@
         <v>0</v>
       </c>
       <c r="CX2" s="3">
-        <v>0</v>
+        <v>323.57376</v>
       </c>
       <c r="CY2" s="3">
-        <v>0</v>
+        <v>324.19224</v>
       </c>
       <c r="CZ2" s="3">
-        <v>0</v>
+        <v>323.21687</v>
       </c>
       <c r="DA2" s="3">
         <v>0</v>
       </c>
       <c r="DB2" s="3">
-        <v>0</v>
+        <v>434.30601</v>
       </c>
       <c r="DC2" s="3">
-        <v>0</v>
+        <v>0.003053612</v>
       </c>
       <c r="DD2" s="3">
         <v>0</v>
@@ -1817,55 +1817,55 @@
         <v>0</v>
       </c>
       <c r="DG2" s="3">
-        <v>0</v>
+        <v>294.54787</v>
       </c>
       <c r="DH2" s="3">
-        <v>0</v>
+        <v>301.8953</v>
       </c>
       <c r="DI2" s="3">
-        <v>0</v>
+        <v>294.54787</v>
       </c>
       <c r="DJ2" s="3">
-        <v>0</v>
+        <v>301.8953</v>
       </c>
       <c r="DK2">
-        <v>0</v>
+        <v>711.21541</v>
       </c>
       <c r="DL2">
-        <v>0</v>
+        <v>26.332076</v>
       </c>
       <c r="DM2">
-        <v>0</v>
+        <v>210.58869</v>
       </c>
       <c r="DN2">
-        <v>0</v>
+        <v>467.36959</v>
       </c>
       <c r="DO2">
-        <v>0</v>
+        <v>309.96085</v>
       </c>
       <c r="DP2">
-        <v>0</v>
+        <v>441.28028</v>
       </c>
       <c r="DQ2">
-        <v>0</v>
+        <v>349.63772</v>
       </c>
       <c r="DR2">
-        <v>0</v>
+        <v>747.37294</v>
       </c>
       <c r="DS2">
-        <v>0</v>
+        <v>187.97081</v>
       </c>
       <c r="DT2">
-        <v>0</v>
+        <v>260.70897</v>
       </c>
       <c r="DU2">
-        <v>0</v>
+        <v>187.9708</v>
       </c>
       <c r="DV2">
-        <v>0</v>
+        <v>260.70894</v>
       </c>
       <c r="DW2">
-        <v>0</v>
+        <v>231.1399</v>
       </c>
       <c r="DX2">
         <v>0</v>
@@ -1874,22 +1874,22 @@
         <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0</v>
+        <v>352.58692</v>
       </c>
       <c r="EA2">
-        <v>0</v>
+        <v>265.66108</v>
       </c>
       <c r="EB2">
-        <v>0</v>
+        <v>383.64224</v>
       </c>
       <c r="EC2">
         <v>0</v>
       </c>
       <c r="ED2">
-        <v>0</v>
+        <v>419.03532</v>
       </c>
       <c r="EE2">
-        <v>0</v>
+        <v>0.0030535815</v>
       </c>
       <c r="EF2">
         <v>0</v>
@@ -1901,55 +1901,55 @@
         <v>0</v>
       </c>
       <c r="EI2">
-        <v>0</v>
+        <v>131.34322</v>
       </c>
       <c r="EJ2">
-        <v>0</v>
+        <v>160.55434</v>
       </c>
       <c r="EK2">
-        <v>0</v>
+        <v>131.34322</v>
       </c>
       <c r="EL2">
-        <v>0</v>
+        <v>160.55438</v>
       </c>
       <c r="EM2">
-        <v>0</v>
+        <v>132.69954</v>
       </c>
       <c r="EN2">
-        <v>0</v>
+        <v>115.84614</v>
       </c>
       <c r="EO2">
-        <v>0</v>
+        <v>106.97025</v>
       </c>
       <c r="EP2">
-        <v>0</v>
+        <v>159.1477</v>
       </c>
       <c r="EQ2">
-        <v>0</v>
+        <v>106.96776</v>
       </c>
       <c r="ER2">
-        <v>0</v>
+        <v>106.9657</v>
       </c>
       <c r="ES2">
-        <v>0</v>
+        <v>115.80235</v>
       </c>
       <c r="ET2">
-        <v>0</v>
+        <v>63.307771</v>
       </c>
       <c r="EU2">
-        <v>0</v>
+        <v>106.9712</v>
       </c>
       <c r="EV2">
-        <v>0</v>
+        <v>92.161839</v>
       </c>
       <c r="EW2">
-        <v>0</v>
+        <v>106.9712</v>
       </c>
       <c r="EX2">
-        <v>0</v>
+        <v>92.16184</v>
       </c>
       <c r="EY2">
-        <v>0</v>
+        <v>106.96958</v>
       </c>
       <c r="EZ2">
         <v>0</v>
@@ -1958,22 +1958,22 @@
         <v>0</v>
       </c>
       <c r="FB2">
-        <v>0</v>
+        <v>-91.779967</v>
       </c>
       <c r="FC2">
-        <v>0</v>
+        <v>-92.01164300000001</v>
       </c>
       <c r="FD2">
-        <v>0</v>
+        <v>-91.646382</v>
       </c>
       <c r="FE2">
         <v>0</v>
       </c>
       <c r="FF2">
-        <v>0</v>
+        <v>-134.84317</v>
       </c>
       <c r="FG2">
-        <v>0</v>
+        <v>-53.522817</v>
       </c>
       <c r="FH2">
         <v>0</v>
@@ -1985,16 +1985,16 @@
         <v>0</v>
       </c>
       <c r="FK2">
-        <v>0</v>
+        <v>-81.204376</v>
       </c>
       <c r="FL2">
-        <v>0</v>
+        <v>-83.807008</v>
       </c>
       <c r="FM2">
-        <v>0</v>
+        <v>-81.204376</v>
       </c>
       <c r="FN2">
-        <v>0</v>
+        <v>-83.80700899999999</v>
       </c>
     </row>
     <row r="3" spans="1:170" s="1" customFormat="1">
@@ -2532,67 +2532,67 @@
         <v>184</v>
       </c>
       <c r="W4" s="3">
-        <v>0</v>
+        <v>-15.984591</v>
       </c>
       <c r="X4" s="1">
         <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>0</v>
+        <v>91.40172099999999</v>
       </c>
       <c r="Z4" s="1">
-        <v>456.4519</v>
+        <v>453.33385</v>
       </c>
       <c r="AA4" s="1">
-        <v>456.45187</v>
+        <v>453.3338</v>
       </c>
       <c r="AB4" s="1">
-        <v>456.45188</v>
+        <v>453.33382</v>
       </c>
       <c r="AC4" s="3">
-        <v>2.411485E-05</v>
+        <v>4.1310485E-05</v>
       </c>
       <c r="AD4" s="1">
-        <v>-817.12706</v>
+        <v>-827.1378</v>
       </c>
       <c r="AE4" s="1">
-        <v>0</v>
+        <v>113.0638</v>
       </c>
       <c r="AF4" s="1">
-        <v>0</v>
+        <v>352.96915</v>
       </c>
       <c r="AG4" s="1">
-        <v>0</v>
+        <v>43.583009</v>
       </c>
       <c r="AH4" s="1">
-        <v>0</v>
+        <v>192.5622</v>
       </c>
       <c r="AI4" s="1">
-        <v>0</v>
+        <v>43.576239</v>
       </c>
       <c r="AJ4" s="1">
-        <v>0</v>
+        <v>43.57063299999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>0</v>
+        <v>67.618404</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>-285.20541</v>
       </c>
       <c r="AM4" s="1">
-        <v>0</v>
+        <v>43.585593</v>
       </c>
       <c r="AN4" s="1">
-        <v>0</v>
+        <v>2.550422</v>
       </c>
       <c r="AO4" s="1">
-        <v>0</v>
+        <v>43.585593</v>
       </c>
       <c r="AP4" s="1">
-        <v>0</v>
+        <v>2.5504259</v>
       </c>
       <c r="AQ4" s="1">
-        <v>0</v>
+        <v>43.581176</v>
       </c>
       <c r="AR4" s="1">
         <v>0</v>
@@ -2601,22 +2601,22 @@
         <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>0</v>
+        <v>30.767987</v>
       </c>
       <c r="AU4" s="1">
-        <v>0</v>
+        <v>31.383477</v>
       </c>
       <c r="AV4" s="1">
-        <v>0</v>
+        <v>30.412875</v>
       </c>
       <c r="AW4" s="1">
         <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="1">
-        <v>0</v>
+        <v>141.47533</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>-292.86252</v>
       </c>
       <c r="AZ4" s="1">
         <v>0</v>
@@ -2628,55 +2628,55 @@
         <v>0</v>
       </c>
       <c r="BC4" s="1">
-        <v>0</v>
+        <v>1.7195693</v>
       </c>
       <c r="BD4" s="1">
-        <v>0</v>
+        <v>9.072114299999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>0</v>
+        <v>1.7195693</v>
       </c>
       <c r="BF4" s="1">
-        <v>0</v>
+        <v>9.072115</v>
       </c>
       <c r="BG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="1">
-        <v>0</v>
+        <v>578.5158700000001</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>-89.514064</v>
       </c>
       <c r="BI4" s="1">
-        <v>0</v>
+        <v>103.61844</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0</v>
+        <v>308.2219</v>
       </c>
       <c r="BK4" s="1">
-        <v>0</v>
+        <v>202.99309</v>
       </c>
       <c r="BL4" s="1">
-        <v>0</v>
+        <v>334.31458</v>
       </c>
       <c r="BM4" s="1">
-        <v>0</v>
+        <v>233.83536</v>
       </c>
       <c r="BN4" s="1">
-        <v>0</v>
+        <v>684.06517</v>
       </c>
       <c r="BO4" s="1">
-        <v>0</v>
+        <v>80.999606</v>
       </c>
       <c r="BP4" s="1">
-        <v>0</v>
+        <v>168.54714</v>
       </c>
       <c r="BQ4" s="1">
-        <v>0</v>
+        <v>80.999602</v>
       </c>
       <c r="BR4" s="1">
-        <v>0</v>
+        <v>168.5471</v>
       </c>
       <c r="BS4" s="1">
-        <v>0</v>
+        <v>124.17033</v>
       </c>
       <c r="BT4" s="1">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="BV4" s="1">
-        <v>0</v>
+        <v>260.80695</v>
       </c>
       <c r="BW4" s="1">
-        <v>0</v>
+        <v>173.64943</v>
       </c>
       <c r="BX4" s="1">
-        <v>0</v>
+        <v>291.99586</v>
       </c>
       <c r="BY4" s="1">
         <v>0</v>
       </c>
       <c r="BZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="1">
-        <v>0</v>
+        <v>284.19215</v>
+      </c>
+      <c r="CA4" s="3">
+        <v>-53.519763</v>
       </c>
       <c r="CB4" s="1">
         <v>0</v>
@@ -2712,55 +2712,55 @@
         <v>0</v>
       </c>
       <c r="CE4" s="1">
-        <v>0</v>
+        <v>50.138848</v>
       </c>
       <c r="CF4" s="1">
-        <v>0</v>
+        <v>76.747332</v>
       </c>
       <c r="CG4" s="1">
-        <v>0</v>
+        <v>50.138847</v>
       </c>
       <c r="CH4" s="1">
-        <v>0</v>
+        <v>76.74736999999999</v>
       </c>
       <c r="CI4" s="3">
-        <v>0</v>
+        <v>363.62019</v>
       </c>
       <c r="CJ4" s="3">
-        <v>0</v>
+        <v>352.96915</v>
       </c>
       <c r="CK4" s="3">
-        <v>0</v>
+        <v>328.77424</v>
       </c>
       <c r="CL4" s="3">
-        <v>0</v>
+        <v>477.76321</v>
       </c>
       <c r="CM4" s="3">
-        <v>0</v>
+        <v>328.76453</v>
       </c>
       <c r="CN4" s="3">
-        <v>0</v>
+        <v>328.75636</v>
       </c>
       <c r="CO4" s="3">
-        <v>0</v>
+        <v>352.79393</v>
       </c>
       <c r="CP4" s="3">
-        <v>0</v>
+        <v>0.018063985</v>
       </c>
       <c r="CQ4" s="3">
-        <v>0</v>
+        <v>328.7779</v>
       </c>
       <c r="CR4" s="3">
-        <v>0</v>
+        <v>287.75567</v>
       </c>
       <c r="CS4" s="3">
-        <v>0</v>
+        <v>328.7779</v>
       </c>
       <c r="CT4" s="3">
-        <v>0</v>
+        <v>287.75567</v>
       </c>
       <c r="CU4" s="3">
-        <v>0</v>
+        <v>328.77162</v>
       </c>
       <c r="CV4" s="3">
         <v>0</v>
@@ -2769,22 +2769,22 @@
         <v>0</v>
       </c>
       <c r="CX4" s="3">
-        <v>0</v>
+        <v>323.57376</v>
       </c>
       <c r="CY4" s="3">
-        <v>0</v>
+        <v>324.19224</v>
       </c>
       <c r="CZ4" s="3">
-        <v>0</v>
+        <v>323.21687</v>
       </c>
       <c r="DA4" s="3">
         <v>0</v>
       </c>
       <c r="DB4" s="3">
-        <v>0</v>
+        <v>434.30601</v>
       </c>
       <c r="DC4" s="3">
-        <v>0</v>
+        <v>0.003053612</v>
       </c>
       <c r="DD4" s="3">
         <v>0</v>
@@ -2796,55 +2796,55 @@
         <v>0</v>
       </c>
       <c r="DG4" s="3">
-        <v>0</v>
+        <v>294.54787</v>
       </c>
       <c r="DH4" s="3">
-        <v>0</v>
+        <v>301.8953</v>
       </c>
       <c r="DI4" s="3">
-        <v>0</v>
+        <v>294.54787</v>
       </c>
       <c r="DJ4" s="3">
-        <v>0</v>
+        <v>301.8953</v>
       </c>
       <c r="DK4" s="1">
-        <v>0</v>
+        <v>711.21541</v>
       </c>
       <c r="DL4" s="1">
-        <v>0</v>
+        <v>26.332076</v>
       </c>
       <c r="DM4" s="1">
-        <v>0</v>
+        <v>210.58869</v>
       </c>
       <c r="DN4" s="1">
-        <v>0</v>
+        <v>467.36959</v>
       </c>
       <c r="DO4" s="1">
-        <v>0</v>
+        <v>309.96085</v>
       </c>
       <c r="DP4" s="1">
-        <v>0</v>
+        <v>441.28028</v>
       </c>
       <c r="DQ4" s="1">
-        <v>0</v>
+        <v>349.63772</v>
       </c>
       <c r="DR4" s="1">
-        <v>0</v>
+        <v>747.37294</v>
       </c>
       <c r="DS4" s="1">
-        <v>0</v>
+        <v>187.97081</v>
       </c>
       <c r="DT4" s="1">
-        <v>0</v>
+        <v>260.70897</v>
       </c>
       <c r="DU4" s="1">
-        <v>0</v>
+        <v>187.9708</v>
       </c>
       <c r="DV4" s="1">
-        <v>0</v>
+        <v>260.70894</v>
       </c>
       <c r="DW4" s="1">
-        <v>0</v>
+        <v>231.1399</v>
       </c>
       <c r="DX4" s="1">
         <v>0</v>
@@ -2853,22 +2853,22 @@
         <v>0</v>
       </c>
       <c r="DZ4" s="1">
-        <v>0</v>
+        <v>352.58692</v>
       </c>
       <c r="EA4" s="1">
-        <v>0</v>
+        <v>265.66108</v>
       </c>
       <c r="EB4" s="1">
-        <v>0</v>
+        <v>383.64224</v>
       </c>
       <c r="EC4" s="1">
         <v>0</v>
       </c>
       <c r="ED4" s="1">
-        <v>0</v>
+        <v>419.03532</v>
       </c>
       <c r="EE4" s="1">
-        <v>0</v>
+        <v>0.0030535815</v>
       </c>
       <c r="EF4" s="1">
         <v>0</v>
@@ -2880,55 +2880,55 @@
         <v>0</v>
       </c>
       <c r="EI4" s="1">
-        <v>0</v>
+        <v>131.34322</v>
       </c>
       <c r="EJ4" s="1">
-        <v>0</v>
+        <v>160.55434</v>
       </c>
       <c r="EK4" s="1">
-        <v>0</v>
+        <v>131.34322</v>
       </c>
       <c r="EL4" s="1">
-        <v>0</v>
+        <v>160.55438</v>
       </c>
       <c r="EM4" s="1">
-        <v>0</v>
+        <v>132.69954</v>
       </c>
       <c r="EN4" s="1">
-        <v>0</v>
+        <v>115.84614</v>
       </c>
       <c r="EO4" s="1">
-        <v>0</v>
+        <v>106.97025</v>
       </c>
       <c r="EP4" s="1">
-        <v>0</v>
+        <v>159.1477</v>
       </c>
       <c r="EQ4" s="1">
-        <v>0</v>
+        <v>106.96776</v>
       </c>
       <c r="ER4" s="1">
-        <v>0</v>
+        <v>106.9657</v>
       </c>
       <c r="ES4" s="1">
-        <v>0</v>
+        <v>115.80235</v>
       </c>
       <c r="ET4" s="1">
-        <v>0</v>
+        <v>63.307771</v>
       </c>
       <c r="EU4" s="1">
-        <v>0</v>
+        <v>106.9712</v>
       </c>
       <c r="EV4" s="1">
-        <v>0</v>
+        <v>92.161839</v>
       </c>
       <c r="EW4" s="1">
-        <v>0</v>
+        <v>106.9712</v>
       </c>
       <c r="EX4" s="1">
-        <v>0</v>
+        <v>92.16184</v>
       </c>
       <c r="EY4" s="1">
-        <v>0</v>
+        <v>106.96958</v>
       </c>
       <c r="EZ4" s="1">
         <v>0</v>
@@ -2937,22 +2937,22 @@
         <v>0</v>
       </c>
       <c r="FB4" s="1">
-        <v>0</v>
+        <v>-91.779967</v>
       </c>
       <c r="FC4" s="1">
-        <v>0</v>
+        <v>-92.01164300000001</v>
       </c>
       <c r="FD4" s="1">
-        <v>0</v>
+        <v>-91.646382</v>
       </c>
       <c r="FE4" s="1">
         <v>0</v>
       </c>
       <c r="FF4" s="1">
-        <v>0</v>
+        <v>-134.84317</v>
       </c>
       <c r="FG4" s="1">
-        <v>0</v>
+        <v>-53.522817</v>
       </c>
       <c r="FH4" s="1">
         <v>0</v>
@@ -2964,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="FK4" s="1">
-        <v>0</v>
+        <v>-81.204376</v>
       </c>
       <c r="FL4" s="1">
-        <v>0</v>
+        <v>-83.807008</v>
       </c>
       <c r="FM4" s="1">
-        <v>0</v>
+        <v>-81.204376</v>
       </c>
       <c r="FN4" s="1">
-        <v>0</v>
+        <v>-83.80700899999999</v>
       </c>
     </row>
     <row r="5" spans="1:170" s="1" customFormat="1">
@@ -2999,67 +2999,67 @@
         <v>184</v>
       </c>
       <c r="W5" s="3">
-        <v>0</v>
+        <v>-15.984591</v>
       </c>
       <c r="X5" s="1">
         <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>0</v>
+        <v>91.40172099999999</v>
       </c>
       <c r="Z5" s="1">
-        <v>456.4519</v>
+        <v>453.33385</v>
       </c>
       <c r="AA5" s="1">
-        <v>456.45187</v>
+        <v>453.3338</v>
       </c>
       <c r="AB5" s="1">
-        <v>456.45188</v>
+        <v>453.33382</v>
       </c>
       <c r="AC5" s="3">
-        <v>2.411485E-05</v>
+        <v>4.1310485E-05</v>
       </c>
       <c r="AD5" s="1">
-        <v>-817.12706</v>
+        <v>-827.1378</v>
       </c>
       <c r="AE5" s="1">
-        <v>0</v>
+        <v>113.0638</v>
       </c>
       <c r="AF5" s="1">
-        <v>0</v>
+        <v>352.96915</v>
       </c>
       <c r="AG5" s="1">
-        <v>0</v>
+        <v>43.583009</v>
       </c>
       <c r="AH5" s="1">
-        <v>0</v>
+        <v>192.5622</v>
       </c>
       <c r="AI5" s="1">
-        <v>0</v>
+        <v>43.576239</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0</v>
+        <v>43.57063299999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>0</v>
+        <v>67.618404</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>-285.20541</v>
       </c>
       <c r="AM5" s="1">
-        <v>0</v>
+        <v>43.585593</v>
       </c>
       <c r="AN5" s="1">
-        <v>0</v>
+        <v>2.550422</v>
       </c>
       <c r="AO5" s="1">
-        <v>0</v>
+        <v>43.585593</v>
       </c>
       <c r="AP5" s="1">
-        <v>0</v>
+        <v>2.5504259</v>
       </c>
       <c r="AQ5" s="1">
-        <v>0</v>
+        <v>43.581176</v>
       </c>
       <c r="AR5" s="1">
         <v>0</v>
@@ -3068,22 +3068,22 @@
         <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>0</v>
+        <v>30.767987</v>
       </c>
       <c r="AU5" s="1">
-        <v>0</v>
+        <v>31.383477</v>
       </c>
       <c r="AV5" s="1">
-        <v>0</v>
+        <v>30.412875</v>
       </c>
       <c r="AW5" s="1">
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="1">
-        <v>0</v>
+        <v>141.47533</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>-292.86252</v>
       </c>
       <c r="AZ5" s="1">
         <v>0</v>
@@ -3095,55 +3095,55 @@
         <v>0</v>
       </c>
       <c r="BC5" s="1">
-        <v>0</v>
+        <v>1.7195693</v>
       </c>
       <c r="BD5" s="1">
-        <v>0</v>
+        <v>9.072114299999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>0</v>
+        <v>1.7195693</v>
       </c>
       <c r="BF5" s="1">
-        <v>0</v>
+        <v>9.072115</v>
       </c>
       <c r="BG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="1">
-        <v>0</v>
+        <v>578.5158700000001</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>-89.514064</v>
       </c>
       <c r="BI5" s="1">
-        <v>0</v>
+        <v>103.61844</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0</v>
+        <v>308.2219</v>
       </c>
       <c r="BK5" s="1">
-        <v>0</v>
+        <v>202.99309</v>
       </c>
       <c r="BL5" s="1">
-        <v>0</v>
+        <v>334.31458</v>
       </c>
       <c r="BM5" s="1">
-        <v>0</v>
+        <v>233.83536</v>
       </c>
       <c r="BN5" s="1">
-        <v>0</v>
+        <v>684.06517</v>
       </c>
       <c r="BO5" s="1">
-        <v>0</v>
+        <v>80.999606</v>
       </c>
       <c r="BP5" s="1">
-        <v>0</v>
+        <v>168.54714</v>
       </c>
       <c r="BQ5" s="1">
-        <v>0</v>
+        <v>80.999602</v>
       </c>
       <c r="BR5" s="1">
-        <v>0</v>
+        <v>168.5471</v>
       </c>
       <c r="BS5" s="1">
-        <v>0</v>
+        <v>124.17033</v>
       </c>
       <c r="BT5" s="1">
         <v>0</v>
@@ -3152,22 +3152,22 @@
         <v>0</v>
       </c>
       <c r="BV5" s="1">
-        <v>0</v>
+        <v>260.80695</v>
       </c>
       <c r="BW5" s="1">
-        <v>0</v>
+        <v>173.64943</v>
       </c>
       <c r="BX5" s="1">
-        <v>0</v>
+        <v>291.99586</v>
       </c>
       <c r="BY5" s="1">
         <v>0</v>
       </c>
       <c r="BZ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="1">
-        <v>0</v>
+        <v>284.19215</v>
+      </c>
+      <c r="CA5" s="3">
+        <v>-53.519763</v>
       </c>
       <c r="CB5" s="1">
         <v>0</v>
@@ -3179,55 +3179,55 @@
         <v>0</v>
       </c>
       <c r="CE5" s="1">
-        <v>0</v>
+        <v>50.138848</v>
       </c>
       <c r="CF5" s="1">
-        <v>0</v>
+        <v>76.747332</v>
       </c>
       <c r="CG5" s="1">
-        <v>0</v>
+        <v>50.138847</v>
       </c>
       <c r="CH5" s="1">
-        <v>0</v>
+        <v>76.74736999999999</v>
       </c>
       <c r="CI5" s="3">
-        <v>0</v>
+        <v>363.62019</v>
       </c>
       <c r="CJ5" s="3">
-        <v>0</v>
+        <v>352.96915</v>
       </c>
       <c r="CK5" s="3">
-        <v>0</v>
+        <v>328.77424</v>
       </c>
       <c r="CL5" s="3">
-        <v>0</v>
+        <v>477.76321</v>
       </c>
       <c r="CM5" s="3">
-        <v>0</v>
+        <v>328.76453</v>
       </c>
       <c r="CN5" s="3">
-        <v>0</v>
+        <v>328.75636</v>
       </c>
       <c r="CO5" s="3">
-        <v>0</v>
+        <v>352.79393</v>
       </c>
       <c r="CP5" s="3">
-        <v>0</v>
+        <v>0.018063985</v>
       </c>
       <c r="CQ5" s="3">
-        <v>0</v>
+        <v>328.7779</v>
       </c>
       <c r="CR5" s="3">
-        <v>0</v>
+        <v>287.75567</v>
       </c>
       <c r="CS5" s="3">
-        <v>0</v>
+        <v>328.7779</v>
       </c>
       <c r="CT5" s="3">
-        <v>0</v>
+        <v>287.75567</v>
       </c>
       <c r="CU5" s="3">
-        <v>0</v>
+        <v>328.77162</v>
       </c>
       <c r="CV5" s="3">
         <v>0</v>
@@ -3236,22 +3236,22 @@
         <v>0</v>
       </c>
       <c r="CX5" s="3">
-        <v>0</v>
+        <v>323.57376</v>
       </c>
       <c r="CY5" s="3">
-        <v>0</v>
+        <v>324.19224</v>
       </c>
       <c r="CZ5" s="3">
-        <v>0</v>
+        <v>323.21687</v>
       </c>
       <c r="DA5" s="3">
         <v>0</v>
       </c>
       <c r="DB5" s="3">
-        <v>0</v>
+        <v>434.30601</v>
       </c>
       <c r="DC5" s="3">
-        <v>0</v>
+        <v>0.003053612</v>
       </c>
       <c r="DD5" s="3">
         <v>0</v>
@@ -3263,55 +3263,55 @@
         <v>0</v>
       </c>
       <c r="DG5" s="3">
-        <v>0</v>
+        <v>294.54787</v>
       </c>
       <c r="DH5" s="3">
-        <v>0</v>
+        <v>301.8953</v>
       </c>
       <c r="DI5" s="3">
-        <v>0</v>
+        <v>294.54787</v>
       </c>
       <c r="DJ5" s="3">
-        <v>0</v>
+        <v>301.8953</v>
       </c>
       <c r="DK5" s="1">
-        <v>0</v>
+        <v>711.21541</v>
       </c>
       <c r="DL5" s="1">
-        <v>0</v>
+        <v>26.332076</v>
       </c>
       <c r="DM5" s="1">
-        <v>0</v>
+        <v>210.58869</v>
       </c>
       <c r="DN5" s="1">
-        <v>0</v>
+        <v>467.36959</v>
       </c>
       <c r="DO5" s="1">
-        <v>0</v>
+        <v>309.96085</v>
       </c>
       <c r="DP5" s="1">
-        <v>0</v>
+        <v>441.28028</v>
       </c>
       <c r="DQ5" s="1">
-        <v>0</v>
+        <v>349.63772</v>
       </c>
       <c r="DR5" s="1">
-        <v>0</v>
+        <v>747.37294</v>
       </c>
       <c r="DS5" s="1">
-        <v>0</v>
+        <v>187.97081</v>
       </c>
       <c r="DT5" s="1">
-        <v>0</v>
+        <v>260.70897</v>
       </c>
       <c r="DU5" s="1">
-        <v>0</v>
+        <v>187.9708</v>
       </c>
       <c r="DV5" s="1">
-        <v>0</v>
+        <v>260.70894</v>
       </c>
       <c r="DW5" s="1">
-        <v>0</v>
+        <v>231.1399</v>
       </c>
       <c r="DX5" s="1">
         <v>0</v>
@@ -3320,22 +3320,22 @@
         <v>0</v>
       </c>
       <c r="DZ5" s="1">
-        <v>0</v>
+        <v>352.58692</v>
       </c>
       <c r="EA5" s="1">
-        <v>0</v>
+        <v>265.66108</v>
       </c>
       <c r="EB5" s="1">
-        <v>0</v>
+        <v>383.64224</v>
       </c>
       <c r="EC5" s="1">
         <v>0</v>
       </c>
       <c r="ED5" s="1">
-        <v>0</v>
+        <v>419.03532</v>
       </c>
       <c r="EE5" s="1">
-        <v>0</v>
+        <v>0.0030535815</v>
       </c>
       <c r="EF5" s="1">
         <v>0</v>
@@ -3347,55 +3347,55 @@
         <v>0</v>
       </c>
       <c r="EI5" s="1">
-        <v>0</v>
+        <v>131.34322</v>
       </c>
       <c r="EJ5" s="1">
-        <v>0</v>
+        <v>160.55434</v>
       </c>
       <c r="EK5" s="1">
-        <v>0</v>
+        <v>131.34322</v>
       </c>
       <c r="EL5" s="1">
-        <v>0</v>
+        <v>160.55438</v>
       </c>
       <c r="EM5" s="1">
-        <v>0</v>
+        <v>132.69954</v>
       </c>
       <c r="EN5" s="1">
-        <v>0</v>
+        <v>115.84614</v>
       </c>
       <c r="EO5" s="1">
-        <v>0</v>
+        <v>106.97025</v>
       </c>
       <c r="EP5" s="1">
-        <v>0</v>
+        <v>159.1477</v>
       </c>
       <c r="EQ5" s="1">
-        <v>0</v>
+        <v>106.96776</v>
       </c>
       <c r="ER5" s="1">
-        <v>0</v>
+        <v>106.9657</v>
       </c>
       <c r="ES5" s="1">
-        <v>0</v>
+        <v>115.80235</v>
       </c>
       <c r="ET5" s="1">
-        <v>0</v>
+        <v>63.307771</v>
       </c>
       <c r="EU5" s="1">
-        <v>0</v>
+        <v>106.9712</v>
       </c>
       <c r="EV5" s="1">
-        <v>0</v>
+        <v>92.161839</v>
       </c>
       <c r="EW5" s="1">
-        <v>0</v>
+        <v>106.9712</v>
       </c>
       <c r="EX5" s="1">
-        <v>0</v>
+        <v>92.16184</v>
       </c>
       <c r="EY5" s="1">
-        <v>0</v>
+        <v>106.96958</v>
       </c>
       <c r="EZ5" s="1">
         <v>0</v>
@@ -3404,22 +3404,22 @@
         <v>0</v>
       </c>
       <c r="FB5" s="1">
-        <v>0</v>
+        <v>-91.779967</v>
       </c>
       <c r="FC5" s="1">
-        <v>0</v>
+        <v>-92.01164300000001</v>
       </c>
       <c r="FD5" s="1">
-        <v>0</v>
+        <v>-91.646382</v>
       </c>
       <c r="FE5" s="1">
         <v>0</v>
       </c>
       <c r="FF5" s="1">
-        <v>0</v>
+        <v>-134.84317</v>
       </c>
       <c r="FG5" s="1">
-        <v>0</v>
+        <v>-53.522817</v>
       </c>
       <c r="FH5" s="1">
         <v>0</v>
@@ -3431,16 +3431,16 @@
         <v>0</v>
       </c>
       <c r="FK5" s="1">
-        <v>0</v>
+        <v>-81.204376</v>
       </c>
       <c r="FL5" s="1">
-        <v>0</v>
+        <v>-83.807008</v>
       </c>
       <c r="FM5" s="1">
-        <v>0</v>
+        <v>-81.204376</v>
       </c>
       <c r="FN5" s="1">
-        <v>0</v>
+        <v>-83.80700899999999</v>
       </c>
     </row>
     <row r="6" spans="1:170" s="1" customFormat="1">
@@ -4188,67 +4188,67 @@
         <v>184</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>-15.984591</v>
       </c>
       <c r="X10" s="1">
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>91.40172099999999</v>
       </c>
       <c r="Z10" s="1">
-        <v>456.4519</v>
+        <v>453.33385</v>
       </c>
       <c r="AA10" s="1">
-        <v>456.45187</v>
+        <v>453.3338</v>
       </c>
       <c r="AB10" s="1">
-        <v>456.45188</v>
+        <v>453.33382</v>
       </c>
       <c r="AC10" s="1">
-        <v>2.411485E-05</v>
+        <v>4.1310485E-05</v>
       </c>
       <c r="AD10" s="1">
-        <v>-817.12706</v>
+        <v>-827.1378</v>
       </c>
       <c r="AE10" s="1">
-        <v>0</v>
+        <v>113.0638</v>
       </c>
       <c r="AF10" s="1">
-        <v>0</v>
+        <v>352.96915</v>
       </c>
       <c r="AG10" s="1">
-        <v>0</v>
+        <v>43.583009</v>
       </c>
       <c r="AH10" s="1">
-        <v>0</v>
+        <v>192.5622</v>
       </c>
       <c r="AI10" s="1">
-        <v>0</v>
+        <v>43.576239</v>
       </c>
       <c r="AJ10" s="1">
-        <v>0</v>
+        <v>43.57063299999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>0</v>
+        <v>67.618404</v>
       </c>
       <c r="AL10" s="1">
-        <v>0</v>
+        <v>-285.20541</v>
       </c>
       <c r="AM10" s="1">
-        <v>0</v>
+        <v>43.585593</v>
       </c>
       <c r="AN10" s="1">
-        <v>0</v>
+        <v>2.550422</v>
       </c>
       <c r="AO10" s="1">
-        <v>0</v>
+        <v>43.585593</v>
       </c>
       <c r="AP10" s="1">
-        <v>0</v>
+        <v>2.5504259</v>
       </c>
       <c r="AQ10" s="1">
-        <v>0</v>
+        <v>43.581176</v>
       </c>
       <c r="AR10" s="1">
         <v>0</v>
@@ -4257,22 +4257,22 @@
         <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>0</v>
+        <v>30.767987</v>
       </c>
       <c r="AU10" s="1">
-        <v>0</v>
+        <v>31.383477</v>
       </c>
       <c r="AV10" s="1">
-        <v>0</v>
+        <v>30.412875</v>
       </c>
       <c r="AW10" s="1">
         <v>0</v>
       </c>
       <c r="AX10" s="1">
-        <v>0</v>
+        <v>141.47533</v>
       </c>
       <c r="AY10" s="1">
-        <v>0</v>
+        <v>-292.86252</v>
       </c>
       <c r="AZ10" s="1">
         <v>0</v>
@@ -4284,55 +4284,55 @@
         <v>0</v>
       </c>
       <c r="BC10" s="1">
-        <v>0</v>
+        <v>1.7195693</v>
       </c>
       <c r="BD10" s="1">
-        <v>0</v>
+        <v>9.072114299999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>0</v>
+        <v>1.7195693</v>
       </c>
       <c r="BF10" s="1">
-        <v>0</v>
+        <v>9.072115</v>
       </c>
       <c r="BG10" s="1">
-        <v>0</v>
+        <v>578.5158700000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0</v>
+        <v>-89.514064</v>
       </c>
       <c r="BI10" s="1">
-        <v>0</v>
+        <v>103.61844</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0</v>
+        <v>308.2219</v>
       </c>
       <c r="BK10" s="1">
-        <v>0</v>
+        <v>202.99309</v>
       </c>
       <c r="BL10" s="1">
-        <v>0</v>
+        <v>334.31458</v>
       </c>
       <c r="BM10" s="1">
-        <v>0</v>
+        <v>233.83536</v>
       </c>
       <c r="BN10" s="1">
-        <v>0</v>
+        <v>684.06517</v>
       </c>
       <c r="BO10" s="1">
-        <v>0</v>
+        <v>80.999606</v>
       </c>
       <c r="BP10" s="1">
-        <v>0</v>
+        <v>168.54714</v>
       </c>
       <c r="BQ10" s="1">
-        <v>0</v>
+        <v>80.999602</v>
       </c>
       <c r="BR10" s="1">
-        <v>0</v>
+        <v>168.5471</v>
       </c>
       <c r="BS10" s="1">
-        <v>0</v>
+        <v>124.17033</v>
       </c>
       <c r="BT10" s="1">
         <v>0</v>
@@ -4341,22 +4341,22 @@
         <v>0</v>
       </c>
       <c r="BV10" s="1">
-        <v>0</v>
+        <v>260.80695</v>
       </c>
       <c r="BW10" s="1">
-        <v>0</v>
+        <v>173.64943</v>
       </c>
       <c r="BX10" s="1">
-        <v>0</v>
+        <v>291.99586</v>
       </c>
       <c r="BY10" s="1">
         <v>0</v>
       </c>
       <c r="BZ10" s="1">
-        <v>0</v>
+        <v>284.19215</v>
       </c>
       <c r="CA10" s="1">
-        <v>0</v>
+        <v>-53.519763</v>
       </c>
       <c r="CB10" s="1">
         <v>0</v>
@@ -4368,55 +4368,55 @@
         <v>0</v>
       </c>
       <c r="CE10" s="1">
-        <v>0</v>
+        <v>50.138848</v>
       </c>
       <c r="CF10" s="1">
-        <v>0</v>
+        <v>76.747332</v>
       </c>
       <c r="CG10" s="1">
-        <v>0</v>
+        <v>50.138847</v>
       </c>
       <c r="CH10" s="1">
-        <v>0</v>
+        <v>76.74736999999999</v>
       </c>
       <c r="CI10" s="1">
-        <v>0</v>
+        <v>363.62019</v>
       </c>
       <c r="CJ10" s="1">
-        <v>0</v>
+        <v>352.96915</v>
       </c>
       <c r="CK10" s="1">
-        <v>0</v>
+        <v>328.77424</v>
       </c>
       <c r="CL10" s="1">
-        <v>0</v>
+        <v>477.76321</v>
       </c>
       <c r="CM10" s="1">
-        <v>0</v>
+        <v>328.76453</v>
       </c>
       <c r="CN10" s="1">
-        <v>0</v>
+        <v>328.75636</v>
       </c>
       <c r="CO10" s="1">
-        <v>0</v>
+        <v>352.79393</v>
       </c>
       <c r="CP10" s="1">
-        <v>0</v>
+        <v>0.018063985</v>
       </c>
       <c r="CQ10" s="1">
-        <v>0</v>
+        <v>328.7779</v>
       </c>
       <c r="CR10" s="1">
-        <v>0</v>
+        <v>287.75567</v>
       </c>
       <c r="CS10" s="1">
-        <v>0</v>
+        <v>328.7779</v>
       </c>
       <c r="CT10" s="1">
-        <v>0</v>
+        <v>287.75567</v>
       </c>
       <c r="CU10" s="1">
-        <v>0</v>
+        <v>328.77162</v>
       </c>
       <c r="CV10" s="1">
         <v>0</v>
@@ -4425,22 +4425,22 @@
         <v>0</v>
       </c>
       <c r="CX10" s="1">
-        <v>0</v>
+        <v>323.57376</v>
       </c>
       <c r="CY10" s="1">
-        <v>0</v>
+        <v>324.19224</v>
       </c>
       <c r="CZ10" s="1">
-        <v>0</v>
+        <v>323.21687</v>
       </c>
       <c r="DA10" s="1">
         <v>0</v>
       </c>
       <c r="DB10" s="1">
-        <v>0</v>
+        <v>434.30601</v>
       </c>
       <c r="DC10" s="1">
-        <v>0</v>
+        <v>0.003053612</v>
       </c>
       <c r="DD10" s="1">
         <v>0</v>
@@ -4452,55 +4452,55 @@
         <v>0</v>
       </c>
       <c r="DG10" s="1">
-        <v>0</v>
+        <v>294.54787</v>
       </c>
       <c r="DH10" s="1">
-        <v>0</v>
+        <v>301.8953</v>
       </c>
       <c r="DI10" s="1">
-        <v>0</v>
+        <v>294.54787</v>
       </c>
       <c r="DJ10" s="1">
-        <v>0</v>
+        <v>301.8953</v>
       </c>
       <c r="DK10" s="1">
-        <v>0</v>
+        <v>711.21541</v>
       </c>
       <c r="DL10" s="1">
-        <v>0</v>
+        <v>26.332076</v>
       </c>
       <c r="DM10" s="1">
-        <v>0</v>
+        <v>210.58869</v>
       </c>
       <c r="DN10" s="1">
-        <v>0</v>
+        <v>467.36959</v>
       </c>
       <c r="DO10" s="1">
-        <v>0</v>
+        <v>309.96085</v>
       </c>
       <c r="DP10" s="1">
-        <v>0</v>
+        <v>441.28028</v>
       </c>
       <c r="DQ10" s="1">
-        <v>0</v>
+        <v>349.63772</v>
       </c>
       <c r="DR10" s="1">
-        <v>0</v>
+        <v>747.37294</v>
       </c>
       <c r="DS10" s="1">
-        <v>0</v>
+        <v>187.97081</v>
       </c>
       <c r="DT10" s="1">
-        <v>0</v>
+        <v>260.70897</v>
       </c>
       <c r="DU10" s="1">
-        <v>0</v>
+        <v>187.9708</v>
       </c>
       <c r="DV10" s="1">
-        <v>0</v>
+        <v>260.70894</v>
       </c>
       <c r="DW10" s="1">
-        <v>0</v>
+        <v>231.1399</v>
       </c>
       <c r="DX10" s="1">
         <v>0</v>
@@ -4509,22 +4509,22 @@
         <v>0</v>
       </c>
       <c r="DZ10" s="1">
-        <v>0</v>
+        <v>352.58692</v>
       </c>
       <c r="EA10" s="1">
-        <v>0</v>
+        <v>265.66108</v>
       </c>
       <c r="EB10" s="1">
-        <v>0</v>
+        <v>383.64224</v>
       </c>
       <c r="EC10" s="1">
         <v>0</v>
       </c>
       <c r="ED10" s="1">
-        <v>0</v>
+        <v>419.03532</v>
       </c>
       <c r="EE10" s="1">
-        <v>0</v>
+        <v>0.0030535815</v>
       </c>
       <c r="EF10" s="1">
         <v>0</v>
@@ -4536,55 +4536,55 @@
         <v>0</v>
       </c>
       <c r="EI10" s="1">
-        <v>0</v>
+        <v>131.34322</v>
       </c>
       <c r="EJ10" s="1">
-        <v>0</v>
+        <v>160.55434</v>
       </c>
       <c r="EK10" s="1">
-        <v>0</v>
+        <v>131.34322</v>
       </c>
       <c r="EL10" s="1">
-        <v>0</v>
+        <v>160.55438</v>
       </c>
       <c r="EM10" s="1">
-        <v>0</v>
+        <v>132.69954</v>
       </c>
       <c r="EN10" s="1">
-        <v>0</v>
+        <v>115.84614</v>
       </c>
       <c r="EO10" s="1">
-        <v>0</v>
+        <v>106.97025</v>
       </c>
       <c r="EP10" s="1">
-        <v>0</v>
+        <v>159.1477</v>
       </c>
       <c r="EQ10" s="1">
-        <v>0</v>
+        <v>106.96776</v>
       </c>
       <c r="ER10" s="1">
-        <v>0</v>
+        <v>106.9657</v>
       </c>
       <c r="ES10" s="1">
-        <v>0</v>
+        <v>115.80235</v>
       </c>
       <c r="ET10" s="1">
-        <v>0</v>
+        <v>63.307771</v>
       </c>
       <c r="EU10" s="1">
-        <v>0</v>
+        <v>106.9712</v>
       </c>
       <c r="EV10" s="1">
-        <v>0</v>
+        <v>92.161839</v>
       </c>
       <c r="EW10" s="1">
-        <v>0</v>
+        <v>106.9712</v>
       </c>
       <c r="EX10" s="1">
-        <v>0</v>
+        <v>92.16184</v>
       </c>
       <c r="EY10" s="1">
-        <v>0</v>
+        <v>106.96958</v>
       </c>
       <c r="EZ10" s="1">
         <v>0</v>
@@ -4593,22 +4593,22 @@
         <v>0</v>
       </c>
       <c r="FB10" s="1">
-        <v>0</v>
+        <v>-91.779967</v>
       </c>
       <c r="FC10" s="1">
-        <v>0</v>
+        <v>-92.01164300000001</v>
       </c>
       <c r="FD10" s="1">
-        <v>0</v>
+        <v>-91.646382</v>
       </c>
       <c r="FE10" s="1">
         <v>0</v>
       </c>
       <c r="FF10" s="1">
-        <v>0</v>
+        <v>-134.84317</v>
       </c>
       <c r="FG10" s="1">
-        <v>0</v>
+        <v>-53.522817</v>
       </c>
       <c r="FH10" s="1">
         <v>0</v>
@@ -4620,16 +4620,16 @@
         <v>0</v>
       </c>
       <c r="FK10" s="1">
-        <v>0</v>
+        <v>-81.204376</v>
       </c>
       <c r="FL10" s="1">
-        <v>0</v>
+        <v>-83.807008</v>
       </c>
       <c r="FM10" s="1">
-        <v>0</v>
+        <v>-81.204376</v>
       </c>
       <c r="FN10" s="1">
-        <v>0</v>
+        <v>-83.80700899999999</v>
       </c>
     </row>
     <row r="11" spans="1:170" s="1" customFormat="1">
@@ -5121,14 +5121,14 @@
       <c r="V12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>184</v>
+      <c r="W12" s="1">
+        <v>0</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>184</v>
+      <c r="Y12" s="1">
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
@@ -5145,44 +5145,44 @@
       <c r="AD12" s="1">
         <v>0</v>
       </c>
-      <c r="AE12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AQ12" s="1" t="s">
-        <v>184</v>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>0</v>
       </c>
       <c r="AR12" s="1" t="s">
         <v>184</v>
@@ -5190,23 +5190,23 @@
       <c r="AS12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AT12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AU12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AV12" s="1" t="s">
-        <v>184</v>
+      <c r="AT12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>0</v>
       </c>
       <c r="AW12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AX12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>184</v>
+      <c r="AX12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>0</v>
       </c>
       <c r="AZ12" s="1" t="s">
         <v>184</v>
@@ -5217,56 +5217,56 @@
       <c r="BB12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BC12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BD12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BE12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BF12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BG12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BH12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BI12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BJ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BK12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BL12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BM12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BN12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BO12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BQ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BS12" s="1" t="s">
-        <v>184</v>
+      <c r="BC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="1">
+        <v>0</v>
       </c>
       <c r="BT12" s="1" t="s">
         <v>184</v>
@@ -5274,23 +5274,23 @@
       <c r="BU12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BV12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BW12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BX12" s="1" t="s">
-        <v>184</v>
+      <c r="BV12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="1">
+        <v>0</v>
       </c>
       <c r="BY12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BZ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CA12" s="1" t="s">
-        <v>184</v>
+      <c r="BZ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA12" s="1">
+        <v>0</v>
       </c>
       <c r="CB12" s="1" t="s">
         <v>184</v>
@@ -5301,56 +5301,56 @@
       <c r="CD12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CE12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CF12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CG12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CH12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CI12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CJ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CK12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CL12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CM12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CN12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CO12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CP12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CQ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CR12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CS12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CT12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CU12" s="1" t="s">
-        <v>184</v>
+      <c r="CE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU12" s="1">
+        <v>0</v>
       </c>
       <c r="CV12" s="1" t="s">
         <v>184</v>
@@ -5358,23 +5358,23 @@
       <c r="CW12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CX12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CY12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CZ12" s="1" t="s">
-        <v>184</v>
+      <c r="CX12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ12" s="1">
+        <v>0</v>
       </c>
       <c r="DA12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="DB12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DC12" s="1" t="s">
-        <v>184</v>
+      <c r="DB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC12" s="1">
+        <v>0</v>
       </c>
       <c r="DD12" s="1" t="s">
         <v>184</v>
@@ -5385,56 +5385,56 @@
       <c r="DF12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="DG12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DH12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DI12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DJ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DK12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DL12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DM12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DN12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DO12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DP12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DQ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DR12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DS12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DT12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DU12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DV12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DW12" s="1" t="s">
-        <v>184</v>
+      <c r="DG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DU12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DV12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW12" s="1">
+        <v>0</v>
       </c>
       <c r="DX12" s="1" t="s">
         <v>184</v>
@@ -5442,23 +5442,23 @@
       <c r="DY12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="DZ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EA12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EB12" s="1" t="s">
-        <v>184</v>
+      <c r="DZ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EB12" s="1">
+        <v>0</v>
       </c>
       <c r="EC12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="ED12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EE12" s="1" t="s">
-        <v>184</v>
+      <c r="ED12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE12" s="1">
+        <v>0</v>
       </c>
       <c r="EF12" s="1" t="s">
         <v>184</v>
@@ -5469,56 +5469,56 @@
       <c r="EH12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="EI12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EJ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EK12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EL12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EM12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EN12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EO12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EP12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EQ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="ER12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="ES12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="ET12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EU12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EV12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EW12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EX12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EY12" s="1" t="s">
-        <v>184</v>
+      <c r="EI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER12" s="1">
+        <v>0</v>
+      </c>
+      <c r="ES12" s="1">
+        <v>0</v>
+      </c>
+      <c r="ET12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EU12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EV12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EW12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EX12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EY12" s="1">
+        <v>0</v>
       </c>
       <c r="EZ12" s="1" t="s">
         <v>184</v>
@@ -5526,23 +5526,23 @@
       <c r="FA12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="FB12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="FC12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="FD12" s="1" t="s">
-        <v>184</v>
+      <c r="FB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="FC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="FD12" s="1">
+        <v>0</v>
       </c>
       <c r="FE12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="FF12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="FG12" s="1" t="s">
-        <v>184</v>
+      <c r="FF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="FG12" s="1">
+        <v>0</v>
       </c>
       <c r="FH12" s="1" t="s">
         <v>184</v>
@@ -5553,17 +5553,17 @@
       <c r="FJ12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="FK12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="FL12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="FM12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="FN12" s="1" t="s">
-        <v>184</v>
+      <c r="FK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="FM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="FN12" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:170" s="1" customFormat="1"/>

--- a/dcd_opamp_dcop_pre_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_dcop_pre_feb28_tsmc2p_meas.xlsx
@@ -1744,43 +1744,43 @@
       <c r="CH2">
         <v>76.74736999999999</v>
       </c>
-      <c r="CI2" s="3">
+      <c r="CI2">
         <v>363.62019</v>
       </c>
-      <c r="CJ2" s="3">
+      <c r="CJ2">
         <v>352.96915</v>
       </c>
-      <c r="CK2" s="3">
+      <c r="CK2">
         <v>328.77424</v>
       </c>
-      <c r="CL2" s="3">
+      <c r="CL2">
         <v>477.76321</v>
       </c>
-      <c r="CM2" s="3">
+      <c r="CM2">
         <v>328.76453</v>
       </c>
-      <c r="CN2" s="3">
+      <c r="CN2">
         <v>328.75636</v>
       </c>
-      <c r="CO2" s="3">
+      <c r="CO2">
         <v>352.79393</v>
       </c>
       <c r="CP2" s="3">
         <v>0.018063985</v>
       </c>
-      <c r="CQ2" s="3">
+      <c r="CQ2">
         <v>328.7779</v>
       </c>
-      <c r="CR2" s="3">
+      <c r="CR2">
         <v>287.75567</v>
       </c>
-      <c r="CS2" s="3">
+      <c r="CS2">
         <v>328.7779</v>
       </c>
-      <c r="CT2" s="3">
+      <c r="CT2">
         <v>287.75567</v>
       </c>
-      <c r="CU2" s="3">
+      <c r="CU2">
         <v>328.77162</v>
       </c>
       <c r="CV2" s="3">
@@ -1789,19 +1789,19 @@
       <c r="CW2" s="3">
         <v>0</v>
       </c>
-      <c r="CX2" s="3">
+      <c r="CX2">
         <v>323.57376</v>
       </c>
-      <c r="CY2" s="3">
+      <c r="CY2">
         <v>324.19224</v>
       </c>
-      <c r="CZ2" s="3">
+      <c r="CZ2">
         <v>323.21687</v>
       </c>
       <c r="DA2" s="3">
         <v>0</v>
       </c>
-      <c r="DB2" s="3">
+      <c r="DB2">
         <v>434.30601</v>
       </c>
       <c r="DC2" s="3">
@@ -1816,16 +1816,16 @@
       <c r="DF2" s="3">
         <v>0</v>
       </c>
-      <c r="DG2" s="3">
+      <c r="DG2">
         <v>294.54787</v>
       </c>
-      <c r="DH2" s="3">
+      <c r="DH2">
         <v>301.8953</v>
       </c>
-      <c r="DI2" s="3">
+      <c r="DI2">
         <v>294.54787</v>
       </c>
-      <c r="DJ2" s="3">
+      <c r="DJ2">
         <v>301.8953</v>
       </c>
       <c r="DK2">
@@ -2723,43 +2723,43 @@
       <c r="CH4" s="1">
         <v>76.74736999999999</v>
       </c>
-      <c r="CI4" s="3">
+      <c r="CI4" s="1">
         <v>363.62019</v>
       </c>
-      <c r="CJ4" s="3">
+      <c r="CJ4" s="1">
         <v>352.96915</v>
       </c>
-      <c r="CK4" s="3">
+      <c r="CK4" s="1">
         <v>328.77424</v>
       </c>
-      <c r="CL4" s="3">
+      <c r="CL4" s="1">
         <v>477.76321</v>
       </c>
-      <c r="CM4" s="3">
+      <c r="CM4" s="1">
         <v>328.76453</v>
       </c>
-      <c r="CN4" s="3">
+      <c r="CN4" s="1">
         <v>328.75636</v>
       </c>
-      <c r="CO4" s="3">
+      <c r="CO4" s="1">
         <v>352.79393</v>
       </c>
       <c r="CP4" s="3">
         <v>0.018063985</v>
       </c>
-      <c r="CQ4" s="3">
+      <c r="CQ4" s="1">
         <v>328.7779</v>
       </c>
-      <c r="CR4" s="3">
+      <c r="CR4" s="1">
         <v>287.75567</v>
       </c>
-      <c r="CS4" s="3">
+      <c r="CS4" s="1">
         <v>328.7779</v>
       </c>
-      <c r="CT4" s="3">
+      <c r="CT4" s="1">
         <v>287.75567</v>
       </c>
-      <c r="CU4" s="3">
+      <c r="CU4" s="1">
         <v>328.77162</v>
       </c>
       <c r="CV4" s="3">
@@ -2768,19 +2768,19 @@
       <c r="CW4" s="3">
         <v>0</v>
       </c>
-      <c r="CX4" s="3">
+      <c r="CX4" s="1">
         <v>323.57376</v>
       </c>
-      <c r="CY4" s="3">
+      <c r="CY4" s="1">
         <v>324.19224</v>
       </c>
-      <c r="CZ4" s="3">
+      <c r="CZ4" s="1">
         <v>323.21687</v>
       </c>
       <c r="DA4" s="3">
         <v>0</v>
       </c>
-      <c r="DB4" s="3">
+      <c r="DB4" s="1">
         <v>434.30601</v>
       </c>
       <c r="DC4" s="3">
@@ -2795,16 +2795,16 @@
       <c r="DF4" s="3">
         <v>0</v>
       </c>
-      <c r="DG4" s="3">
+      <c r="DG4" s="1">
         <v>294.54787</v>
       </c>
-      <c r="DH4" s="3">
+      <c r="DH4" s="1">
         <v>301.8953</v>
       </c>
-      <c r="DI4" s="3">
+      <c r="DI4" s="1">
         <v>294.54787</v>
       </c>
-      <c r="DJ4" s="3">
+      <c r="DJ4" s="1">
         <v>301.8953</v>
       </c>
       <c r="DK4" s="1">
@@ -3190,43 +3190,43 @@
       <c r="CH5" s="1">
         <v>76.74736999999999</v>
       </c>
-      <c r="CI5" s="3">
+      <c r="CI5" s="1">
         <v>363.62019</v>
       </c>
-      <c r="CJ5" s="3">
+      <c r="CJ5" s="1">
         <v>352.96915</v>
       </c>
-      <c r="CK5" s="3">
+      <c r="CK5" s="1">
         <v>328.77424</v>
       </c>
-      <c r="CL5" s="3">
+      <c r="CL5" s="1">
         <v>477.76321</v>
       </c>
-      <c r="CM5" s="3">
+      <c r="CM5" s="1">
         <v>328.76453</v>
       </c>
-      <c r="CN5" s="3">
+      <c r="CN5" s="1">
         <v>328.75636</v>
       </c>
-      <c r="CO5" s="3">
+      <c r="CO5" s="1">
         <v>352.79393</v>
       </c>
       <c r="CP5" s="3">
         <v>0.018063985</v>
       </c>
-      <c r="CQ5" s="3">
+      <c r="CQ5" s="1">
         <v>328.7779</v>
       </c>
-      <c r="CR5" s="3">
+      <c r="CR5" s="1">
         <v>287.75567</v>
       </c>
-      <c r="CS5" s="3">
+      <c r="CS5" s="1">
         <v>328.7779</v>
       </c>
-      <c r="CT5" s="3">
+      <c r="CT5" s="1">
         <v>287.75567</v>
       </c>
-      <c r="CU5" s="3">
+      <c r="CU5" s="1">
         <v>328.77162</v>
       </c>
       <c r="CV5" s="3">
@@ -3235,19 +3235,19 @@
       <c r="CW5" s="3">
         <v>0</v>
       </c>
-      <c r="CX5" s="3">
+      <c r="CX5" s="1">
         <v>323.57376</v>
       </c>
-      <c r="CY5" s="3">
+      <c r="CY5" s="1">
         <v>324.19224</v>
       </c>
-      <c r="CZ5" s="3">
+      <c r="CZ5" s="1">
         <v>323.21687</v>
       </c>
       <c r="DA5" s="3">
         <v>0</v>
       </c>
-      <c r="DB5" s="3">
+      <c r="DB5" s="1">
         <v>434.30601</v>
       </c>
       <c r="DC5" s="3">
@@ -3262,16 +3262,16 @@
       <c r="DF5" s="3">
         <v>0</v>
       </c>
-      <c r="DG5" s="3">
+      <c r="DG5" s="1">
         <v>294.54787</v>
       </c>
-      <c r="DH5" s="3">
+      <c r="DH5" s="1">
         <v>301.8953</v>
       </c>
-      <c r="DI5" s="3">
+      <c r="DI5" s="1">
         <v>294.54787</v>
       </c>
-      <c r="DJ5" s="3">
+      <c r="DJ5" s="1">
         <v>301.8953</v>
       </c>
       <c r="DK5" s="1">
@@ -3636,88 +3636,88 @@
         <v>0</v>
       </c>
       <c r="CI7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CJ7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CK7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CL7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CM7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CN7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CO7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CP7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CQ7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CR7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CS7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CT7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CU7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CV7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CW7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CX7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CY7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CZ7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DA7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DB7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DC7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DD7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DE7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DF7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DG7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DH7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DI7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DJ7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DK7" s="1">
         <v>0</v>
@@ -3997,88 +3997,88 @@
         <v>0</v>
       </c>
       <c r="CI9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CJ9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CK9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CL9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CM9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CN9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CO9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CP9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CQ9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CR9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CS9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CT9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CU9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CV9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CW9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CX9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CY9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CZ9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DA9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DB9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DC9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DD9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DE9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DF9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DG9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DH9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DI9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DJ9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DK9" s="1">
         <v>0</v>

--- a/dcd_opamp_dcop_pre_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_dcop_pre_feb28_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="194">
   <si>
     <t>Process</t>
   </si>
@@ -1640,7 +1640,7 @@
         <v>-292.86252</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>10.335738</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -1723,8 +1723,8 @@
       <c r="CA2" s="3">
         <v>-53.519763</v>
       </c>
-      <c r="CB2">
-        <v>0</v>
+      <c r="CB2" s="3">
+        <v>-84.25328</v>
       </c>
       <c r="CC2">
         <v>0</v>
@@ -1807,8 +1807,8 @@
       <c r="DC2" s="3">
         <v>0.003053612</v>
       </c>
-      <c r="DD2" s="3">
-        <v>0</v>
+      <c r="DD2">
+        <v>302.98592</v>
       </c>
       <c r="DE2" s="3">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>-53.522817</v>
       </c>
       <c r="FH2">
-        <v>0</v>
+        <v>-84.25328</v>
       </c>
       <c r="FI2">
         <v>0</v>
@@ -2619,7 +2619,7 @@
         <v>-292.86252</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0</v>
+        <v>10.335738</v>
       </c>
       <c r="BA4" s="1">
         <v>0</v>
@@ -2702,8 +2702,8 @@
       <c r="CA4" s="3">
         <v>-53.519763</v>
       </c>
-      <c r="CB4" s="1">
-        <v>0</v>
+      <c r="CB4" s="3">
+        <v>-84.25328</v>
       </c>
       <c r="CC4" s="1">
         <v>0</v>
@@ -2786,8 +2786,8 @@
       <c r="DC4" s="3">
         <v>0.003053612</v>
       </c>
-      <c r="DD4" s="3">
-        <v>0</v>
+      <c r="DD4" s="1">
+        <v>302.98592</v>
       </c>
       <c r="DE4" s="3">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>-53.522817</v>
       </c>
       <c r="FH4" s="1">
-        <v>0</v>
+        <v>-84.25328</v>
       </c>
       <c r="FI4" s="1">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>-292.86252</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0</v>
+        <v>10.335738</v>
       </c>
       <c r="BA5" s="1">
         <v>0</v>
@@ -3169,8 +3169,8 @@
       <c r="CA5" s="3">
         <v>-53.519763</v>
       </c>
-      <c r="CB5" s="1">
-        <v>0</v>
+      <c r="CB5" s="3">
+        <v>-84.25328</v>
       </c>
       <c r="CC5" s="1">
         <v>0</v>
@@ -3253,8 +3253,8 @@
       <c r="DC5" s="3">
         <v>0.003053612</v>
       </c>
-      <c r="DD5" s="3">
-        <v>0</v>
+      <c r="DD5" s="1">
+        <v>302.98592</v>
       </c>
       <c r="DE5" s="3">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>-53.522817</v>
       </c>
       <c r="FH5" s="1">
-        <v>0</v>
+        <v>-84.25328</v>
       </c>
       <c r="FI5" s="1">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>-292.86252</v>
       </c>
       <c r="AZ10" s="1">
-        <v>0</v>
+        <v>10.335738</v>
       </c>
       <c r="BA10" s="1">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>-53.519763</v>
       </c>
       <c r="CB10" s="1">
-        <v>0</v>
+        <v>-84.25328</v>
       </c>
       <c r="CC10" s="1">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0.003053612</v>
       </c>
       <c r="DD10" s="1">
-        <v>0</v>
+        <v>302.98592</v>
       </c>
       <c r="DE10" s="1">
         <v>0</v>
@@ -4611,7 +4611,7 @@
         <v>-53.522817</v>
       </c>
       <c r="FH10" s="1">
-        <v>0</v>
+        <v>-84.25328</v>
       </c>
       <c r="FI10" s="1">
         <v>0</v>
@@ -5208,8 +5208,8 @@
       <c r="AY12" s="1">
         <v>0</v>
       </c>
-      <c r="AZ12" s="1" t="s">
-        <v>184</v>
+      <c r="AZ12" s="1">
+        <v>0</v>
       </c>
       <c r="BA12" s="1" t="s">
         <v>184</v>
@@ -5292,8 +5292,8 @@
       <c r="CA12" s="1">
         <v>0</v>
       </c>
-      <c r="CB12" s="1" t="s">
-        <v>184</v>
+      <c r="CB12" s="1">
+        <v>0</v>
       </c>
       <c r="CC12" s="1" t="s">
         <v>184</v>
@@ -5376,8 +5376,8 @@
       <c r="DC12" s="1">
         <v>0</v>
       </c>
-      <c r="DD12" s="1" t="s">
-        <v>184</v>
+      <c r="DD12" s="1">
+        <v>0</v>
       </c>
       <c r="DE12" s="1" t="s">
         <v>184</v>
@@ -5544,8 +5544,8 @@
       <c r="FG12" s="1">
         <v>0</v>
       </c>
-      <c r="FH12" s="1" t="s">
-        <v>184</v>
+      <c r="FH12" s="1">
+        <v>0</v>
       </c>
       <c r="FI12" s="1" t="s">
         <v>184</v>

--- a/dcd_opamp_dcop_pre_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_dcop_pre_feb28_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="194">
   <si>
     <t>Process</t>
   </si>
@@ -1553,67 +1553,67 @@
         <v>184</v>
       </c>
       <c r="W2" s="3">
-        <v>-15.984591</v>
+        <v>-15.967424</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-144.56174</v>
       </c>
       <c r="Y2">
-        <v>91.40172099999999</v>
+        <v>91.41186900000001</v>
       </c>
       <c r="Z2">
-        <v>453.33385</v>
+        <v>422.67375</v>
       </c>
       <c r="AA2">
-        <v>453.3338</v>
+        <v>422.67373</v>
       </c>
       <c r="AB2">
-        <v>453.33382</v>
+        <v>422.67374</v>
       </c>
       <c r="AC2" s="3">
-        <v>4.1310485E-05</v>
+        <v>1.1357419E-05</v>
       </c>
       <c r="AD2">
-        <v>-827.1378</v>
+        <v>-1027.9566</v>
       </c>
       <c r="AE2">
-        <v>113.0638</v>
+        <v>112.71928</v>
       </c>
       <c r="AF2">
-        <v>352.96915</v>
+        <v>352.9597199999999</v>
       </c>
       <c r="AG2">
-        <v>43.583009</v>
+        <v>43.509179</v>
       </c>
       <c r="AH2">
-        <v>192.5622</v>
+        <v>192.41618</v>
       </c>
       <c r="AI2">
-        <v>43.576239</v>
+        <v>43.502429</v>
       </c>
       <c r="AJ2">
-        <v>43.57063299999999</v>
+        <v>43.496835</v>
       </c>
       <c r="AK2">
-        <v>67.618404</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>-285.20541</v>
+        <v>67.567367</v>
+      </c>
+      <c r="AL2">
+        <v>67.564042</v>
       </c>
       <c r="AM2">
-        <v>43.585593</v>
+        <v>43.525731</v>
       </c>
       <c r="AN2">
-        <v>2.550422</v>
+        <v>60.892237</v>
       </c>
       <c r="AO2">
-        <v>43.585593</v>
+        <v>43.525731</v>
       </c>
       <c r="AP2">
-        <v>2.5504259</v>
+        <v>60.892237</v>
       </c>
       <c r="AQ2">
-        <v>43.581176</v>
+        <v>43.50718</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1622,25 +1622,25 @@
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>30.767987</v>
+        <v>30.700605</v>
       </c>
       <c r="AU2">
-        <v>31.383477</v>
+        <v>31.317965</v>
       </c>
       <c r="AV2">
-        <v>30.412875</v>
+        <v>30.347151</v>
       </c>
       <c r="AW2">
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>141.47533</v>
-      </c>
-      <c r="AY2" s="3">
-        <v>-292.86252</v>
+        <v>141.3489</v>
+      </c>
+      <c r="AY2">
+        <v>77.10979900000001</v>
       </c>
       <c r="AZ2">
-        <v>10.335738</v>
+        <v>10.274832</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -1649,55 +1649,55 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>1.7195693</v>
+        <v>31.917181</v>
       </c>
       <c r="BD2">
-        <v>9.072114299999999</v>
+        <v>70.38503799999999</v>
       </c>
       <c r="BE2">
-        <v>1.7195693</v>
+        <v>31.917181</v>
       </c>
       <c r="BF2">
-        <v>9.072115</v>
+        <v>70.38503799999999</v>
       </c>
       <c r="BG2">
-        <v>578.5158700000001</v>
+        <v>578.3023499999999</v>
       </c>
       <c r="BH2" s="3">
-        <v>-89.514064</v>
+        <v>-89.536951</v>
       </c>
       <c r="BI2">
-        <v>103.61844</v>
+        <v>103.55626</v>
       </c>
       <c r="BJ2">
-        <v>308.2219</v>
+        <v>308.13433</v>
       </c>
       <c r="BK2">
-        <v>202.99309</v>
+        <v>202.697</v>
       </c>
       <c r="BL2">
-        <v>334.31458</v>
+        <v>333.95379</v>
       </c>
       <c r="BM2">
-        <v>233.83536</v>
+        <v>233.80554</v>
       </c>
       <c r="BN2">
-        <v>684.06517</v>
+        <v>257.14783</v>
       </c>
       <c r="BO2">
-        <v>80.999606</v>
+        <v>22.483926</v>
       </c>
       <c r="BP2">
-        <v>168.54714</v>
+        <v>173.52804</v>
       </c>
       <c r="BQ2">
-        <v>80.999602</v>
+        <v>22.483926</v>
       </c>
       <c r="BR2">
-        <v>168.5471</v>
+        <v>173.52804</v>
       </c>
       <c r="BS2">
-        <v>124.17033</v>
+        <v>126.20274</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -1706,25 +1706,25 @@
         <v>0</v>
       </c>
       <c r="BV2">
-        <v>260.80695</v>
+        <v>260.75539</v>
       </c>
       <c r="BW2">
-        <v>173.64943</v>
+        <v>173.37072</v>
       </c>
       <c r="BX2">
-        <v>291.99586</v>
+        <v>291.65735</v>
       </c>
       <c r="BY2">
         <v>0</v>
       </c>
       <c r="BZ2">
-        <v>284.19215</v>
-      </c>
-      <c r="CA2" s="3">
-        <v>-53.519763</v>
+        <v>284.12432</v>
+      </c>
+      <c r="CA2">
+        <v>256.78371</v>
       </c>
       <c r="CB2" s="3">
-        <v>-84.25328</v>
+        <v>-84.23011299999999</v>
       </c>
       <c r="CC2">
         <v>0</v>
@@ -1732,56 +1732,56 @@
       <c r="CD2">
         <v>0</v>
       </c>
-      <c r="CE2">
-        <v>50.138848</v>
+      <c r="CE2" s="3">
+        <v>-22.751065</v>
       </c>
       <c r="CF2">
-        <v>76.747332</v>
-      </c>
-      <c r="CG2">
-        <v>50.138847</v>
+        <v>143.40127</v>
+      </c>
+      <c r="CG2" s="3">
+        <v>-22.751065</v>
       </c>
       <c r="CH2">
-        <v>76.74736999999999</v>
+        <v>143.40127</v>
       </c>
       <c r="CI2">
-        <v>363.62019</v>
+        <v>363.27583</v>
       </c>
       <c r="CJ2">
-        <v>352.96915</v>
+        <v>352.9597199999999</v>
       </c>
       <c r="CK2">
-        <v>328.77424</v>
+        <v>328.70058</v>
       </c>
       <c r="CL2">
-        <v>477.76321</v>
+        <v>477.61722</v>
       </c>
       <c r="CM2">
-        <v>328.76453</v>
+        <v>328.69089</v>
       </c>
       <c r="CN2">
-        <v>328.75636</v>
+        <v>328.68273</v>
       </c>
       <c r="CO2">
-        <v>352.79393</v>
-      </c>
-      <c r="CP2" s="3">
-        <v>0.018063985</v>
+        <v>352.74353</v>
+      </c>
+      <c r="CP2">
+        <v>352.73964</v>
       </c>
       <c r="CQ2">
-        <v>328.7779</v>
+        <v>328.72368</v>
       </c>
       <c r="CR2">
-        <v>287.75567</v>
+        <v>346.07373</v>
       </c>
       <c r="CS2">
-        <v>328.7779</v>
+        <v>328.72368</v>
       </c>
       <c r="CT2">
-        <v>287.75567</v>
+        <v>346.07373</v>
       </c>
       <c r="CU2">
-        <v>328.77162</v>
+        <v>328.69773</v>
       </c>
       <c r="CV2" s="3">
         <v>0</v>
@@ -1790,25 +1790,25 @@
         <v>0</v>
       </c>
       <c r="CX2">
-        <v>323.57376</v>
+        <v>323.50635</v>
       </c>
       <c r="CY2">
-        <v>324.19224</v>
+        <v>324.12672</v>
       </c>
       <c r="CZ2">
-        <v>323.21687</v>
+        <v>323.15113</v>
       </c>
       <c r="DA2" s="3">
         <v>0</v>
       </c>
       <c r="DB2">
-        <v>434.30601</v>
-      </c>
-      <c r="DC2" s="3">
-        <v>0.003053612</v>
+        <v>434.1792</v>
+      </c>
+      <c r="DC2">
+        <v>369.88458</v>
       </c>
       <c r="DD2">
-        <v>302.98592</v>
+        <v>302.92305</v>
       </c>
       <c r="DE2" s="3">
         <v>0</v>
@@ -1817,55 +1817,55 @@
         <v>0</v>
       </c>
       <c r="DG2">
-        <v>294.54787</v>
+        <v>324.75568</v>
       </c>
       <c r="DH2">
-        <v>301.8953</v>
+        <v>363.16968</v>
       </c>
       <c r="DI2">
-        <v>294.54787</v>
+        <v>324.75568</v>
       </c>
       <c r="DJ2">
-        <v>301.8953</v>
+        <v>363.16968</v>
       </c>
       <c r="DK2">
-        <v>711.21541</v>
+        <v>710.87932</v>
       </c>
       <c r="DL2">
-        <v>26.332076</v>
+        <v>26.305732</v>
       </c>
       <c r="DM2">
-        <v>210.58869</v>
+        <v>210.49941</v>
       </c>
       <c r="DN2">
-        <v>467.36959</v>
+        <v>467.23425</v>
       </c>
       <c r="DO2">
-        <v>309.96085</v>
+        <v>309.63766</v>
       </c>
       <c r="DP2">
-        <v>441.28028</v>
+        <v>440.89239</v>
       </c>
       <c r="DQ2">
-        <v>349.63772</v>
+        <v>349.5892</v>
       </c>
       <c r="DR2">
-        <v>747.37294</v>
+        <v>372.93027</v>
       </c>
       <c r="DS2">
-        <v>187.97081</v>
+        <v>129.43318</v>
       </c>
       <c r="DT2">
-        <v>260.70897</v>
+        <v>286.86335</v>
       </c>
       <c r="DU2">
-        <v>187.9708</v>
+        <v>129.43318</v>
       </c>
       <c r="DV2">
-        <v>260.70894</v>
+        <v>286.86335</v>
       </c>
       <c r="DW2">
-        <v>231.1399</v>
+        <v>233.14515</v>
       </c>
       <c r="DX2">
         <v>0</v>
@@ -1874,22 +1874,22 @@
         <v>0</v>
       </c>
       <c r="DZ2">
-        <v>352.58692</v>
+        <v>352.51012</v>
       </c>
       <c r="EA2">
-        <v>265.66108</v>
+        <v>265.35781</v>
       </c>
       <c r="EB2">
-        <v>383.64224</v>
+        <v>383.27913</v>
       </c>
       <c r="EC2">
         <v>0</v>
       </c>
       <c r="ED2">
-        <v>419.03532</v>
+        <v>418.91852</v>
       </c>
       <c r="EE2">
-        <v>0.0030535815</v>
+        <v>366.47131</v>
       </c>
       <c r="EF2">
         <v>0</v>
@@ -1901,55 +1901,55 @@
         <v>0</v>
       </c>
       <c r="EI2">
-        <v>131.34322</v>
+        <v>69.462684</v>
       </c>
       <c r="EJ2">
-        <v>160.55434</v>
+        <v>250.45513</v>
       </c>
       <c r="EK2">
-        <v>131.34322</v>
+        <v>69.462684</v>
       </c>
       <c r="EL2">
-        <v>160.55438</v>
+        <v>250.45512</v>
       </c>
       <c r="EM2">
-        <v>132.69954</v>
+        <v>132.57697</v>
       </c>
       <c r="EN2">
-        <v>115.84614</v>
+        <v>115.84268</v>
       </c>
       <c r="EO2">
-        <v>106.97025</v>
+        <v>106.94315</v>
       </c>
       <c r="EP2">
-        <v>159.1477</v>
+        <v>159.09992</v>
       </c>
       <c r="EQ2">
-        <v>106.96776</v>
+        <v>106.94066</v>
       </c>
       <c r="ER2">
-        <v>106.9657</v>
+        <v>106.9386</v>
       </c>
       <c r="ES2">
-        <v>115.80235</v>
+        <v>115.78366</v>
       </c>
       <c r="ET2">
-        <v>63.307771</v>
+        <v>115.78244</v>
       </c>
       <c r="EU2">
-        <v>106.9712</v>
+        <v>106.94925</v>
       </c>
       <c r="EV2">
-        <v>92.161839</v>
+        <v>113.33531</v>
       </c>
       <c r="EW2">
-        <v>106.9712</v>
+        <v>106.94925</v>
       </c>
       <c r="EX2">
-        <v>92.16184</v>
+        <v>113.33531</v>
       </c>
       <c r="EY2">
-        <v>106.96958</v>
+        <v>106.94241</v>
       </c>
       <c r="EZ2">
         <v>0</v>
@@ -1958,25 +1958,25 @@
         <v>0</v>
       </c>
       <c r="FB2">
-        <v>-91.779967</v>
+        <v>-91.754729</v>
       </c>
       <c r="FC2">
-        <v>-92.01164300000001</v>
+        <v>-91.987092</v>
       </c>
       <c r="FD2">
-        <v>-91.646382</v>
+        <v>-91.621774</v>
       </c>
       <c r="FE2">
         <v>0</v>
       </c>
       <c r="FF2">
-        <v>-134.84317</v>
+        <v>-134.7942</v>
       </c>
       <c r="FG2">
-        <v>-53.522817</v>
+        <v>-109.6876</v>
       </c>
       <c r="FH2">
-        <v>-84.25328</v>
+        <v>-84.23011299999999</v>
       </c>
       <c r="FI2">
         <v>0</v>
@@ -1985,16 +1985,16 @@
         <v>0</v>
       </c>
       <c r="FK2">
-        <v>-81.204376</v>
+        <v>-92.21374899999999</v>
       </c>
       <c r="FL2">
-        <v>-83.807008</v>
+        <v>-107.05386</v>
       </c>
       <c r="FM2">
-        <v>-81.204376</v>
+        <v>-92.21374899999999</v>
       </c>
       <c r="FN2">
-        <v>-83.80700899999999</v>
+        <v>-107.05386</v>
       </c>
     </row>
     <row r="3" spans="1:170" s="1" customFormat="1">
@@ -2532,67 +2532,67 @@
         <v>184</v>
       </c>
       <c r="W4" s="3">
-        <v>-15.984591</v>
+        <v>-15.967424</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>-144.56174</v>
       </c>
       <c r="Y4" s="1">
-        <v>91.40172099999999</v>
+        <v>91.41186900000001</v>
       </c>
       <c r="Z4" s="1">
-        <v>453.33385</v>
+        <v>422.67375</v>
       </c>
       <c r="AA4" s="1">
-        <v>453.3338</v>
+        <v>422.67373</v>
       </c>
       <c r="AB4" s="1">
-        <v>453.33382</v>
+        <v>422.67374</v>
       </c>
       <c r="AC4" s="3">
-        <v>4.1310485E-05</v>
+        <v>1.1357419E-05</v>
       </c>
       <c r="AD4" s="1">
-        <v>-827.1378</v>
+        <v>-1027.9566</v>
       </c>
       <c r="AE4" s="1">
-        <v>113.0638</v>
+        <v>112.71928</v>
       </c>
       <c r="AF4" s="1">
-        <v>352.96915</v>
+        <v>352.9597199999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>43.583009</v>
+        <v>43.509179</v>
       </c>
       <c r="AH4" s="1">
-        <v>192.5622</v>
+        <v>192.41618</v>
       </c>
       <c r="AI4" s="1">
-        <v>43.576239</v>
+        <v>43.502429</v>
       </c>
       <c r="AJ4" s="1">
-        <v>43.57063299999999</v>
+        <v>43.496835</v>
       </c>
       <c r="AK4" s="1">
-        <v>67.618404</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>-285.20541</v>
+        <v>67.567367</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>67.564042</v>
       </c>
       <c r="AM4" s="1">
-        <v>43.585593</v>
+        <v>43.525731</v>
       </c>
       <c r="AN4" s="1">
-        <v>2.550422</v>
+        <v>60.892237</v>
       </c>
       <c r="AO4" s="1">
-        <v>43.585593</v>
+        <v>43.525731</v>
       </c>
       <c r="AP4" s="1">
-        <v>2.5504259</v>
+        <v>60.892237</v>
       </c>
       <c r="AQ4" s="1">
-        <v>43.581176</v>
+        <v>43.50718</v>
       </c>
       <c r="AR4" s="1">
         <v>0</v>
@@ -2601,25 +2601,25 @@
         <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>30.767987</v>
+        <v>30.700605</v>
       </c>
       <c r="AU4" s="1">
-        <v>31.383477</v>
+        <v>31.317965</v>
       </c>
       <c r="AV4" s="1">
-        <v>30.412875</v>
+        <v>30.347151</v>
       </c>
       <c r="AW4" s="1">
         <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>141.47533</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>-292.86252</v>
+        <v>141.3489</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>77.10979900000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>10.335738</v>
+        <v>10.274832</v>
       </c>
       <c r="BA4" s="1">
         <v>0</v>
@@ -2628,55 +2628,55 @@
         <v>0</v>
       </c>
       <c r="BC4" s="1">
-        <v>1.7195693</v>
+        <v>31.917181</v>
       </c>
       <c r="BD4" s="1">
-        <v>9.072114299999999</v>
+        <v>70.38503799999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>1.7195693</v>
+        <v>31.917181</v>
       </c>
       <c r="BF4" s="1">
-        <v>9.072115</v>
+        <v>70.38503799999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>578.5158700000001</v>
+        <v>578.3023499999999</v>
       </c>
       <c r="BH4" s="3">
-        <v>-89.514064</v>
+        <v>-89.536951</v>
       </c>
       <c r="BI4" s="1">
-        <v>103.61844</v>
+        <v>103.55626</v>
       </c>
       <c r="BJ4" s="1">
-        <v>308.2219</v>
+        <v>308.13433</v>
       </c>
       <c r="BK4" s="1">
-        <v>202.99309</v>
+        <v>202.697</v>
       </c>
       <c r="BL4" s="1">
-        <v>334.31458</v>
+        <v>333.95379</v>
       </c>
       <c r="BM4" s="1">
-        <v>233.83536</v>
+        <v>233.80554</v>
       </c>
       <c r="BN4" s="1">
-        <v>684.06517</v>
+        <v>257.14783</v>
       </c>
       <c r="BO4" s="1">
-        <v>80.999606</v>
+        <v>22.483926</v>
       </c>
       <c r="BP4" s="1">
-        <v>168.54714</v>
+        <v>173.52804</v>
       </c>
       <c r="BQ4" s="1">
-        <v>80.999602</v>
+        <v>22.483926</v>
       </c>
       <c r="BR4" s="1">
-        <v>168.5471</v>
+        <v>173.52804</v>
       </c>
       <c r="BS4" s="1">
-        <v>124.17033</v>
+        <v>126.20274</v>
       </c>
       <c r="BT4" s="1">
         <v>0</v>
@@ -2685,25 +2685,25 @@
         <v>0</v>
       </c>
       <c r="BV4" s="1">
-        <v>260.80695</v>
+        <v>260.75539</v>
       </c>
       <c r="BW4" s="1">
-        <v>173.64943</v>
+        <v>173.37072</v>
       </c>
       <c r="BX4" s="1">
-        <v>291.99586</v>
+        <v>291.65735</v>
       </c>
       <c r="BY4" s="1">
         <v>0</v>
       </c>
       <c r="BZ4" s="1">
-        <v>284.19215</v>
-      </c>
-      <c r="CA4" s="3">
-        <v>-53.519763</v>
+        <v>284.12432</v>
+      </c>
+      <c r="CA4" s="1">
+        <v>256.78371</v>
       </c>
       <c r="CB4" s="3">
-        <v>-84.25328</v>
+        <v>-84.23011299999999</v>
       </c>
       <c r="CC4" s="1">
         <v>0</v>
@@ -2711,56 +2711,56 @@
       <c r="CD4" s="1">
         <v>0</v>
       </c>
-      <c r="CE4" s="1">
-        <v>50.138848</v>
+      <c r="CE4" s="3">
+        <v>-22.751065</v>
       </c>
       <c r="CF4" s="1">
-        <v>76.747332</v>
-      </c>
-      <c r="CG4" s="1">
-        <v>50.138847</v>
+        <v>143.40127</v>
+      </c>
+      <c r="CG4" s="3">
+        <v>-22.751065</v>
       </c>
       <c r="CH4" s="1">
-        <v>76.74736999999999</v>
+        <v>143.40127</v>
       </c>
       <c r="CI4" s="1">
-        <v>363.62019</v>
+        <v>363.27583</v>
       </c>
       <c r="CJ4" s="1">
-        <v>352.96915</v>
+        <v>352.9597199999999</v>
       </c>
       <c r="CK4" s="1">
-        <v>328.77424</v>
+        <v>328.70058</v>
       </c>
       <c r="CL4" s="1">
-        <v>477.76321</v>
+        <v>477.61722</v>
       </c>
       <c r="CM4" s="1">
-        <v>328.76453</v>
+        <v>328.69089</v>
       </c>
       <c r="CN4" s="1">
-        <v>328.75636</v>
+        <v>328.68273</v>
       </c>
       <c r="CO4" s="1">
-        <v>352.79393</v>
-      </c>
-      <c r="CP4" s="3">
-        <v>0.018063985</v>
+        <v>352.74353</v>
+      </c>
+      <c r="CP4" s="1">
+        <v>352.73964</v>
       </c>
       <c r="CQ4" s="1">
-        <v>328.7779</v>
+        <v>328.72368</v>
       </c>
       <c r="CR4" s="1">
-        <v>287.75567</v>
+        <v>346.07373</v>
       </c>
       <c r="CS4" s="1">
-        <v>328.7779</v>
+        <v>328.72368</v>
       </c>
       <c r="CT4" s="1">
-        <v>287.75567</v>
+        <v>346.07373</v>
       </c>
       <c r="CU4" s="1">
-        <v>328.77162</v>
+        <v>328.69773</v>
       </c>
       <c r="CV4" s="3">
         <v>0</v>
@@ -2769,25 +2769,25 @@
         <v>0</v>
       </c>
       <c r="CX4" s="1">
-        <v>323.57376</v>
+        <v>323.50635</v>
       </c>
       <c r="CY4" s="1">
-        <v>324.19224</v>
+        <v>324.12672</v>
       </c>
       <c r="CZ4" s="1">
-        <v>323.21687</v>
+        <v>323.15113</v>
       </c>
       <c r="DA4" s="3">
         <v>0</v>
       </c>
       <c r="DB4" s="1">
-        <v>434.30601</v>
-      </c>
-      <c r="DC4" s="3">
-        <v>0.003053612</v>
+        <v>434.1792</v>
+      </c>
+      <c r="DC4" s="1">
+        <v>369.88458</v>
       </c>
       <c r="DD4" s="1">
-        <v>302.98592</v>
+        <v>302.92305</v>
       </c>
       <c r="DE4" s="3">
         <v>0</v>
@@ -2796,55 +2796,55 @@
         <v>0</v>
       </c>
       <c r="DG4" s="1">
-        <v>294.54787</v>
+        <v>324.75568</v>
       </c>
       <c r="DH4" s="1">
-        <v>301.8953</v>
+        <v>363.16968</v>
       </c>
       <c r="DI4" s="1">
-        <v>294.54787</v>
+        <v>324.75568</v>
       </c>
       <c r="DJ4" s="1">
-        <v>301.8953</v>
+        <v>363.16968</v>
       </c>
       <c r="DK4" s="1">
-        <v>711.21541</v>
+        <v>710.87932</v>
       </c>
       <c r="DL4" s="1">
-        <v>26.332076</v>
+        <v>26.305732</v>
       </c>
       <c r="DM4" s="1">
-        <v>210.58869</v>
+        <v>210.49941</v>
       </c>
       <c r="DN4" s="1">
-        <v>467.36959</v>
+        <v>467.23425</v>
       </c>
       <c r="DO4" s="1">
-        <v>309.96085</v>
+        <v>309.63766</v>
       </c>
       <c r="DP4" s="1">
-        <v>441.28028</v>
+        <v>440.89239</v>
       </c>
       <c r="DQ4" s="1">
-        <v>349.63772</v>
+        <v>349.5892</v>
       </c>
       <c r="DR4" s="1">
-        <v>747.37294</v>
+        <v>372.93027</v>
       </c>
       <c r="DS4" s="1">
-        <v>187.97081</v>
+        <v>129.43318</v>
       </c>
       <c r="DT4" s="1">
-        <v>260.70897</v>
+        <v>286.86335</v>
       </c>
       <c r="DU4" s="1">
-        <v>187.9708</v>
+        <v>129.43318</v>
       </c>
       <c r="DV4" s="1">
-        <v>260.70894</v>
+        <v>286.86335</v>
       </c>
       <c r="DW4" s="1">
-        <v>231.1399</v>
+        <v>233.14515</v>
       </c>
       <c r="DX4" s="1">
         <v>0</v>
@@ -2853,22 +2853,22 @@
         <v>0</v>
       </c>
       <c r="DZ4" s="1">
-        <v>352.58692</v>
+        <v>352.51012</v>
       </c>
       <c r="EA4" s="1">
-        <v>265.66108</v>
+        <v>265.35781</v>
       </c>
       <c r="EB4" s="1">
-        <v>383.64224</v>
+        <v>383.27913</v>
       </c>
       <c r="EC4" s="1">
         <v>0</v>
       </c>
       <c r="ED4" s="1">
-        <v>419.03532</v>
+        <v>418.91852</v>
       </c>
       <c r="EE4" s="1">
-        <v>0.0030535815</v>
+        <v>366.47131</v>
       </c>
       <c r="EF4" s="1">
         <v>0</v>
@@ -2880,55 +2880,55 @@
         <v>0</v>
       </c>
       <c r="EI4" s="1">
-        <v>131.34322</v>
+        <v>69.462684</v>
       </c>
       <c r="EJ4" s="1">
-        <v>160.55434</v>
+        <v>250.45513</v>
       </c>
       <c r="EK4" s="1">
-        <v>131.34322</v>
+        <v>69.462684</v>
       </c>
       <c r="EL4" s="1">
-        <v>160.55438</v>
+        <v>250.45512</v>
       </c>
       <c r="EM4" s="1">
-        <v>132.69954</v>
+        <v>132.57697</v>
       </c>
       <c r="EN4" s="1">
-        <v>115.84614</v>
+        <v>115.84268</v>
       </c>
       <c r="EO4" s="1">
-        <v>106.97025</v>
+        <v>106.94315</v>
       </c>
       <c r="EP4" s="1">
-        <v>159.1477</v>
+        <v>159.09992</v>
       </c>
       <c r="EQ4" s="1">
-        <v>106.96776</v>
+        <v>106.94066</v>
       </c>
       <c r="ER4" s="1">
-        <v>106.9657</v>
+        <v>106.9386</v>
       </c>
       <c r="ES4" s="1">
-        <v>115.80235</v>
+        <v>115.78366</v>
       </c>
       <c r="ET4" s="1">
-        <v>63.307771</v>
+        <v>115.78244</v>
       </c>
       <c r="EU4" s="1">
-        <v>106.9712</v>
+        <v>106.94925</v>
       </c>
       <c r="EV4" s="1">
-        <v>92.161839</v>
+        <v>113.33531</v>
       </c>
       <c r="EW4" s="1">
-        <v>106.9712</v>
+        <v>106.94925</v>
       </c>
       <c r="EX4" s="1">
-        <v>92.16184</v>
+        <v>113.33531</v>
       </c>
       <c r="EY4" s="1">
-        <v>106.96958</v>
+        <v>106.94241</v>
       </c>
       <c r="EZ4" s="1">
         <v>0</v>
@@ -2937,25 +2937,25 @@
         <v>0</v>
       </c>
       <c r="FB4" s="1">
-        <v>-91.779967</v>
+        <v>-91.754729</v>
       </c>
       <c r="FC4" s="1">
-        <v>-92.01164300000001</v>
+        <v>-91.987092</v>
       </c>
       <c r="FD4" s="1">
-        <v>-91.646382</v>
+        <v>-91.621774</v>
       </c>
       <c r="FE4" s="1">
         <v>0</v>
       </c>
       <c r="FF4" s="1">
-        <v>-134.84317</v>
+        <v>-134.7942</v>
       </c>
       <c r="FG4" s="1">
-        <v>-53.522817</v>
+        <v>-109.6876</v>
       </c>
       <c r="FH4" s="1">
-        <v>-84.25328</v>
+        <v>-84.23011299999999</v>
       </c>
       <c r="FI4" s="1">
         <v>0</v>
@@ -2964,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="FK4" s="1">
-        <v>-81.204376</v>
+        <v>-92.21374899999999</v>
       </c>
       <c r="FL4" s="1">
-        <v>-83.807008</v>
+        <v>-107.05386</v>
       </c>
       <c r="FM4" s="1">
-        <v>-81.204376</v>
+        <v>-92.21374899999999</v>
       </c>
       <c r="FN4" s="1">
-        <v>-83.80700899999999</v>
+        <v>-107.05386</v>
       </c>
     </row>
     <row r="5" spans="1:170" s="1" customFormat="1">
@@ -2999,67 +2999,67 @@
         <v>184</v>
       </c>
       <c r="W5" s="3">
-        <v>-15.984591</v>
+        <v>-15.967424</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>-144.56174</v>
       </c>
       <c r="Y5" s="1">
-        <v>91.40172099999999</v>
+        <v>91.41186900000001</v>
       </c>
       <c r="Z5" s="1">
-        <v>453.33385</v>
+        <v>422.67375</v>
       </c>
       <c r="AA5" s="1">
-        <v>453.3338</v>
+        <v>422.67373</v>
       </c>
       <c r="AB5" s="1">
-        <v>453.33382</v>
+        <v>422.67374</v>
       </c>
       <c r="AC5" s="3">
-        <v>4.1310485E-05</v>
+        <v>1.1357419E-05</v>
       </c>
       <c r="AD5" s="1">
-        <v>-827.1378</v>
+        <v>-1027.9566</v>
       </c>
       <c r="AE5" s="1">
-        <v>113.0638</v>
+        <v>112.71928</v>
       </c>
       <c r="AF5" s="1">
-        <v>352.96915</v>
+        <v>352.9597199999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>43.583009</v>
+        <v>43.509179</v>
       </c>
       <c r="AH5" s="1">
-        <v>192.5622</v>
+        <v>192.41618</v>
       </c>
       <c r="AI5" s="1">
-        <v>43.576239</v>
+        <v>43.502429</v>
       </c>
       <c r="AJ5" s="1">
-        <v>43.57063299999999</v>
+        <v>43.496835</v>
       </c>
       <c r="AK5" s="1">
-        <v>67.618404</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>-285.20541</v>
+        <v>67.567367</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>67.564042</v>
       </c>
       <c r="AM5" s="1">
-        <v>43.585593</v>
+        <v>43.525731</v>
       </c>
       <c r="AN5" s="1">
-        <v>2.550422</v>
+        <v>60.892237</v>
       </c>
       <c r="AO5" s="1">
-        <v>43.585593</v>
+        <v>43.525731</v>
       </c>
       <c r="AP5" s="1">
-        <v>2.5504259</v>
+        <v>60.892237</v>
       </c>
       <c r="AQ5" s="1">
-        <v>43.581176</v>
+        <v>43.50718</v>
       </c>
       <c r="AR5" s="1">
         <v>0</v>
@@ -3068,25 +3068,25 @@
         <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>30.767987</v>
+        <v>30.700605</v>
       </c>
       <c r="AU5" s="1">
-        <v>31.383477</v>
+        <v>31.317965</v>
       </c>
       <c r="AV5" s="1">
-        <v>30.412875</v>
+        <v>30.347151</v>
       </c>
       <c r="AW5" s="1">
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>141.47533</v>
-      </c>
-      <c r="AY5" s="3">
-        <v>-292.86252</v>
+        <v>141.3489</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>77.10979900000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>10.335738</v>
+        <v>10.274832</v>
       </c>
       <c r="BA5" s="1">
         <v>0</v>
@@ -3095,55 +3095,55 @@
         <v>0</v>
       </c>
       <c r="BC5" s="1">
-        <v>1.7195693</v>
+        <v>31.917181</v>
       </c>
       <c r="BD5" s="1">
-        <v>9.072114299999999</v>
+        <v>70.38503799999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>1.7195693</v>
+        <v>31.917181</v>
       </c>
       <c r="BF5" s="1">
-        <v>9.072115</v>
+        <v>70.38503799999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>578.5158700000001</v>
+        <v>578.3023499999999</v>
       </c>
       <c r="BH5" s="3">
-        <v>-89.514064</v>
+        <v>-89.536951</v>
       </c>
       <c r="BI5" s="1">
-        <v>103.61844</v>
+        <v>103.55626</v>
       </c>
       <c r="BJ5" s="1">
-        <v>308.2219</v>
+        <v>308.13433</v>
       </c>
       <c r="BK5" s="1">
-        <v>202.99309</v>
+        <v>202.697</v>
       </c>
       <c r="BL5" s="1">
-        <v>334.31458</v>
+        <v>333.95379</v>
       </c>
       <c r="BM5" s="1">
-        <v>233.83536</v>
+        <v>233.80554</v>
       </c>
       <c r="BN5" s="1">
-        <v>684.06517</v>
+        <v>257.14783</v>
       </c>
       <c r="BO5" s="1">
-        <v>80.999606</v>
+        <v>22.483926</v>
       </c>
       <c r="BP5" s="1">
-        <v>168.54714</v>
+        <v>173.52804</v>
       </c>
       <c r="BQ5" s="1">
-        <v>80.999602</v>
+        <v>22.483926</v>
       </c>
       <c r="BR5" s="1">
-        <v>168.5471</v>
+        <v>173.52804</v>
       </c>
       <c r="BS5" s="1">
-        <v>124.17033</v>
+        <v>126.20274</v>
       </c>
       <c r="BT5" s="1">
         <v>0</v>
@@ -3152,25 +3152,25 @@
         <v>0</v>
       </c>
       <c r="BV5" s="1">
-        <v>260.80695</v>
+        <v>260.75539</v>
       </c>
       <c r="BW5" s="1">
-        <v>173.64943</v>
+        <v>173.37072</v>
       </c>
       <c r="BX5" s="1">
-        <v>291.99586</v>
+        <v>291.65735</v>
       </c>
       <c r="BY5" s="1">
         <v>0</v>
       </c>
       <c r="BZ5" s="1">
-        <v>284.19215</v>
-      </c>
-      <c r="CA5" s="3">
-        <v>-53.519763</v>
+        <v>284.12432</v>
+      </c>
+      <c r="CA5" s="1">
+        <v>256.78371</v>
       </c>
       <c r="CB5" s="3">
-        <v>-84.25328</v>
+        <v>-84.23011299999999</v>
       </c>
       <c r="CC5" s="1">
         <v>0</v>
@@ -3178,56 +3178,56 @@
       <c r="CD5" s="1">
         <v>0</v>
       </c>
-      <c r="CE5" s="1">
-        <v>50.138848</v>
+      <c r="CE5" s="3">
+        <v>-22.751065</v>
       </c>
       <c r="CF5" s="1">
-        <v>76.747332</v>
-      </c>
-      <c r="CG5" s="1">
-        <v>50.138847</v>
+        <v>143.40127</v>
+      </c>
+      <c r="CG5" s="3">
+        <v>-22.751065</v>
       </c>
       <c r="CH5" s="1">
-        <v>76.74736999999999</v>
+        <v>143.40127</v>
       </c>
       <c r="CI5" s="1">
-        <v>363.62019</v>
+        <v>363.27583</v>
       </c>
       <c r="CJ5" s="1">
-        <v>352.96915</v>
+        <v>352.9597199999999</v>
       </c>
       <c r="CK5" s="1">
-        <v>328.77424</v>
+        <v>328.70058</v>
       </c>
       <c r="CL5" s="1">
-        <v>477.76321</v>
+        <v>477.61722</v>
       </c>
       <c r="CM5" s="1">
-        <v>328.76453</v>
+        <v>328.69089</v>
       </c>
       <c r="CN5" s="1">
-        <v>328.75636</v>
+        <v>328.68273</v>
       </c>
       <c r="CO5" s="1">
-        <v>352.79393</v>
-      </c>
-      <c r="CP5" s="3">
-        <v>0.018063985</v>
+        <v>352.74353</v>
+      </c>
+      <c r="CP5" s="1">
+        <v>352.73964</v>
       </c>
       <c r="CQ5" s="1">
-        <v>328.7779</v>
+        <v>328.72368</v>
       </c>
       <c r="CR5" s="1">
-        <v>287.75567</v>
+        <v>346.07373</v>
       </c>
       <c r="CS5" s="1">
-        <v>328.7779</v>
+        <v>328.72368</v>
       </c>
       <c r="CT5" s="1">
-        <v>287.75567</v>
+        <v>346.07373</v>
       </c>
       <c r="CU5" s="1">
-        <v>328.77162</v>
+        <v>328.69773</v>
       </c>
       <c r="CV5" s="3">
         <v>0</v>
@@ -3236,25 +3236,25 @@
         <v>0</v>
       </c>
       <c r="CX5" s="1">
-        <v>323.57376</v>
+        <v>323.50635</v>
       </c>
       <c r="CY5" s="1">
-        <v>324.19224</v>
+        <v>324.12672</v>
       </c>
       <c r="CZ5" s="1">
-        <v>323.21687</v>
+        <v>323.15113</v>
       </c>
       <c r="DA5" s="3">
         <v>0</v>
       </c>
       <c r="DB5" s="1">
-        <v>434.30601</v>
-      </c>
-      <c r="DC5" s="3">
-        <v>0.003053612</v>
+        <v>434.1792</v>
+      </c>
+      <c r="DC5" s="1">
+        <v>369.88458</v>
       </c>
       <c r="DD5" s="1">
-        <v>302.98592</v>
+        <v>302.92305</v>
       </c>
       <c r="DE5" s="3">
         <v>0</v>
@@ -3263,55 +3263,55 @@
         <v>0</v>
       </c>
       <c r="DG5" s="1">
-        <v>294.54787</v>
+        <v>324.75568</v>
       </c>
       <c r="DH5" s="1">
-        <v>301.8953</v>
+        <v>363.16968</v>
       </c>
       <c r="DI5" s="1">
-        <v>294.54787</v>
+        <v>324.75568</v>
       </c>
       <c r="DJ5" s="1">
-        <v>301.8953</v>
+        <v>363.16968</v>
       </c>
       <c r="DK5" s="1">
-        <v>711.21541</v>
+        <v>710.87932</v>
       </c>
       <c r="DL5" s="1">
-        <v>26.332076</v>
+        <v>26.305732</v>
       </c>
       <c r="DM5" s="1">
-        <v>210.58869</v>
+        <v>210.49941</v>
       </c>
       <c r="DN5" s="1">
-        <v>467.36959</v>
+        <v>467.23425</v>
       </c>
       <c r="DO5" s="1">
-        <v>309.96085</v>
+        <v>309.63766</v>
       </c>
       <c r="DP5" s="1">
-        <v>441.28028</v>
+        <v>440.89239</v>
       </c>
       <c r="DQ5" s="1">
-        <v>349.63772</v>
+        <v>349.5892</v>
       </c>
       <c r="DR5" s="1">
-        <v>747.37294</v>
+        <v>372.93027</v>
       </c>
       <c r="DS5" s="1">
-        <v>187.97081</v>
+        <v>129.43318</v>
       </c>
       <c r="DT5" s="1">
-        <v>260.70897</v>
+        <v>286.86335</v>
       </c>
       <c r="DU5" s="1">
-        <v>187.9708</v>
+        <v>129.43318</v>
       </c>
       <c r="DV5" s="1">
-        <v>260.70894</v>
+        <v>286.86335</v>
       </c>
       <c r="DW5" s="1">
-        <v>231.1399</v>
+        <v>233.14515</v>
       </c>
       <c r="DX5" s="1">
         <v>0</v>
@@ -3320,22 +3320,22 @@
         <v>0</v>
       </c>
       <c r="DZ5" s="1">
-        <v>352.58692</v>
+        <v>352.51012</v>
       </c>
       <c r="EA5" s="1">
-        <v>265.66108</v>
+        <v>265.35781</v>
       </c>
       <c r="EB5" s="1">
-        <v>383.64224</v>
+        <v>383.27913</v>
       </c>
       <c r="EC5" s="1">
         <v>0</v>
       </c>
       <c r="ED5" s="1">
-        <v>419.03532</v>
+        <v>418.91852</v>
       </c>
       <c r="EE5" s="1">
-        <v>0.0030535815</v>
+        <v>366.47131</v>
       </c>
       <c r="EF5" s="1">
         <v>0</v>
@@ -3347,55 +3347,55 @@
         <v>0</v>
       </c>
       <c r="EI5" s="1">
-        <v>131.34322</v>
+        <v>69.462684</v>
       </c>
       <c r="EJ5" s="1">
-        <v>160.55434</v>
+        <v>250.45513</v>
       </c>
       <c r="EK5" s="1">
-        <v>131.34322</v>
+        <v>69.462684</v>
       </c>
       <c r="EL5" s="1">
-        <v>160.55438</v>
+        <v>250.45512</v>
       </c>
       <c r="EM5" s="1">
-        <v>132.69954</v>
+        <v>132.57697</v>
       </c>
       <c r="EN5" s="1">
-        <v>115.84614</v>
+        <v>115.84268</v>
       </c>
       <c r="EO5" s="1">
-        <v>106.97025</v>
+        <v>106.94315</v>
       </c>
       <c r="EP5" s="1">
-        <v>159.1477</v>
+        <v>159.09992</v>
       </c>
       <c r="EQ5" s="1">
-        <v>106.96776</v>
+        <v>106.94066</v>
       </c>
       <c r="ER5" s="1">
-        <v>106.9657</v>
+        <v>106.9386</v>
       </c>
       <c r="ES5" s="1">
-        <v>115.80235</v>
+        <v>115.78366</v>
       </c>
       <c r="ET5" s="1">
-        <v>63.307771</v>
+        <v>115.78244</v>
       </c>
       <c r="EU5" s="1">
-        <v>106.9712</v>
+        <v>106.94925</v>
       </c>
       <c r="EV5" s="1">
-        <v>92.161839</v>
+        <v>113.33531</v>
       </c>
       <c r="EW5" s="1">
-        <v>106.9712</v>
+        <v>106.94925</v>
       </c>
       <c r="EX5" s="1">
-        <v>92.16184</v>
+        <v>113.33531</v>
       </c>
       <c r="EY5" s="1">
-        <v>106.96958</v>
+        <v>106.94241</v>
       </c>
       <c r="EZ5" s="1">
         <v>0</v>
@@ -3404,25 +3404,25 @@
         <v>0</v>
       </c>
       <c r="FB5" s="1">
-        <v>-91.779967</v>
+        <v>-91.754729</v>
       </c>
       <c r="FC5" s="1">
-        <v>-92.01164300000001</v>
+        <v>-91.987092</v>
       </c>
       <c r="FD5" s="1">
-        <v>-91.646382</v>
+        <v>-91.621774</v>
       </c>
       <c r="FE5" s="1">
         <v>0</v>
       </c>
       <c r="FF5" s="1">
-        <v>-134.84317</v>
+        <v>-134.7942</v>
       </c>
       <c r="FG5" s="1">
-        <v>-53.522817</v>
+        <v>-109.6876</v>
       </c>
       <c r="FH5" s="1">
-        <v>-84.25328</v>
+        <v>-84.23011299999999</v>
       </c>
       <c r="FI5" s="1">
         <v>0</v>
@@ -3431,16 +3431,16 @@
         <v>0</v>
       </c>
       <c r="FK5" s="1">
-        <v>-81.204376</v>
+        <v>-92.21374899999999</v>
       </c>
       <c r="FL5" s="1">
-        <v>-83.807008</v>
+        <v>-107.05386</v>
       </c>
       <c r="FM5" s="1">
-        <v>-81.204376</v>
+        <v>-92.21374899999999</v>
       </c>
       <c r="FN5" s="1">
-        <v>-83.80700899999999</v>
+        <v>-107.05386</v>
       </c>
     </row>
     <row r="6" spans="1:170" s="1" customFormat="1">
@@ -4188,67 +4188,67 @@
         <v>184</v>
       </c>
       <c r="W10" s="1">
-        <v>-15.984591</v>
+        <v>-15.967424</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>-144.56174</v>
       </c>
       <c r="Y10" s="1">
-        <v>91.40172099999999</v>
+        <v>91.41186900000001</v>
       </c>
       <c r="Z10" s="1">
-        <v>453.33385</v>
+        <v>422.67375</v>
       </c>
       <c r="AA10" s="1">
-        <v>453.3338</v>
+        <v>422.67373</v>
       </c>
       <c r="AB10" s="1">
-        <v>453.33382</v>
+        <v>422.67374</v>
       </c>
       <c r="AC10" s="1">
-        <v>4.1310485E-05</v>
+        <v>1.1357419E-05</v>
       </c>
       <c r="AD10" s="1">
-        <v>-827.1378</v>
+        <v>-1027.9566</v>
       </c>
       <c r="AE10" s="1">
-        <v>113.0638</v>
+        <v>112.71928</v>
       </c>
       <c r="AF10" s="1">
-        <v>352.96915</v>
+        <v>352.9597199999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>43.583009</v>
+        <v>43.509179</v>
       </c>
       <c r="AH10" s="1">
-        <v>192.5622</v>
+        <v>192.41618</v>
       </c>
       <c r="AI10" s="1">
-        <v>43.576239</v>
+        <v>43.502429</v>
       </c>
       <c r="AJ10" s="1">
-        <v>43.57063299999999</v>
+        <v>43.496835</v>
       </c>
       <c r="AK10" s="1">
-        <v>67.618404</v>
+        <v>67.567367</v>
       </c>
       <c r="AL10" s="1">
-        <v>-285.20541</v>
+        <v>67.564042</v>
       </c>
       <c r="AM10" s="1">
-        <v>43.585593</v>
+        <v>43.525731</v>
       </c>
       <c r="AN10" s="1">
-        <v>2.550422</v>
+        <v>60.892237</v>
       </c>
       <c r="AO10" s="1">
-        <v>43.585593</v>
+        <v>43.525731</v>
       </c>
       <c r="AP10" s="1">
-        <v>2.5504259</v>
+        <v>60.892237</v>
       </c>
       <c r="AQ10" s="1">
-        <v>43.581176</v>
+        <v>43.50718</v>
       </c>
       <c r="AR10" s="1">
         <v>0</v>
@@ -4257,25 +4257,25 @@
         <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>30.767987</v>
+        <v>30.700605</v>
       </c>
       <c r="AU10" s="1">
-        <v>31.383477</v>
+        <v>31.317965</v>
       </c>
       <c r="AV10" s="1">
-        <v>30.412875</v>
+        <v>30.347151</v>
       </c>
       <c r="AW10" s="1">
         <v>0</v>
       </c>
       <c r="AX10" s="1">
-        <v>141.47533</v>
+        <v>141.3489</v>
       </c>
       <c r="AY10" s="1">
-        <v>-292.86252</v>
+        <v>77.10979900000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>10.335738</v>
+        <v>10.274832</v>
       </c>
       <c r="BA10" s="1">
         <v>0</v>
@@ -4284,55 +4284,55 @@
         <v>0</v>
       </c>
       <c r="BC10" s="1">
-        <v>1.7195693</v>
+        <v>31.917181</v>
       </c>
       <c r="BD10" s="1">
-        <v>9.072114299999999</v>
+        <v>70.38503799999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>1.7195693</v>
+        <v>31.917181</v>
       </c>
       <c r="BF10" s="1">
-        <v>9.072115</v>
+        <v>70.38503799999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>578.5158700000001</v>
+        <v>578.3023499999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>-89.514064</v>
+        <v>-89.536951</v>
       </c>
       <c r="BI10" s="1">
-        <v>103.61844</v>
+        <v>103.55626</v>
       </c>
       <c r="BJ10" s="1">
-        <v>308.2219</v>
+        <v>308.13433</v>
       </c>
       <c r="BK10" s="1">
-        <v>202.99309</v>
+        <v>202.697</v>
       </c>
       <c r="BL10" s="1">
-        <v>334.31458</v>
+        <v>333.95379</v>
       </c>
       <c r="BM10" s="1">
-        <v>233.83536</v>
+        <v>233.80554</v>
       </c>
       <c r="BN10" s="1">
-        <v>684.06517</v>
+        <v>257.14783</v>
       </c>
       <c r="BO10" s="1">
-        <v>80.999606</v>
+        <v>22.483926</v>
       </c>
       <c r="BP10" s="1">
-        <v>168.54714</v>
+        <v>173.52804</v>
       </c>
       <c r="BQ10" s="1">
-        <v>80.999602</v>
+        <v>22.483926</v>
       </c>
       <c r="BR10" s="1">
-        <v>168.5471</v>
+        <v>173.52804</v>
       </c>
       <c r="BS10" s="1">
-        <v>124.17033</v>
+        <v>126.20274</v>
       </c>
       <c r="BT10" s="1">
         <v>0</v>
@@ -4341,25 +4341,25 @@
         <v>0</v>
       </c>
       <c r="BV10" s="1">
-        <v>260.80695</v>
+        <v>260.75539</v>
       </c>
       <c r="BW10" s="1">
-        <v>173.64943</v>
+        <v>173.37072</v>
       </c>
       <c r="BX10" s="1">
-        <v>291.99586</v>
+        <v>291.65735</v>
       </c>
       <c r="BY10" s="1">
         <v>0</v>
       </c>
       <c r="BZ10" s="1">
-        <v>284.19215</v>
+        <v>284.12432</v>
       </c>
       <c r="CA10" s="1">
-        <v>-53.519763</v>
+        <v>256.78371</v>
       </c>
       <c r="CB10" s="1">
-        <v>-84.25328</v>
+        <v>-84.23011299999999</v>
       </c>
       <c r="CC10" s="1">
         <v>0</v>
@@ -4368,55 +4368,55 @@
         <v>0</v>
       </c>
       <c r="CE10" s="1">
-        <v>50.138848</v>
+        <v>-22.751065</v>
       </c>
       <c r="CF10" s="1">
-        <v>76.747332</v>
+        <v>143.40127</v>
       </c>
       <c r="CG10" s="1">
-        <v>50.138847</v>
+        <v>-22.751065</v>
       </c>
       <c r="CH10" s="1">
-        <v>76.74736999999999</v>
+        <v>143.40127</v>
       </c>
       <c r="CI10" s="1">
-        <v>363.62019</v>
+        <v>363.27583</v>
       </c>
       <c r="CJ10" s="1">
-        <v>352.96915</v>
+        <v>352.9597199999999</v>
       </c>
       <c r="CK10" s="1">
-        <v>328.77424</v>
+        <v>328.70058</v>
       </c>
       <c r="CL10" s="1">
-        <v>477.76321</v>
+        <v>477.61722</v>
       </c>
       <c r="CM10" s="1">
-        <v>328.76453</v>
+        <v>328.69089</v>
       </c>
       <c r="CN10" s="1">
-        <v>328.75636</v>
+        <v>328.68273</v>
       </c>
       <c r="CO10" s="1">
-        <v>352.79393</v>
+        <v>352.74353</v>
       </c>
       <c r="CP10" s="1">
-        <v>0.018063985</v>
+        <v>352.73964</v>
       </c>
       <c r="CQ10" s="1">
-        <v>328.7779</v>
+        <v>328.72368</v>
       </c>
       <c r="CR10" s="1">
-        <v>287.75567</v>
+        <v>346.07373</v>
       </c>
       <c r="CS10" s="1">
-        <v>328.7779</v>
+        <v>328.72368</v>
       </c>
       <c r="CT10" s="1">
-        <v>287.75567</v>
+        <v>346.07373</v>
       </c>
       <c r="CU10" s="1">
-        <v>328.77162</v>
+        <v>328.69773</v>
       </c>
       <c r="CV10" s="1">
         <v>0</v>
@@ -4425,25 +4425,25 @@
         <v>0</v>
       </c>
       <c r="CX10" s="1">
-        <v>323.57376</v>
+        <v>323.50635</v>
       </c>
       <c r="CY10" s="1">
-        <v>324.19224</v>
+        <v>324.12672</v>
       </c>
       <c r="CZ10" s="1">
-        <v>323.21687</v>
+        <v>323.15113</v>
       </c>
       <c r="DA10" s="1">
         <v>0</v>
       </c>
       <c r="DB10" s="1">
-        <v>434.30601</v>
+        <v>434.1792</v>
       </c>
       <c r="DC10" s="1">
-        <v>0.003053612</v>
+        <v>369.88458</v>
       </c>
       <c r="DD10" s="1">
-        <v>302.98592</v>
+        <v>302.92305</v>
       </c>
       <c r="DE10" s="1">
         <v>0</v>
@@ -4452,55 +4452,55 @@
         <v>0</v>
       </c>
       <c r="DG10" s="1">
-        <v>294.54787</v>
+        <v>324.75568</v>
       </c>
       <c r="DH10" s="1">
-        <v>301.8953</v>
+        <v>363.16968</v>
       </c>
       <c r="DI10" s="1">
-        <v>294.54787</v>
+        <v>324.75568</v>
       </c>
       <c r="DJ10" s="1">
-        <v>301.8953</v>
+        <v>363.16968</v>
       </c>
       <c r="DK10" s="1">
-        <v>711.21541</v>
+        <v>710.87932</v>
       </c>
       <c r="DL10" s="1">
-        <v>26.332076</v>
+        <v>26.305732</v>
       </c>
       <c r="DM10" s="1">
-        <v>210.58869</v>
+        <v>210.49941</v>
       </c>
       <c r="DN10" s="1">
-        <v>467.36959</v>
+        <v>467.23425</v>
       </c>
       <c r="DO10" s="1">
-        <v>309.96085</v>
+        <v>309.63766</v>
       </c>
       <c r="DP10" s="1">
-        <v>441.28028</v>
+        <v>440.89239</v>
       </c>
       <c r="DQ10" s="1">
-        <v>349.63772</v>
+        <v>349.5892</v>
       </c>
       <c r="DR10" s="1">
-        <v>747.37294</v>
+        <v>372.93027</v>
       </c>
       <c r="DS10" s="1">
-        <v>187.97081</v>
+        <v>129.43318</v>
       </c>
       <c r="DT10" s="1">
-        <v>260.70897</v>
+        <v>286.86335</v>
       </c>
       <c r="DU10" s="1">
-        <v>187.9708</v>
+        <v>129.43318</v>
       </c>
       <c r="DV10" s="1">
-        <v>260.70894</v>
+        <v>286.86335</v>
       </c>
       <c r="DW10" s="1">
-        <v>231.1399</v>
+        <v>233.14515</v>
       </c>
       <c r="DX10" s="1">
         <v>0</v>
@@ -4509,22 +4509,22 @@
         <v>0</v>
       </c>
       <c r="DZ10" s="1">
-        <v>352.58692</v>
+        <v>352.51012</v>
       </c>
       <c r="EA10" s="1">
-        <v>265.66108</v>
+        <v>265.35781</v>
       </c>
       <c r="EB10" s="1">
-        <v>383.64224</v>
+        <v>383.27913</v>
       </c>
       <c r="EC10" s="1">
         <v>0</v>
       </c>
       <c r="ED10" s="1">
-        <v>419.03532</v>
+        <v>418.91852</v>
       </c>
       <c r="EE10" s="1">
-        <v>0.0030535815</v>
+        <v>366.47131</v>
       </c>
       <c r="EF10" s="1">
         <v>0</v>
@@ -4536,55 +4536,55 @@
         <v>0</v>
       </c>
       <c r="EI10" s="1">
-        <v>131.34322</v>
+        <v>69.462684</v>
       </c>
       <c r="EJ10" s="1">
-        <v>160.55434</v>
+        <v>250.45513</v>
       </c>
       <c r="EK10" s="1">
-        <v>131.34322</v>
+        <v>69.462684</v>
       </c>
       <c r="EL10" s="1">
-        <v>160.55438</v>
+        <v>250.45512</v>
       </c>
       <c r="EM10" s="1">
-        <v>132.69954</v>
+        <v>132.57697</v>
       </c>
       <c r="EN10" s="1">
-        <v>115.84614</v>
+        <v>115.84268</v>
       </c>
       <c r="EO10" s="1">
-        <v>106.97025</v>
+        <v>106.94315</v>
       </c>
       <c r="EP10" s="1">
-        <v>159.1477</v>
+        <v>159.09992</v>
       </c>
       <c r="EQ10" s="1">
-        <v>106.96776</v>
+        <v>106.94066</v>
       </c>
       <c r="ER10" s="1">
-        <v>106.9657</v>
+        <v>106.9386</v>
       </c>
       <c r="ES10" s="1">
-        <v>115.80235</v>
+        <v>115.78366</v>
       </c>
       <c r="ET10" s="1">
-        <v>63.307771</v>
+        <v>115.78244</v>
       </c>
       <c r="EU10" s="1">
-        <v>106.9712</v>
+        <v>106.94925</v>
       </c>
       <c r="EV10" s="1">
-        <v>92.161839</v>
+        <v>113.33531</v>
       </c>
       <c r="EW10" s="1">
-        <v>106.9712</v>
+        <v>106.94925</v>
       </c>
       <c r="EX10" s="1">
-        <v>92.16184</v>
+        <v>113.33531</v>
       </c>
       <c r="EY10" s="1">
-        <v>106.96958</v>
+        <v>106.94241</v>
       </c>
       <c r="EZ10" s="1">
         <v>0</v>
@@ -4593,25 +4593,25 @@
         <v>0</v>
       </c>
       <c r="FB10" s="1">
-        <v>-91.779967</v>
+        <v>-91.754729</v>
       </c>
       <c r="FC10" s="1">
-        <v>-92.01164300000001</v>
+        <v>-91.987092</v>
       </c>
       <c r="FD10" s="1">
-        <v>-91.646382</v>
+        <v>-91.621774</v>
       </c>
       <c r="FE10" s="1">
         <v>0</v>
       </c>
       <c r="FF10" s="1">
-        <v>-134.84317</v>
+        <v>-134.7942</v>
       </c>
       <c r="FG10" s="1">
-        <v>-53.522817</v>
+        <v>-109.6876</v>
       </c>
       <c r="FH10" s="1">
-        <v>-84.25328</v>
+        <v>-84.23011299999999</v>
       </c>
       <c r="FI10" s="1">
         <v>0</v>
@@ -4620,16 +4620,16 @@
         <v>0</v>
       </c>
       <c r="FK10" s="1">
-        <v>-81.204376</v>
+        <v>-92.21374899999999</v>
       </c>
       <c r="FL10" s="1">
-        <v>-83.807008</v>
+        <v>-107.05386</v>
       </c>
       <c r="FM10" s="1">
-        <v>-81.204376</v>
+        <v>-92.21374899999999</v>
       </c>
       <c r="FN10" s="1">
-        <v>-83.80700899999999</v>
+        <v>-107.05386</v>
       </c>
     </row>
     <row r="11" spans="1:170" s="1" customFormat="1">
@@ -5124,8 +5124,8 @@
       <c r="W12" s="1">
         <v>0</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>184</v>
+      <c r="X12" s="1">
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
         <v>0</v>

--- a/dcd_opamp_dcop_pre_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_dcop_pre_feb28_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="194">
   <si>
     <t>Process</t>
   </si>
@@ -1538,13 +1538,13 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>9.4106592E-05</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>9.4106592E-05</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2.9981062E-05</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>184</v>
@@ -1615,11 +1615,11 @@
       <c r="AQ2">
         <v>43.50718</v>
       </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
+      <c r="AR2" s="3">
+        <v>-103.24553</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>-103.24553</v>
       </c>
       <c r="AT2">
         <v>30.700605</v>
@@ -1631,7 +1631,7 @@
         <v>30.347151</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>10.267834</v>
       </c>
       <c r="AX2">
         <v>141.3489</v>
@@ -1643,10 +1643,10 @@
         <v>10.274832</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>-44.374082</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>-44.374082</v>
       </c>
       <c r="BC2">
         <v>31.917181</v>
@@ -1696,14 +1696,14 @@
       <c r="BR2">
         <v>173.52804</v>
       </c>
-      <c r="BS2">
-        <v>126.20274</v>
+      <c r="BS2" s="3">
+        <v>-63.099822</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>373.09248</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>373.09248</v>
       </c>
       <c r="BV2">
         <v>260.75539</v>
@@ -1715,7 +1715,7 @@
         <v>291.65735</v>
       </c>
       <c r="BY2">
-        <v>0</v>
+        <v>49.117042</v>
       </c>
       <c r="BZ2">
         <v>284.12432</v>
@@ -1723,14 +1723,14 @@
       <c r="CA2">
         <v>256.78371</v>
       </c>
-      <c r="CB2" s="3">
-        <v>-84.23011299999999</v>
+      <c r="CB2">
+        <v>89.61918200000001</v>
       </c>
       <c r="CC2">
-        <v>0</v>
+        <v>372.74523</v>
       </c>
       <c r="CD2">
-        <v>0</v>
+        <v>372.74523</v>
       </c>
       <c r="CE2" s="3">
         <v>-22.751065</v>
@@ -1784,10 +1784,10 @@
         <v>328.69773</v>
       </c>
       <c r="CV2" s="3">
-        <v>0</v>
+        <v>139.18617</v>
       </c>
       <c r="CW2" s="3">
-        <v>0</v>
+        <v>139.18617</v>
       </c>
       <c r="CX2">
         <v>323.50635</v>
@@ -1798,8 +1798,8 @@
       <c r="CZ2">
         <v>323.15113</v>
       </c>
-      <c r="DA2" s="3">
-        <v>0</v>
+      <c r="DA2">
+        <v>302.94035</v>
       </c>
       <c r="DB2">
         <v>434.1792</v>
@@ -1811,10 +1811,10 @@
         <v>302.92305</v>
       </c>
       <c r="DE2" s="3">
-        <v>0</v>
+        <v>196.22571</v>
       </c>
       <c r="DF2" s="3">
-        <v>0</v>
+        <v>196.22571</v>
       </c>
       <c r="DG2">
         <v>324.75568</v>
@@ -1865,13 +1865,13 @@
         <v>286.86335</v>
       </c>
       <c r="DW2">
-        <v>233.14515</v>
+        <v>43.842588</v>
       </c>
       <c r="DX2">
-        <v>0</v>
+        <v>440.02494</v>
       </c>
       <c r="DY2">
-        <v>0</v>
+        <v>440.02494</v>
       </c>
       <c r="DZ2">
         <v>352.51012</v>
@@ -1883,7 +1883,7 @@
         <v>383.27913</v>
       </c>
       <c r="EC2">
-        <v>0</v>
+        <v>133.34465</v>
       </c>
       <c r="ED2">
         <v>418.91852</v>
@@ -1892,13 +1892,13 @@
         <v>366.47131</v>
       </c>
       <c r="EF2">
-        <v>0</v>
+        <v>173.8493</v>
       </c>
       <c r="EG2">
-        <v>0</v>
+        <v>439.0844</v>
       </c>
       <c r="EH2">
-        <v>0</v>
+        <v>439.0844</v>
       </c>
       <c r="EI2">
         <v>69.462684</v>
@@ -1952,10 +1952,10 @@
         <v>106.94241</v>
       </c>
       <c r="EZ2">
-        <v>0</v>
+        <v>66.932451</v>
       </c>
       <c r="FA2">
-        <v>0</v>
+        <v>66.932451</v>
       </c>
       <c r="FB2">
         <v>-91.754729</v>
@@ -1967,7 +1967,7 @@
         <v>-91.621774</v>
       </c>
       <c r="FE2">
-        <v>0</v>
+        <v>-84.227604</v>
       </c>
       <c r="FF2">
         <v>-134.7942</v>
@@ -1979,10 +1979,10 @@
         <v>-84.23011299999999</v>
       </c>
       <c r="FI2">
-        <v>0</v>
+        <v>-66.33916400000001</v>
       </c>
       <c r="FJ2">
-        <v>0</v>
+        <v>-66.33916400000001</v>
       </c>
       <c r="FK2">
         <v>-92.21374899999999</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>0</v>
+        <v>9.4106592E-05</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>9.4106592E-05</v>
       </c>
       <c r="T4" s="1">
-        <v>0</v>
+        <v>2.9981062E-05</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>184</v>
@@ -2594,11 +2594,11 @@
       <c r="AQ4" s="1">
         <v>43.50718</v>
       </c>
-      <c r="AR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>0</v>
+      <c r="AR4" s="3">
+        <v>-103.24553</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>-103.24553</v>
       </c>
       <c r="AT4" s="1">
         <v>30.700605</v>
@@ -2610,7 +2610,7 @@
         <v>30.347151</v>
       </c>
       <c r="AW4" s="1">
-        <v>0</v>
+        <v>10.267834</v>
       </c>
       <c r="AX4" s="1">
         <v>141.3489</v>
@@ -2622,10 +2622,10 @@
         <v>10.274832</v>
       </c>
       <c r="BA4" s="1">
-        <v>0</v>
+        <v>-44.374082</v>
       </c>
       <c r="BB4" s="1">
-        <v>0</v>
+        <v>-44.374082</v>
       </c>
       <c r="BC4" s="1">
         <v>31.917181</v>
@@ -2675,14 +2675,14 @@
       <c r="BR4" s="1">
         <v>173.52804</v>
       </c>
-      <c r="BS4" s="1">
-        <v>126.20274</v>
+      <c r="BS4" s="3">
+        <v>-63.099822</v>
       </c>
       <c r="BT4" s="1">
-        <v>0</v>
+        <v>373.09248</v>
       </c>
       <c r="BU4" s="1">
-        <v>0</v>
+        <v>373.09248</v>
       </c>
       <c r="BV4" s="1">
         <v>260.75539</v>
@@ -2694,7 +2694,7 @@
         <v>291.65735</v>
       </c>
       <c r="BY4" s="1">
-        <v>0</v>
+        <v>49.117042</v>
       </c>
       <c r="BZ4" s="1">
         <v>284.12432</v>
@@ -2702,14 +2702,14 @@
       <c r="CA4" s="1">
         <v>256.78371</v>
       </c>
-      <c r="CB4" s="3">
-        <v>-84.23011299999999</v>
+      <c r="CB4" s="1">
+        <v>89.61918200000001</v>
       </c>
       <c r="CC4" s="1">
-        <v>0</v>
+        <v>372.74523</v>
       </c>
       <c r="CD4" s="1">
-        <v>0</v>
+        <v>372.74523</v>
       </c>
       <c r="CE4" s="3">
         <v>-22.751065</v>
@@ -2763,10 +2763,10 @@
         <v>328.69773</v>
       </c>
       <c r="CV4" s="3">
-        <v>0</v>
+        <v>139.18617</v>
       </c>
       <c r="CW4" s="3">
-        <v>0</v>
+        <v>139.18617</v>
       </c>
       <c r="CX4" s="1">
         <v>323.50635</v>
@@ -2777,8 +2777,8 @@
       <c r="CZ4" s="1">
         <v>323.15113</v>
       </c>
-      <c r="DA4" s="3">
-        <v>0</v>
+      <c r="DA4" s="1">
+        <v>302.94035</v>
       </c>
       <c r="DB4" s="1">
         <v>434.1792</v>
@@ -2790,10 +2790,10 @@
         <v>302.92305</v>
       </c>
       <c r="DE4" s="3">
-        <v>0</v>
+        <v>196.22571</v>
       </c>
       <c r="DF4" s="3">
-        <v>0</v>
+        <v>196.22571</v>
       </c>
       <c r="DG4" s="1">
         <v>324.75568</v>
@@ -2844,13 +2844,13 @@
         <v>286.86335</v>
       </c>
       <c r="DW4" s="1">
-        <v>233.14515</v>
+        <v>43.842588</v>
       </c>
       <c r="DX4" s="1">
-        <v>0</v>
+        <v>440.02494</v>
       </c>
       <c r="DY4" s="1">
-        <v>0</v>
+        <v>440.02494</v>
       </c>
       <c r="DZ4" s="1">
         <v>352.51012</v>
@@ -2862,7 +2862,7 @@
         <v>383.27913</v>
       </c>
       <c r="EC4" s="1">
-        <v>0</v>
+        <v>133.34465</v>
       </c>
       <c r="ED4" s="1">
         <v>418.91852</v>
@@ -2871,13 +2871,13 @@
         <v>366.47131</v>
       </c>
       <c r="EF4" s="1">
-        <v>0</v>
+        <v>173.8493</v>
       </c>
       <c r="EG4" s="1">
-        <v>0</v>
+        <v>439.0844</v>
       </c>
       <c r="EH4" s="1">
-        <v>0</v>
+        <v>439.0844</v>
       </c>
       <c r="EI4" s="1">
         <v>69.462684</v>
@@ -2931,10 +2931,10 @@
         <v>106.94241</v>
       </c>
       <c r="EZ4" s="1">
-        <v>0</v>
+        <v>66.932451</v>
       </c>
       <c r="FA4" s="1">
-        <v>0</v>
+        <v>66.932451</v>
       </c>
       <c r="FB4" s="1">
         <v>-91.754729</v>
@@ -2946,7 +2946,7 @@
         <v>-91.621774</v>
       </c>
       <c r="FE4" s="1">
-        <v>0</v>
+        <v>-84.227604</v>
       </c>
       <c r="FF4" s="1">
         <v>-134.7942</v>
@@ -2958,10 +2958,10 @@
         <v>-84.23011299999999</v>
       </c>
       <c r="FI4" s="1">
-        <v>0</v>
+        <v>-66.33916400000001</v>
       </c>
       <c r="FJ4" s="1">
-        <v>0</v>
+        <v>-66.33916400000001</v>
       </c>
       <c r="FK4" s="1">
         <v>-92.21374899999999</v>
@@ -2984,13 +2984,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>9.4106592E-05</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>9.4106592E-05</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>2.9981062E-05</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>184</v>
@@ -3061,11 +3061,11 @@
       <c r="AQ5" s="1">
         <v>43.50718</v>
       </c>
-      <c r="AR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>0</v>
+      <c r="AR5" s="3">
+        <v>-103.24553</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>-103.24553</v>
       </c>
       <c r="AT5" s="1">
         <v>30.700605</v>
@@ -3077,7 +3077,7 @@
         <v>30.347151</v>
       </c>
       <c r="AW5" s="1">
-        <v>0</v>
+        <v>10.267834</v>
       </c>
       <c r="AX5" s="1">
         <v>141.3489</v>
@@ -3089,10 +3089,10 @@
         <v>10.274832</v>
       </c>
       <c r="BA5" s="1">
-        <v>0</v>
+        <v>-44.374082</v>
       </c>
       <c r="BB5" s="1">
-        <v>0</v>
+        <v>-44.374082</v>
       </c>
       <c r="BC5" s="1">
         <v>31.917181</v>
@@ -3142,14 +3142,14 @@
       <c r="BR5" s="1">
         <v>173.52804</v>
       </c>
-      <c r="BS5" s="1">
-        <v>126.20274</v>
+      <c r="BS5" s="3">
+        <v>-63.099822</v>
       </c>
       <c r="BT5" s="1">
-        <v>0</v>
+        <v>373.09248</v>
       </c>
       <c r="BU5" s="1">
-        <v>0</v>
+        <v>373.09248</v>
       </c>
       <c r="BV5" s="1">
         <v>260.75539</v>
@@ -3161,7 +3161,7 @@
         <v>291.65735</v>
       </c>
       <c r="BY5" s="1">
-        <v>0</v>
+        <v>49.117042</v>
       </c>
       <c r="BZ5" s="1">
         <v>284.12432</v>
@@ -3169,14 +3169,14 @@
       <c r="CA5" s="1">
         <v>256.78371</v>
       </c>
-      <c r="CB5" s="3">
-        <v>-84.23011299999999</v>
+      <c r="CB5" s="1">
+        <v>89.61918200000001</v>
       </c>
       <c r="CC5" s="1">
-        <v>0</v>
+        <v>372.74523</v>
       </c>
       <c r="CD5" s="1">
-        <v>0</v>
+        <v>372.74523</v>
       </c>
       <c r="CE5" s="3">
         <v>-22.751065</v>
@@ -3230,10 +3230,10 @@
         <v>328.69773</v>
       </c>
       <c r="CV5" s="3">
-        <v>0</v>
+        <v>139.18617</v>
       </c>
       <c r="CW5" s="3">
-        <v>0</v>
+        <v>139.18617</v>
       </c>
       <c r="CX5" s="1">
         <v>323.50635</v>
@@ -3244,8 +3244,8 @@
       <c r="CZ5" s="1">
         <v>323.15113</v>
       </c>
-      <c r="DA5" s="3">
-        <v>0</v>
+      <c r="DA5" s="1">
+        <v>302.94035</v>
       </c>
       <c r="DB5" s="1">
         <v>434.1792</v>
@@ -3257,10 +3257,10 @@
         <v>302.92305</v>
       </c>
       <c r="DE5" s="3">
-        <v>0</v>
+        <v>196.22571</v>
       </c>
       <c r="DF5" s="3">
-        <v>0</v>
+        <v>196.22571</v>
       </c>
       <c r="DG5" s="1">
         <v>324.75568</v>
@@ -3311,13 +3311,13 @@
         <v>286.86335</v>
       </c>
       <c r="DW5" s="1">
-        <v>233.14515</v>
+        <v>43.842588</v>
       </c>
       <c r="DX5" s="1">
-        <v>0</v>
+        <v>440.02494</v>
       </c>
       <c r="DY5" s="1">
-        <v>0</v>
+        <v>440.02494</v>
       </c>
       <c r="DZ5" s="1">
         <v>352.51012</v>
@@ -3329,7 +3329,7 @@
         <v>383.27913</v>
       </c>
       <c r="EC5" s="1">
-        <v>0</v>
+        <v>133.34465</v>
       </c>
       <c r="ED5" s="1">
         <v>418.91852</v>
@@ -3338,13 +3338,13 @@
         <v>366.47131</v>
       </c>
       <c r="EF5" s="1">
-        <v>0</v>
+        <v>173.8493</v>
       </c>
       <c r="EG5" s="1">
-        <v>0</v>
+        <v>439.0844</v>
       </c>
       <c r="EH5" s="1">
-        <v>0</v>
+        <v>439.0844</v>
       </c>
       <c r="EI5" s="1">
         <v>69.462684</v>
@@ -3398,10 +3398,10 @@
         <v>106.94241</v>
       </c>
       <c r="EZ5" s="1">
-        <v>0</v>
+        <v>66.932451</v>
       </c>
       <c r="FA5" s="1">
-        <v>0</v>
+        <v>66.932451</v>
       </c>
       <c r="FB5" s="1">
         <v>-91.754729</v>
@@ -3413,7 +3413,7 @@
         <v>-91.621774</v>
       </c>
       <c r="FE5" s="1">
-        <v>0</v>
+        <v>-84.227604</v>
       </c>
       <c r="FF5" s="1">
         <v>-134.7942</v>
@@ -3425,10 +3425,10 @@
         <v>-84.23011299999999</v>
       </c>
       <c r="FI5" s="1">
-        <v>0</v>
+        <v>-66.33916400000001</v>
       </c>
       <c r="FJ5" s="1">
-        <v>0</v>
+        <v>-66.33916400000001</v>
       </c>
       <c r="FK5" s="1">
         <v>-92.21374899999999</v>
@@ -4173,13 +4173,13 @@
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>9.4106592E-05</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>9.4106592E-05</v>
       </c>
       <c r="T10" s="1">
-        <v>0</v>
+        <v>2.9981062E-05</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>184</v>
@@ -4251,10 +4251,10 @@
         <v>43.50718</v>
       </c>
       <c r="AR10" s="1">
-        <v>0</v>
+        <v>-103.24553</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>-103.24553</v>
       </c>
       <c r="AT10" s="1">
         <v>30.700605</v>
@@ -4266,7 +4266,7 @@
         <v>30.347151</v>
       </c>
       <c r="AW10" s="1">
-        <v>0</v>
+        <v>10.267834</v>
       </c>
       <c r="AX10" s="1">
         <v>141.3489</v>
@@ -4278,10 +4278,10 @@
         <v>10.274832</v>
       </c>
       <c r="BA10" s="1">
-        <v>0</v>
+        <v>-44.374082</v>
       </c>
       <c r="BB10" s="1">
-        <v>0</v>
+        <v>-44.374082</v>
       </c>
       <c r="BC10" s="1">
         <v>31.917181</v>
@@ -4332,13 +4332,13 @@
         <v>173.52804</v>
       </c>
       <c r="BS10" s="1">
-        <v>126.20274</v>
+        <v>-63.099822</v>
       </c>
       <c r="BT10" s="1">
-        <v>0</v>
+        <v>373.09248</v>
       </c>
       <c r="BU10" s="1">
-        <v>0</v>
+        <v>373.09248</v>
       </c>
       <c r="BV10" s="1">
         <v>260.75539</v>
@@ -4350,7 +4350,7 @@
         <v>291.65735</v>
       </c>
       <c r="BY10" s="1">
-        <v>0</v>
+        <v>49.117042</v>
       </c>
       <c r="BZ10" s="1">
         <v>284.12432</v>
@@ -4359,13 +4359,13 @@
         <v>256.78371</v>
       </c>
       <c r="CB10" s="1">
-        <v>-84.23011299999999</v>
+        <v>89.61918200000001</v>
       </c>
       <c r="CC10" s="1">
-        <v>0</v>
+        <v>372.74523</v>
       </c>
       <c r="CD10" s="1">
-        <v>0</v>
+        <v>372.74523</v>
       </c>
       <c r="CE10" s="1">
         <v>-22.751065</v>
@@ -4419,10 +4419,10 @@
         <v>328.69773</v>
       </c>
       <c r="CV10" s="1">
-        <v>0</v>
+        <v>139.18617</v>
       </c>
       <c r="CW10" s="1">
-        <v>0</v>
+        <v>139.18617</v>
       </c>
       <c r="CX10" s="1">
         <v>323.50635</v>
@@ -4434,7 +4434,7 @@
         <v>323.15113</v>
       </c>
       <c r="DA10" s="1">
-        <v>0</v>
+        <v>302.94035</v>
       </c>
       <c r="DB10" s="1">
         <v>434.1792</v>
@@ -4446,10 +4446,10 @@
         <v>302.92305</v>
       </c>
       <c r="DE10" s="1">
-        <v>0</v>
+        <v>196.22571</v>
       </c>
       <c r="DF10" s="1">
-        <v>0</v>
+        <v>196.22571</v>
       </c>
       <c r="DG10" s="1">
         <v>324.75568</v>
@@ -4500,13 +4500,13 @@
         <v>286.86335</v>
       </c>
       <c r="DW10" s="1">
-        <v>233.14515</v>
+        <v>43.842588</v>
       </c>
       <c r="DX10" s="1">
-        <v>0</v>
+        <v>440.02494</v>
       </c>
       <c r="DY10" s="1">
-        <v>0</v>
+        <v>440.02494</v>
       </c>
       <c r="DZ10" s="1">
         <v>352.51012</v>
@@ -4518,7 +4518,7 @@
         <v>383.27913</v>
       </c>
       <c r="EC10" s="1">
-        <v>0</v>
+        <v>133.34465</v>
       </c>
       <c r="ED10" s="1">
         <v>418.91852</v>
@@ -4527,13 +4527,13 @@
         <v>366.47131</v>
       </c>
       <c r="EF10" s="1">
-        <v>0</v>
+        <v>173.8493</v>
       </c>
       <c r="EG10" s="1">
-        <v>0</v>
+        <v>439.0844</v>
       </c>
       <c r="EH10" s="1">
-        <v>0</v>
+        <v>439.0844</v>
       </c>
       <c r="EI10" s="1">
         <v>69.462684</v>
@@ -4587,10 +4587,10 @@
         <v>106.94241</v>
       </c>
       <c r="EZ10" s="1">
-        <v>0</v>
+        <v>66.932451</v>
       </c>
       <c r="FA10" s="1">
-        <v>0</v>
+        <v>66.932451</v>
       </c>
       <c r="FB10" s="1">
         <v>-91.754729</v>
@@ -4602,7 +4602,7 @@
         <v>-91.621774</v>
       </c>
       <c r="FE10" s="1">
-        <v>0</v>
+        <v>-84.227604</v>
       </c>
       <c r="FF10" s="1">
         <v>-134.7942</v>
@@ -4614,10 +4614,10 @@
         <v>-84.23011299999999</v>
       </c>
       <c r="FI10" s="1">
-        <v>0</v>
+        <v>-66.33916400000001</v>
       </c>
       <c r="FJ10" s="1">
-        <v>0</v>
+        <v>-66.33916400000001</v>
       </c>
       <c r="FK10" s="1">
         <v>-92.21374899999999</v>
@@ -5106,14 +5106,14 @@
       <c r="Q12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>184</v>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>184</v>
@@ -5184,11 +5184,11 @@
       <c r="AQ12" s="1">
         <v>0</v>
       </c>
-      <c r="AR12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AS12" s="1" t="s">
-        <v>184</v>
+      <c r="AR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -5199,8 +5199,8 @@
       <c r="AV12" s="1">
         <v>0</v>
       </c>
-      <c r="AW12" s="1" t="s">
-        <v>184</v>
+      <c r="AW12" s="1">
+        <v>0</v>
       </c>
       <c r="AX12" s="1">
         <v>0</v>
@@ -5211,11 +5211,11 @@
       <c r="AZ12" s="1">
         <v>0</v>
       </c>
-      <c r="BA12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BB12" s="1" t="s">
-        <v>184</v>
+      <c r="BA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>0</v>
       </c>
       <c r="BC12" s="1">
         <v>0</v>
@@ -5268,11 +5268,11 @@
       <c r="BS12" s="1">
         <v>0</v>
       </c>
-      <c r="BT12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BU12" s="1" t="s">
-        <v>184</v>
+      <c r="BT12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="1">
+        <v>0</v>
       </c>
       <c r="BV12" s="1">
         <v>0</v>
@@ -5283,8 +5283,8 @@
       <c r="BX12" s="1">
         <v>0</v>
       </c>
-      <c r="BY12" s="1" t="s">
-        <v>184</v>
+      <c r="BY12" s="1">
+        <v>0</v>
       </c>
       <c r="BZ12" s="1">
         <v>0</v>
@@ -5295,11 +5295,11 @@
       <c r="CB12" s="1">
         <v>0</v>
       </c>
-      <c r="CC12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CD12" s="1" t="s">
-        <v>184</v>
+      <c r="CC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD12" s="1">
+        <v>0</v>
       </c>
       <c r="CE12" s="1">
         <v>0</v>
@@ -5352,11 +5352,11 @@
       <c r="CU12" s="1">
         <v>0</v>
       </c>
-      <c r="CV12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CW12" s="1" t="s">
-        <v>184</v>
+      <c r="CV12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW12" s="1">
+        <v>0</v>
       </c>
       <c r="CX12" s="1">
         <v>0</v>
@@ -5367,8 +5367,8 @@
       <c r="CZ12" s="1">
         <v>0</v>
       </c>
-      <c r="DA12" s="1" t="s">
-        <v>184</v>
+      <c r="DA12" s="1">
+        <v>0</v>
       </c>
       <c r="DB12" s="1">
         <v>0</v>
@@ -5379,11 +5379,11 @@
       <c r="DD12" s="1">
         <v>0</v>
       </c>
-      <c r="DE12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DF12" s="1" t="s">
-        <v>184</v>
+      <c r="DE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF12" s="1">
+        <v>0</v>
       </c>
       <c r="DG12" s="1">
         <v>0</v>
@@ -5436,11 +5436,11 @@
       <c r="DW12" s="1">
         <v>0</v>
       </c>
-      <c r="DX12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DY12" s="1" t="s">
-        <v>184</v>
+      <c r="DX12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DY12" s="1">
+        <v>0</v>
       </c>
       <c r="DZ12" s="1">
         <v>0</v>
@@ -5451,8 +5451,8 @@
       <c r="EB12" s="1">
         <v>0</v>
       </c>
-      <c r="EC12" s="1" t="s">
-        <v>184</v>
+      <c r="EC12" s="1">
+        <v>0</v>
       </c>
       <c r="ED12" s="1">
         <v>0</v>
@@ -5460,14 +5460,14 @@
       <c r="EE12" s="1">
         <v>0</v>
       </c>
-      <c r="EF12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EG12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EH12" s="1" t="s">
-        <v>184</v>
+      <c r="EF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH12" s="1">
+        <v>0</v>
       </c>
       <c r="EI12" s="1">
         <v>0</v>
@@ -5520,11 +5520,11 @@
       <c r="EY12" s="1">
         <v>0</v>
       </c>
-      <c r="EZ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="FA12" s="1" t="s">
-        <v>184</v>
+      <c r="EZ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="FA12" s="1">
+        <v>0</v>
       </c>
       <c r="FB12" s="1">
         <v>0</v>
@@ -5535,8 +5535,8 @@
       <c r="FD12" s="1">
         <v>0</v>
       </c>
-      <c r="FE12" s="1" t="s">
-        <v>184</v>
+      <c r="FE12" s="1">
+        <v>0</v>
       </c>
       <c r="FF12" s="1">
         <v>0</v>
@@ -5547,11 +5547,11 @@
       <c r="FH12" s="1">
         <v>0</v>
       </c>
-      <c r="FI12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="FJ12" s="1" t="s">
-        <v>184</v>
+      <c r="FI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="FJ12" s="1">
+        <v>0</v>
       </c>
       <c r="FK12" s="1">
         <v>0</v>

--- a/dcd_opamp_dcop_pre_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_dcop_pre_feb28_tsmc2p_meas.xlsx
@@ -1538,13 +1538,13 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>9.4106592E-05</v>
+        <v>9.4044104E-05</v>
       </c>
       <c r="S2">
-        <v>9.4106592E-05</v>
+        <v>9.4044104E-05</v>
       </c>
       <c r="T2">
-        <v>2.9981062E-05</v>
+        <v>8.2746212E-05</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>184</v>
@@ -1553,448 +1553,448 @@
         <v>184</v>
       </c>
       <c r="W2" s="3">
-        <v>-15.967424</v>
+        <v>-15.934622</v>
       </c>
       <c r="X2">
-        <v>-144.56174</v>
+        <v>-144.45213</v>
       </c>
       <c r="Y2">
-        <v>91.41186900000001</v>
+        <v>89.24028200000001</v>
       </c>
       <c r="Z2">
-        <v>422.67375</v>
+        <v>382.84292</v>
       </c>
       <c r="AA2">
-        <v>422.67373</v>
+        <v>382.84292</v>
       </c>
       <c r="AB2">
-        <v>422.67374</v>
+        <v>382.84292</v>
       </c>
       <c r="AC2" s="3">
-        <v>1.1357419E-05</v>
+        <v>2.1877188E-06</v>
       </c>
       <c r="AD2">
-        <v>-1027.9566</v>
+        <v>-1144.1613</v>
       </c>
       <c r="AE2">
-        <v>112.71928</v>
+        <v>112.51975</v>
       </c>
       <c r="AF2">
-        <v>352.9597199999999</v>
+        <v>352.95417</v>
       </c>
       <c r="AG2">
-        <v>43.509179</v>
+        <v>43.46567099999999</v>
       </c>
       <c r="AH2">
-        <v>192.41618</v>
+        <v>192.33276</v>
       </c>
       <c r="AI2">
-        <v>43.502429</v>
+        <v>43.458918</v>
       </c>
       <c r="AJ2">
-        <v>43.496835</v>
+        <v>43.453243</v>
       </c>
       <c r="AK2">
-        <v>67.567367</v>
+        <v>67.51835100000001</v>
       </c>
       <c r="AL2">
-        <v>67.564042</v>
+        <v>67.515038</v>
       </c>
       <c r="AM2">
-        <v>43.525731</v>
+        <v>43.482144</v>
       </c>
       <c r="AN2">
-        <v>60.892237</v>
+        <v>61.498623</v>
       </c>
       <c r="AO2">
-        <v>43.525731</v>
+        <v>43.482144</v>
       </c>
       <c r="AP2">
-        <v>60.892237</v>
+        <v>61.498623</v>
       </c>
       <c r="AQ2">
-        <v>43.50718</v>
-      </c>
-      <c r="AR2" s="3">
-        <v>-103.24553</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>-103.24553</v>
+        <v>43.468003</v>
+      </c>
+      <c r="AR2">
+        <v>-58.876613</v>
+      </c>
+      <c r="AS2">
+        <v>-58.876613</v>
       </c>
       <c r="AT2">
-        <v>30.700605</v>
+        <v>30.662274</v>
       </c>
       <c r="AU2">
-        <v>31.317965</v>
+        <v>31.280887</v>
       </c>
       <c r="AV2">
-        <v>30.347151</v>
+        <v>30.309669</v>
       </c>
       <c r="AW2">
-        <v>10.267834</v>
+        <v>10.227898</v>
       </c>
       <c r="AX2">
-        <v>141.3489</v>
+        <v>141.27373</v>
       </c>
       <c r="AY2">
-        <v>77.10979900000001</v>
+        <v>77.055606</v>
       </c>
       <c r="AZ2">
-        <v>10.274832</v>
+        <v>10.23541</v>
       </c>
       <c r="BA2">
-        <v>-44.374082</v>
+        <v>-44.418559</v>
       </c>
       <c r="BB2">
-        <v>-44.374082</v>
+        <v>-44.418559</v>
       </c>
       <c r="BC2">
-        <v>31.917181</v>
+        <v>71.35749299999999</v>
       </c>
       <c r="BD2">
-        <v>70.38503799999999</v>
+        <v>68.94535999999999</v>
       </c>
       <c r="BE2">
-        <v>31.917181</v>
+        <v>71.35749299999999</v>
       </c>
       <c r="BF2">
-        <v>70.38503799999999</v>
+        <v>68.94535999999999</v>
       </c>
       <c r="BG2">
-        <v>578.3023499999999</v>
+        <v>578.1786199999999</v>
       </c>
       <c r="BH2" s="3">
-        <v>-89.536951</v>
+        <v>-89.55015900000001</v>
       </c>
       <c r="BI2">
-        <v>103.55626</v>
+        <v>103.52303</v>
       </c>
       <c r="BJ2">
-        <v>308.13433</v>
+        <v>308.08481</v>
       </c>
       <c r="BK2">
-        <v>202.697</v>
+        <v>202.52758</v>
       </c>
       <c r="BL2">
-        <v>333.95379</v>
+        <v>333.74748</v>
       </c>
       <c r="BM2">
-        <v>233.80554</v>
+        <v>233.77632</v>
       </c>
       <c r="BN2">
-        <v>257.14783</v>
+        <v>256.96011</v>
       </c>
       <c r="BO2">
-        <v>22.483926</v>
+        <v>21.815133</v>
       </c>
       <c r="BP2">
-        <v>173.52804</v>
+        <v>134.20125</v>
       </c>
       <c r="BQ2">
-        <v>22.483926</v>
+        <v>21.815133</v>
       </c>
       <c r="BR2">
-        <v>173.52804</v>
+        <v>134.20125</v>
       </c>
       <c r="BS2" s="3">
-        <v>-63.099822</v>
+        <v>-64.176152</v>
       </c>
       <c r="BT2">
-        <v>373.09248</v>
+        <v>407.5885</v>
       </c>
       <c r="BU2">
-        <v>373.09248</v>
+        <v>407.5885</v>
       </c>
       <c r="BV2">
-        <v>260.75539</v>
+        <v>260.72577</v>
       </c>
       <c r="BW2">
-        <v>173.37072</v>
+        <v>173.20823</v>
       </c>
       <c r="BX2">
-        <v>291.65735</v>
+        <v>291.4642</v>
       </c>
       <c r="BY2">
-        <v>49.117042</v>
+        <v>49.093591</v>
       </c>
       <c r="BZ2">
-        <v>284.12432</v>
+        <v>284.0842</v>
       </c>
       <c r="CA2">
-        <v>256.78371</v>
+        <v>256.75266</v>
       </c>
       <c r="CB2">
-        <v>89.61918200000001</v>
+        <v>89.43466599999999</v>
       </c>
       <c r="CC2">
-        <v>372.74523</v>
+        <v>373.38643</v>
       </c>
       <c r="CD2">
-        <v>372.74523</v>
+        <v>373.38643</v>
       </c>
       <c r="CE2" s="3">
-        <v>-22.751065</v>
+        <v>-37.326369</v>
       </c>
       <c r="CF2">
-        <v>143.40127</v>
+        <v>182.15522</v>
       </c>
       <c r="CG2" s="3">
-        <v>-22.751065</v>
+        <v>-37.326369</v>
       </c>
       <c r="CH2">
-        <v>143.40127</v>
+        <v>182.15522</v>
       </c>
       <c r="CI2">
-        <v>363.27583</v>
+        <v>363.0764</v>
       </c>
       <c r="CJ2">
-        <v>352.9597199999999</v>
+        <v>352.95417</v>
       </c>
       <c r="CK2">
-        <v>328.70058</v>
+        <v>328.6554</v>
       </c>
       <c r="CL2">
-        <v>477.61722</v>
+        <v>477.53382</v>
       </c>
       <c r="CM2">
-        <v>328.69089</v>
+        <v>328.64573</v>
       </c>
       <c r="CN2">
-        <v>328.68273</v>
+        <v>328.63757</v>
       </c>
       <c r="CO2">
-        <v>352.74353</v>
+        <v>352.69455</v>
       </c>
       <c r="CP2">
-        <v>352.73964</v>
+        <v>352.69067</v>
       </c>
       <c r="CQ2">
-        <v>328.72368</v>
+        <v>328.67887</v>
       </c>
       <c r="CR2">
-        <v>346.07373</v>
+        <v>346.68083</v>
       </c>
       <c r="CS2">
-        <v>328.72368</v>
+        <v>328.67887</v>
       </c>
       <c r="CT2">
-        <v>346.07373</v>
+        <v>346.68083</v>
       </c>
       <c r="CU2">
-        <v>328.69773</v>
+        <v>328.65873</v>
       </c>
       <c r="CV2" s="3">
-        <v>139.18617</v>
+        <v>182.60944</v>
       </c>
       <c r="CW2" s="3">
-        <v>139.18617</v>
+        <v>182.60944</v>
       </c>
       <c r="CX2">
-        <v>323.50635</v>
+        <v>323.46729</v>
       </c>
       <c r="CY2">
-        <v>324.12672</v>
+        <v>324.08876</v>
       </c>
       <c r="CZ2">
-        <v>323.15113</v>
+        <v>323.1130199999999</v>
       </c>
       <c r="DA2">
-        <v>302.94035</v>
+        <v>302.90209</v>
       </c>
       <c r="DB2">
-        <v>434.1792</v>
+        <v>434.10405</v>
       </c>
       <c r="DC2">
-        <v>369.88458</v>
+        <v>369.83023</v>
       </c>
       <c r="DD2">
-        <v>302.92305</v>
+        <v>302.88485</v>
       </c>
       <c r="DE2" s="3">
-        <v>196.22571</v>
+        <v>196.16194</v>
       </c>
       <c r="DF2" s="3">
-        <v>196.22571</v>
+        <v>196.16194</v>
       </c>
       <c r="DG2">
-        <v>324.75568</v>
+        <v>364.19182</v>
       </c>
       <c r="DH2">
-        <v>363.16968</v>
+        <v>361.72894</v>
       </c>
       <c r="DI2">
-        <v>324.75568</v>
+        <v>364.19182</v>
       </c>
       <c r="DJ2">
-        <v>363.16968</v>
+        <v>361.72894</v>
       </c>
       <c r="DK2">
-        <v>710.87932</v>
+        <v>710.68458</v>
       </c>
       <c r="DL2">
-        <v>26.305732</v>
+        <v>26.290493</v>
       </c>
       <c r="DM2">
-        <v>210.49941</v>
+        <v>210.45022</v>
       </c>
       <c r="DN2">
-        <v>467.23425</v>
+        <v>467.15692</v>
       </c>
       <c r="DO2">
-        <v>309.63766</v>
+        <v>309.45228</v>
       </c>
       <c r="DP2">
-        <v>440.89239</v>
+        <v>440.67009</v>
       </c>
       <c r="DQ2">
-        <v>349.5892</v>
+        <v>349.54202</v>
       </c>
       <c r="DR2">
-        <v>372.93027</v>
+        <v>372.7246</v>
       </c>
       <c r="DS2">
-        <v>129.43318</v>
+        <v>128.74838</v>
       </c>
       <c r="DT2">
-        <v>286.86335</v>
+        <v>247.75855</v>
       </c>
       <c r="DU2">
-        <v>129.43318</v>
+        <v>128.74838</v>
       </c>
       <c r="DV2">
-        <v>286.86335</v>
+        <v>247.75855</v>
       </c>
       <c r="DW2">
-        <v>43.842588</v>
+        <v>42.75189</v>
       </c>
       <c r="DX2">
-        <v>440.02494</v>
+        <v>481.66462</v>
       </c>
       <c r="DY2">
-        <v>440.02494</v>
+        <v>481.66462</v>
       </c>
       <c r="DZ2">
-        <v>352.51012</v>
+        <v>352.4656199999999</v>
       </c>
       <c r="EA2">
-        <v>265.35781</v>
+        <v>265.18103</v>
       </c>
       <c r="EB2">
-        <v>383.27913</v>
+        <v>383.07134</v>
       </c>
       <c r="EC2">
-        <v>133.34465</v>
+        <v>133.30999</v>
       </c>
       <c r="ED2">
-        <v>418.91852</v>
+        <v>418.84929</v>
       </c>
       <c r="EE2">
-        <v>366.47131</v>
+        <v>366.41902</v>
       </c>
       <c r="EF2">
-        <v>173.8493</v>
+        <v>173.65196</v>
       </c>
       <c r="EG2">
-        <v>439.0844</v>
+        <v>439.7102</v>
       </c>
       <c r="EH2">
-        <v>439.0844</v>
+        <v>439.7102</v>
       </c>
       <c r="EI2">
-        <v>69.462684</v>
+        <v>70.10813</v>
       </c>
       <c r="EJ2">
-        <v>250.45513</v>
+        <v>288.6461</v>
       </c>
       <c r="EK2">
-        <v>69.462684</v>
+        <v>70.10813</v>
       </c>
       <c r="EL2">
-        <v>250.45512</v>
+        <v>288.6461</v>
       </c>
       <c r="EM2">
-        <v>132.57697</v>
+        <v>132.50596</v>
       </c>
       <c r="EN2">
-        <v>115.84268</v>
+        <v>115.84065</v>
       </c>
       <c r="EO2">
-        <v>106.94315</v>
+        <v>106.92718</v>
       </c>
       <c r="EP2">
-        <v>159.09992</v>
+        <v>159.0721</v>
       </c>
       <c r="EQ2">
-        <v>106.94066</v>
+        <v>106.9247</v>
       </c>
       <c r="ER2">
-        <v>106.9386</v>
+        <v>106.92261</v>
       </c>
       <c r="ES2">
-        <v>115.78366</v>
+        <v>115.76571</v>
       </c>
       <c r="ET2">
-        <v>115.78244</v>
+        <v>115.76449</v>
       </c>
       <c r="EU2">
-        <v>106.94925</v>
+        <v>106.93324</v>
       </c>
       <c r="EV2">
-        <v>113.33531</v>
+        <v>113.5573</v>
       </c>
       <c r="EW2">
-        <v>106.94925</v>
+        <v>106.93324</v>
       </c>
       <c r="EX2">
-        <v>113.33531</v>
+        <v>113.5573</v>
       </c>
       <c r="EY2">
-        <v>106.94241</v>
+        <v>106.92804</v>
       </c>
       <c r="EZ2">
-        <v>66.932451</v>
+        <v>74.07612099999999</v>
       </c>
       <c r="FA2">
-        <v>66.932451</v>
+        <v>74.07612099999999</v>
       </c>
       <c r="FB2">
-        <v>-91.754729</v>
+        <v>-91.73984400000001</v>
       </c>
       <c r="FC2">
-        <v>-91.987092</v>
+        <v>-91.97280500000001</v>
       </c>
       <c r="FD2">
-        <v>-91.621774</v>
+        <v>-91.60714400000001</v>
       </c>
       <c r="FE2">
-        <v>-84.227604</v>
+        <v>-84.216403</v>
       </c>
       <c r="FF2">
-        <v>-134.7942</v>
+        <v>-134.76509</v>
       </c>
       <c r="FG2">
-        <v>-109.6876</v>
+        <v>-109.66636</v>
       </c>
       <c r="FH2">
-        <v>-84.23011299999999</v>
+        <v>-84.21729499999999</v>
       </c>
       <c r="FI2">
-        <v>-66.33916400000001</v>
+        <v>-66.323775</v>
       </c>
       <c r="FJ2">
-        <v>-66.33916400000001</v>
+        <v>-66.323775</v>
       </c>
       <c r="FK2">
-        <v>-92.21374899999999</v>
+        <v>-107.4345</v>
       </c>
       <c r="FL2">
-        <v>-107.05386</v>
+        <v>-106.49088</v>
       </c>
       <c r="FM2">
-        <v>-92.21374899999999</v>
+        <v>-107.4345</v>
       </c>
       <c r="FN2">
-        <v>-107.05386</v>
+        <v>-106.49088</v>
       </c>
     </row>
     <row r="3" spans="1:170" s="1" customFormat="1">
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>9.4106592E-05</v>
+        <v>9.4044104E-05</v>
       </c>
       <c r="S4" s="1">
-        <v>9.4106592E-05</v>
+        <v>9.4044104E-05</v>
       </c>
       <c r="T4" s="1">
-        <v>2.9981062E-05</v>
+        <v>8.2746212E-05</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>184</v>
@@ -2532,448 +2532,448 @@
         <v>184</v>
       </c>
       <c r="W4" s="3">
-        <v>-15.967424</v>
+        <v>-15.934622</v>
       </c>
       <c r="X4" s="1">
-        <v>-144.56174</v>
+        <v>-144.45213</v>
       </c>
       <c r="Y4" s="1">
-        <v>91.41186900000001</v>
+        <v>89.24028200000001</v>
       </c>
       <c r="Z4" s="1">
-        <v>422.67375</v>
+        <v>382.84292</v>
       </c>
       <c r="AA4" s="1">
-        <v>422.67373</v>
+        <v>382.84292</v>
       </c>
       <c r="AB4" s="1">
-        <v>422.67374</v>
+        <v>382.84292</v>
       </c>
       <c r="AC4" s="3">
-        <v>1.1357419E-05</v>
+        <v>2.1877188E-06</v>
       </c>
       <c r="AD4" s="1">
-        <v>-1027.9566</v>
+        <v>-1144.1613</v>
       </c>
       <c r="AE4" s="1">
-        <v>112.71928</v>
+        <v>112.51975</v>
       </c>
       <c r="AF4" s="1">
-        <v>352.9597199999999</v>
+        <v>352.95417</v>
       </c>
       <c r="AG4" s="1">
-        <v>43.509179</v>
+        <v>43.46567099999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>192.41618</v>
+        <v>192.33276</v>
       </c>
       <c r="AI4" s="1">
-        <v>43.502429</v>
+        <v>43.458918</v>
       </c>
       <c r="AJ4" s="1">
-        <v>43.496835</v>
+        <v>43.453243</v>
       </c>
       <c r="AK4" s="1">
-        <v>67.567367</v>
+        <v>67.51835100000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>67.564042</v>
+        <v>67.515038</v>
       </c>
       <c r="AM4" s="1">
-        <v>43.525731</v>
+        <v>43.482144</v>
       </c>
       <c r="AN4" s="1">
-        <v>60.892237</v>
+        <v>61.498623</v>
       </c>
       <c r="AO4" s="1">
-        <v>43.525731</v>
+        <v>43.482144</v>
       </c>
       <c r="AP4" s="1">
-        <v>60.892237</v>
+        <v>61.498623</v>
       </c>
       <c r="AQ4" s="1">
-        <v>43.50718</v>
-      </c>
-      <c r="AR4" s="3">
-        <v>-103.24553</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>-103.24553</v>
+        <v>43.468003</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>-58.876613</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>-58.876613</v>
       </c>
       <c r="AT4" s="1">
-        <v>30.700605</v>
+        <v>30.662274</v>
       </c>
       <c r="AU4" s="1">
-        <v>31.317965</v>
+        <v>31.280887</v>
       </c>
       <c r="AV4" s="1">
-        <v>30.347151</v>
+        <v>30.309669</v>
       </c>
       <c r="AW4" s="1">
-        <v>10.267834</v>
+        <v>10.227898</v>
       </c>
       <c r="AX4" s="1">
-        <v>141.3489</v>
+        <v>141.27373</v>
       </c>
       <c r="AY4" s="1">
-        <v>77.10979900000001</v>
+        <v>77.055606</v>
       </c>
       <c r="AZ4" s="1">
-        <v>10.274832</v>
+        <v>10.23541</v>
       </c>
       <c r="BA4" s="1">
-        <v>-44.374082</v>
+        <v>-44.418559</v>
       </c>
       <c r="BB4" s="1">
-        <v>-44.374082</v>
+        <v>-44.418559</v>
       </c>
       <c r="BC4" s="1">
-        <v>31.917181</v>
+        <v>71.35749299999999</v>
       </c>
       <c r="BD4" s="1">
-        <v>70.38503799999999</v>
+        <v>68.94535999999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>31.917181</v>
+        <v>71.35749299999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>70.38503799999999</v>
+        <v>68.94535999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>578.3023499999999</v>
+        <v>578.1786199999999</v>
       </c>
       <c r="BH4" s="3">
-        <v>-89.536951</v>
+        <v>-89.55015900000001</v>
       </c>
       <c r="BI4" s="1">
-        <v>103.55626</v>
+        <v>103.52303</v>
       </c>
       <c r="BJ4" s="1">
-        <v>308.13433</v>
+        <v>308.08481</v>
       </c>
       <c r="BK4" s="1">
-        <v>202.697</v>
+        <v>202.52758</v>
       </c>
       <c r="BL4" s="1">
-        <v>333.95379</v>
+        <v>333.74748</v>
       </c>
       <c r="BM4" s="1">
-        <v>233.80554</v>
+        <v>233.77632</v>
       </c>
       <c r="BN4" s="1">
-        <v>257.14783</v>
+        <v>256.96011</v>
       </c>
       <c r="BO4" s="1">
-        <v>22.483926</v>
+        <v>21.815133</v>
       </c>
       <c r="BP4" s="1">
-        <v>173.52804</v>
+        <v>134.20125</v>
       </c>
       <c r="BQ4" s="1">
-        <v>22.483926</v>
+        <v>21.815133</v>
       </c>
       <c r="BR4" s="1">
-        <v>173.52804</v>
+        <v>134.20125</v>
       </c>
       <c r="BS4" s="3">
-        <v>-63.099822</v>
+        <v>-64.176152</v>
       </c>
       <c r="BT4" s="1">
-        <v>373.09248</v>
+        <v>407.5885</v>
       </c>
       <c r="BU4" s="1">
-        <v>373.09248</v>
+        <v>407.5885</v>
       </c>
       <c r="BV4" s="1">
-        <v>260.75539</v>
+        <v>260.72577</v>
       </c>
       <c r="BW4" s="1">
-        <v>173.37072</v>
+        <v>173.20823</v>
       </c>
       <c r="BX4" s="1">
-        <v>291.65735</v>
+        <v>291.4642</v>
       </c>
       <c r="BY4" s="1">
-        <v>49.117042</v>
+        <v>49.093591</v>
       </c>
       <c r="BZ4" s="1">
-        <v>284.12432</v>
+        <v>284.0842</v>
       </c>
       <c r="CA4" s="1">
-        <v>256.78371</v>
+        <v>256.75266</v>
       </c>
       <c r="CB4" s="1">
-        <v>89.61918200000001</v>
+        <v>89.43466599999999</v>
       </c>
       <c r="CC4" s="1">
-        <v>372.74523</v>
+        <v>373.38643</v>
       </c>
       <c r="CD4" s="1">
-        <v>372.74523</v>
+        <v>373.38643</v>
       </c>
       <c r="CE4" s="3">
-        <v>-22.751065</v>
+        <v>-37.326369</v>
       </c>
       <c r="CF4" s="1">
-        <v>143.40127</v>
+        <v>182.15522</v>
       </c>
       <c r="CG4" s="3">
-        <v>-22.751065</v>
+        <v>-37.326369</v>
       </c>
       <c r="CH4" s="1">
-        <v>143.40127</v>
+        <v>182.15522</v>
       </c>
       <c r="CI4" s="1">
-        <v>363.27583</v>
+        <v>363.0764</v>
       </c>
       <c r="CJ4" s="1">
-        <v>352.9597199999999</v>
+        <v>352.95417</v>
       </c>
       <c r="CK4" s="1">
-        <v>328.70058</v>
+        <v>328.6554</v>
       </c>
       <c r="CL4" s="1">
-        <v>477.61722</v>
+        <v>477.53382</v>
       </c>
       <c r="CM4" s="1">
-        <v>328.69089</v>
+        <v>328.64573</v>
       </c>
       <c r="CN4" s="1">
-        <v>328.68273</v>
+        <v>328.63757</v>
       </c>
       <c r="CO4" s="1">
-        <v>352.74353</v>
+        <v>352.69455</v>
       </c>
       <c r="CP4" s="1">
-        <v>352.73964</v>
+        <v>352.69067</v>
       </c>
       <c r="CQ4" s="1">
-        <v>328.72368</v>
+        <v>328.67887</v>
       </c>
       <c r="CR4" s="1">
-        <v>346.07373</v>
+        <v>346.68083</v>
       </c>
       <c r="CS4" s="1">
-        <v>328.72368</v>
+        <v>328.67887</v>
       </c>
       <c r="CT4" s="1">
-        <v>346.07373</v>
+        <v>346.68083</v>
       </c>
       <c r="CU4" s="1">
-        <v>328.69773</v>
+        <v>328.65873</v>
       </c>
       <c r="CV4" s="3">
-        <v>139.18617</v>
+        <v>182.60944</v>
       </c>
       <c r="CW4" s="3">
-        <v>139.18617</v>
+        <v>182.60944</v>
       </c>
       <c r="CX4" s="1">
-        <v>323.50635</v>
+        <v>323.46729</v>
       </c>
       <c r="CY4" s="1">
-        <v>324.12672</v>
+        <v>324.08876</v>
       </c>
       <c r="CZ4" s="1">
-        <v>323.15113</v>
+        <v>323.1130199999999</v>
       </c>
       <c r="DA4" s="1">
-        <v>302.94035</v>
+        <v>302.90209</v>
       </c>
       <c r="DB4" s="1">
-        <v>434.1792</v>
+        <v>434.10405</v>
       </c>
       <c r="DC4" s="1">
-        <v>369.88458</v>
+        <v>369.83023</v>
       </c>
       <c r="DD4" s="1">
-        <v>302.92305</v>
+        <v>302.88485</v>
       </c>
       <c r="DE4" s="3">
-        <v>196.22571</v>
+        <v>196.16194</v>
       </c>
       <c r="DF4" s="3">
-        <v>196.22571</v>
+        <v>196.16194</v>
       </c>
       <c r="DG4" s="1">
-        <v>324.75568</v>
+        <v>364.19182</v>
       </c>
       <c r="DH4" s="1">
-        <v>363.16968</v>
+        <v>361.72894</v>
       </c>
       <c r="DI4" s="1">
-        <v>324.75568</v>
+        <v>364.19182</v>
       </c>
       <c r="DJ4" s="1">
-        <v>363.16968</v>
+        <v>361.72894</v>
       </c>
       <c r="DK4" s="1">
-        <v>710.87932</v>
+        <v>710.68458</v>
       </c>
       <c r="DL4" s="1">
-        <v>26.305732</v>
+        <v>26.290493</v>
       </c>
       <c r="DM4" s="1">
-        <v>210.49941</v>
+        <v>210.45022</v>
       </c>
       <c r="DN4" s="1">
-        <v>467.23425</v>
+        <v>467.15692</v>
       </c>
       <c r="DO4" s="1">
-        <v>309.63766</v>
+        <v>309.45228</v>
       </c>
       <c r="DP4" s="1">
-        <v>440.89239</v>
+        <v>440.67009</v>
       </c>
       <c r="DQ4" s="1">
-        <v>349.5892</v>
+        <v>349.54202</v>
       </c>
       <c r="DR4" s="1">
-        <v>372.93027</v>
+        <v>372.7246</v>
       </c>
       <c r="DS4" s="1">
-        <v>129.43318</v>
+        <v>128.74838</v>
       </c>
       <c r="DT4" s="1">
-        <v>286.86335</v>
+        <v>247.75855</v>
       </c>
       <c r="DU4" s="1">
-        <v>129.43318</v>
+        <v>128.74838</v>
       </c>
       <c r="DV4" s="1">
-        <v>286.86335</v>
+        <v>247.75855</v>
       </c>
       <c r="DW4" s="1">
-        <v>43.842588</v>
+        <v>42.75189</v>
       </c>
       <c r="DX4" s="1">
-        <v>440.02494</v>
+        <v>481.66462</v>
       </c>
       <c r="DY4" s="1">
-        <v>440.02494</v>
+        <v>481.66462</v>
       </c>
       <c r="DZ4" s="1">
-        <v>352.51012</v>
+        <v>352.4656199999999</v>
       </c>
       <c r="EA4" s="1">
-        <v>265.35781</v>
+        <v>265.18103</v>
       </c>
       <c r="EB4" s="1">
-        <v>383.27913</v>
+        <v>383.07134</v>
       </c>
       <c r="EC4" s="1">
-        <v>133.34465</v>
+        <v>133.30999</v>
       </c>
       <c r="ED4" s="1">
-        <v>418.91852</v>
+        <v>418.84929</v>
       </c>
       <c r="EE4" s="1">
-        <v>366.47131</v>
+        <v>366.41902</v>
       </c>
       <c r="EF4" s="1">
-        <v>173.8493</v>
+        <v>173.65196</v>
       </c>
       <c r="EG4" s="1">
-        <v>439.0844</v>
+        <v>439.7102</v>
       </c>
       <c r="EH4" s="1">
-        <v>439.0844</v>
+        <v>439.7102</v>
       </c>
       <c r="EI4" s="1">
-        <v>69.462684</v>
+        <v>70.10813</v>
       </c>
       <c r="EJ4" s="1">
-        <v>250.45513</v>
+        <v>288.6461</v>
       </c>
       <c r="EK4" s="1">
-        <v>69.462684</v>
+        <v>70.10813</v>
       </c>
       <c r="EL4" s="1">
-        <v>250.45512</v>
+        <v>288.6461</v>
       </c>
       <c r="EM4" s="1">
-        <v>132.57697</v>
+        <v>132.50596</v>
       </c>
       <c r="EN4" s="1">
-        <v>115.84268</v>
+        <v>115.84065</v>
       </c>
       <c r="EO4" s="1">
-        <v>106.94315</v>
+        <v>106.92718</v>
       </c>
       <c r="EP4" s="1">
-        <v>159.09992</v>
+        <v>159.0721</v>
       </c>
       <c r="EQ4" s="1">
-        <v>106.94066</v>
+        <v>106.9247</v>
       </c>
       <c r="ER4" s="1">
-        <v>106.9386</v>
+        <v>106.92261</v>
       </c>
       <c r="ES4" s="1">
-        <v>115.78366</v>
+        <v>115.76571</v>
       </c>
       <c r="ET4" s="1">
-        <v>115.78244</v>
+        <v>115.76449</v>
       </c>
       <c r="EU4" s="1">
-        <v>106.94925</v>
+        <v>106.93324</v>
       </c>
       <c r="EV4" s="1">
-        <v>113.33531</v>
+        <v>113.5573</v>
       </c>
       <c r="EW4" s="1">
-        <v>106.94925</v>
+        <v>106.93324</v>
       </c>
       <c r="EX4" s="1">
-        <v>113.33531</v>
+        <v>113.5573</v>
       </c>
       <c r="EY4" s="1">
-        <v>106.94241</v>
+        <v>106.92804</v>
       </c>
       <c r="EZ4" s="1">
-        <v>66.932451</v>
+        <v>74.07612099999999</v>
       </c>
       <c r="FA4" s="1">
-        <v>66.932451</v>
+        <v>74.07612099999999</v>
       </c>
       <c r="FB4" s="1">
-        <v>-91.754729</v>
+        <v>-91.73984400000001</v>
       </c>
       <c r="FC4" s="1">
-        <v>-91.987092</v>
+        <v>-91.97280500000001</v>
       </c>
       <c r="FD4" s="1">
-        <v>-91.621774</v>
+        <v>-91.60714400000001</v>
       </c>
       <c r="FE4" s="1">
-        <v>-84.227604</v>
+        <v>-84.216403</v>
       </c>
       <c r="FF4" s="1">
-        <v>-134.7942</v>
+        <v>-134.76509</v>
       </c>
       <c r="FG4" s="1">
-        <v>-109.6876</v>
+        <v>-109.66636</v>
       </c>
       <c r="FH4" s="1">
-        <v>-84.23011299999999</v>
+        <v>-84.21729499999999</v>
       </c>
       <c r="FI4" s="1">
-        <v>-66.33916400000001</v>
+        <v>-66.323775</v>
       </c>
       <c r="FJ4" s="1">
-        <v>-66.33916400000001</v>
+        <v>-66.323775</v>
       </c>
       <c r="FK4" s="1">
-        <v>-92.21374899999999</v>
+        <v>-107.4345</v>
       </c>
       <c r="FL4" s="1">
-        <v>-107.05386</v>
+        <v>-106.49088</v>
       </c>
       <c r="FM4" s="1">
-        <v>-92.21374899999999</v>
+        <v>-107.4345</v>
       </c>
       <c r="FN4" s="1">
-        <v>-107.05386</v>
+        <v>-106.49088</v>
       </c>
     </row>
     <row r="5" spans="1:170" s="1" customFormat="1">
@@ -2984,13 +2984,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>9.4106592E-05</v>
+        <v>9.4044104E-05</v>
       </c>
       <c r="S5" s="1">
-        <v>9.4106592E-05</v>
+        <v>9.4044104E-05</v>
       </c>
       <c r="T5" s="1">
-        <v>2.9981062E-05</v>
+        <v>8.2746212E-05</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>184</v>
@@ -2999,448 +2999,448 @@
         <v>184</v>
       </c>
       <c r="W5" s="3">
-        <v>-15.967424</v>
+        <v>-15.934622</v>
       </c>
       <c r="X5" s="1">
-        <v>-144.56174</v>
+        <v>-144.45213</v>
       </c>
       <c r="Y5" s="1">
-        <v>91.41186900000001</v>
+        <v>89.24028200000001</v>
       </c>
       <c r="Z5" s="1">
-        <v>422.67375</v>
+        <v>382.84292</v>
       </c>
       <c r="AA5" s="1">
-        <v>422.67373</v>
+        <v>382.84292</v>
       </c>
       <c r="AB5" s="1">
-        <v>422.67374</v>
+        <v>382.84292</v>
       </c>
       <c r="AC5" s="3">
-        <v>1.1357419E-05</v>
+        <v>2.1877188E-06</v>
       </c>
       <c r="AD5" s="1">
-        <v>-1027.9566</v>
+        <v>-1144.1613</v>
       </c>
       <c r="AE5" s="1">
-        <v>112.71928</v>
+        <v>112.51975</v>
       </c>
       <c r="AF5" s="1">
-        <v>352.9597199999999</v>
+        <v>352.95417</v>
       </c>
       <c r="AG5" s="1">
-        <v>43.509179</v>
+        <v>43.46567099999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>192.41618</v>
+        <v>192.33276</v>
       </c>
       <c r="AI5" s="1">
-        <v>43.502429</v>
+        <v>43.458918</v>
       </c>
       <c r="AJ5" s="1">
-        <v>43.496835</v>
+        <v>43.453243</v>
       </c>
       <c r="AK5" s="1">
-        <v>67.567367</v>
+        <v>67.51835100000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>67.564042</v>
+        <v>67.515038</v>
       </c>
       <c r="AM5" s="1">
-        <v>43.525731</v>
+        <v>43.482144</v>
       </c>
       <c r="AN5" s="1">
-        <v>60.892237</v>
+        <v>61.498623</v>
       </c>
       <c r="AO5" s="1">
-        <v>43.525731</v>
+        <v>43.482144</v>
       </c>
       <c r="AP5" s="1">
-        <v>60.892237</v>
+        <v>61.498623</v>
       </c>
       <c r="AQ5" s="1">
-        <v>43.50718</v>
-      </c>
-      <c r="AR5" s="3">
-        <v>-103.24553</v>
-      </c>
-      <c r="AS5" s="3">
-        <v>-103.24553</v>
+        <v>43.468003</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>-58.876613</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>-58.876613</v>
       </c>
       <c r="AT5" s="1">
-        <v>30.700605</v>
+        <v>30.662274</v>
       </c>
       <c r="AU5" s="1">
-        <v>31.317965</v>
+        <v>31.280887</v>
       </c>
       <c r="AV5" s="1">
-        <v>30.347151</v>
+        <v>30.309669</v>
       </c>
       <c r="AW5" s="1">
-        <v>10.267834</v>
+        <v>10.227898</v>
       </c>
       <c r="AX5" s="1">
-        <v>141.3489</v>
+        <v>141.27373</v>
       </c>
       <c r="AY5" s="1">
-        <v>77.10979900000001</v>
+        <v>77.055606</v>
       </c>
       <c r="AZ5" s="1">
-        <v>10.274832</v>
+        <v>10.23541</v>
       </c>
       <c r="BA5" s="1">
-        <v>-44.374082</v>
+        <v>-44.418559</v>
       </c>
       <c r="BB5" s="1">
-        <v>-44.374082</v>
+        <v>-44.418559</v>
       </c>
       <c r="BC5" s="1">
-        <v>31.917181</v>
+        <v>71.35749299999999</v>
       </c>
       <c r="BD5" s="1">
-        <v>70.38503799999999</v>
+        <v>68.94535999999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>31.917181</v>
+        <v>71.35749299999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>70.38503799999999</v>
+        <v>68.94535999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>578.3023499999999</v>
+        <v>578.1786199999999</v>
       </c>
       <c r="BH5" s="3">
-        <v>-89.536951</v>
+        <v>-89.55015900000001</v>
       </c>
       <c r="BI5" s="1">
-        <v>103.55626</v>
+        <v>103.52303</v>
       </c>
       <c r="BJ5" s="1">
-        <v>308.13433</v>
+        <v>308.08481</v>
       </c>
       <c r="BK5" s="1">
-        <v>202.697</v>
+        <v>202.52758</v>
       </c>
       <c r="BL5" s="1">
-        <v>333.95379</v>
+        <v>333.74748</v>
       </c>
       <c r="BM5" s="1">
-        <v>233.80554</v>
+        <v>233.77632</v>
       </c>
       <c r="BN5" s="1">
-        <v>257.14783</v>
+        <v>256.96011</v>
       </c>
       <c r="BO5" s="1">
-        <v>22.483926</v>
+        <v>21.815133</v>
       </c>
       <c r="BP5" s="1">
-        <v>173.52804</v>
+        <v>134.20125</v>
       </c>
       <c r="BQ5" s="1">
-        <v>22.483926</v>
+        <v>21.815133</v>
       </c>
       <c r="BR5" s="1">
-        <v>173.52804</v>
+        <v>134.20125</v>
       </c>
       <c r="BS5" s="3">
-        <v>-63.099822</v>
+        <v>-64.176152</v>
       </c>
       <c r="BT5" s="1">
-        <v>373.09248</v>
+        <v>407.5885</v>
       </c>
       <c r="BU5" s="1">
-        <v>373.09248</v>
+        <v>407.5885</v>
       </c>
       <c r="BV5" s="1">
-        <v>260.75539</v>
+        <v>260.72577</v>
       </c>
       <c r="BW5" s="1">
-        <v>173.37072</v>
+        <v>173.20823</v>
       </c>
       <c r="BX5" s="1">
-        <v>291.65735</v>
+        <v>291.4642</v>
       </c>
       <c r="BY5" s="1">
-        <v>49.117042</v>
+        <v>49.093591</v>
       </c>
       <c r="BZ5" s="1">
-        <v>284.12432</v>
+        <v>284.0842</v>
       </c>
       <c r="CA5" s="1">
-        <v>256.78371</v>
+        <v>256.75266</v>
       </c>
       <c r="CB5" s="1">
-        <v>89.61918200000001</v>
+        <v>89.43466599999999</v>
       </c>
       <c r="CC5" s="1">
-        <v>372.74523</v>
+        <v>373.38643</v>
       </c>
       <c r="CD5" s="1">
-        <v>372.74523</v>
+        <v>373.38643</v>
       </c>
       <c r="CE5" s="3">
-        <v>-22.751065</v>
+        <v>-37.326369</v>
       </c>
       <c r="CF5" s="1">
-        <v>143.40127</v>
+        <v>182.15522</v>
       </c>
       <c r="CG5" s="3">
-        <v>-22.751065</v>
+        <v>-37.326369</v>
       </c>
       <c r="CH5" s="1">
-        <v>143.40127</v>
+        <v>182.15522</v>
       </c>
       <c r="CI5" s="1">
-        <v>363.27583</v>
+        <v>363.0764</v>
       </c>
       <c r="CJ5" s="1">
-        <v>352.9597199999999</v>
+        <v>352.95417</v>
       </c>
       <c r="CK5" s="1">
-        <v>328.70058</v>
+        <v>328.6554</v>
       </c>
       <c r="CL5" s="1">
-        <v>477.61722</v>
+        <v>477.53382</v>
       </c>
       <c r="CM5" s="1">
-        <v>328.69089</v>
+        <v>328.64573</v>
       </c>
       <c r="CN5" s="1">
-        <v>328.68273</v>
+        <v>328.63757</v>
       </c>
       <c r="CO5" s="1">
-        <v>352.74353</v>
+        <v>352.69455</v>
       </c>
       <c r="CP5" s="1">
-        <v>352.73964</v>
+        <v>352.69067</v>
       </c>
       <c r="CQ5" s="1">
-        <v>328.72368</v>
+        <v>328.67887</v>
       </c>
       <c r="CR5" s="1">
-        <v>346.07373</v>
+        <v>346.68083</v>
       </c>
       <c r="CS5" s="1">
-        <v>328.72368</v>
+        <v>328.67887</v>
       </c>
       <c r="CT5" s="1">
-        <v>346.07373</v>
+        <v>346.68083</v>
       </c>
       <c r="CU5" s="1">
-        <v>328.69773</v>
+        <v>328.65873</v>
       </c>
       <c r="CV5" s="3">
-        <v>139.18617</v>
+        <v>182.60944</v>
       </c>
       <c r="CW5" s="3">
-        <v>139.18617</v>
+        <v>182.60944</v>
       </c>
       <c r="CX5" s="1">
-        <v>323.50635</v>
+        <v>323.46729</v>
       </c>
       <c r="CY5" s="1">
-        <v>324.12672</v>
+        <v>324.08876</v>
       </c>
       <c r="CZ5" s="1">
-        <v>323.15113</v>
+        <v>323.1130199999999</v>
       </c>
       <c r="DA5" s="1">
-        <v>302.94035</v>
+        <v>302.90209</v>
       </c>
       <c r="DB5" s="1">
-        <v>434.1792</v>
+        <v>434.10405</v>
       </c>
       <c r="DC5" s="1">
-        <v>369.88458</v>
+        <v>369.83023</v>
       </c>
       <c r="DD5" s="1">
-        <v>302.92305</v>
+        <v>302.88485</v>
       </c>
       <c r="DE5" s="3">
-        <v>196.22571</v>
+        <v>196.16194</v>
       </c>
       <c r="DF5" s="3">
-        <v>196.22571</v>
+        <v>196.16194</v>
       </c>
       <c r="DG5" s="1">
-        <v>324.75568</v>
+        <v>364.19182</v>
       </c>
       <c r="DH5" s="1">
-        <v>363.16968</v>
+        <v>361.72894</v>
       </c>
       <c r="DI5" s="1">
-        <v>324.75568</v>
+        <v>364.19182</v>
       </c>
       <c r="DJ5" s="1">
-        <v>363.16968</v>
+        <v>361.72894</v>
       </c>
       <c r="DK5" s="1">
-        <v>710.87932</v>
+        <v>710.68458</v>
       </c>
       <c r="DL5" s="1">
-        <v>26.305732</v>
+        <v>26.290493</v>
       </c>
       <c r="DM5" s="1">
-        <v>210.49941</v>
+        <v>210.45022</v>
       </c>
       <c r="DN5" s="1">
-        <v>467.23425</v>
+        <v>467.15692</v>
       </c>
       <c r="DO5" s="1">
-        <v>309.63766</v>
+        <v>309.45228</v>
       </c>
       <c r="DP5" s="1">
-        <v>440.89239</v>
+        <v>440.67009</v>
       </c>
       <c r="DQ5" s="1">
-        <v>349.5892</v>
+        <v>349.54202</v>
       </c>
       <c r="DR5" s="1">
-        <v>372.93027</v>
+        <v>372.7246</v>
       </c>
       <c r="DS5" s="1">
-        <v>129.43318</v>
+        <v>128.74838</v>
       </c>
       <c r="DT5" s="1">
-        <v>286.86335</v>
+        <v>247.75855</v>
       </c>
       <c r="DU5" s="1">
-        <v>129.43318</v>
+        <v>128.74838</v>
       </c>
       <c r="DV5" s="1">
-        <v>286.86335</v>
+        <v>247.75855</v>
       </c>
       <c r="DW5" s="1">
-        <v>43.842588</v>
+        <v>42.75189</v>
       </c>
       <c r="DX5" s="1">
-        <v>440.02494</v>
+        <v>481.66462</v>
       </c>
       <c r="DY5" s="1">
-        <v>440.02494</v>
+        <v>481.66462</v>
       </c>
       <c r="DZ5" s="1">
-        <v>352.51012</v>
+        <v>352.4656199999999</v>
       </c>
       <c r="EA5" s="1">
-        <v>265.35781</v>
+        <v>265.18103</v>
       </c>
       <c r="EB5" s="1">
-        <v>383.27913</v>
+        <v>383.07134</v>
       </c>
       <c r="EC5" s="1">
-        <v>133.34465</v>
+        <v>133.30999</v>
       </c>
       <c r="ED5" s="1">
-        <v>418.91852</v>
+        <v>418.84929</v>
       </c>
       <c r="EE5" s="1">
-        <v>366.47131</v>
+        <v>366.41902</v>
       </c>
       <c r="EF5" s="1">
-        <v>173.8493</v>
+        <v>173.65196</v>
       </c>
       <c r="EG5" s="1">
-        <v>439.0844</v>
+        <v>439.7102</v>
       </c>
       <c r="EH5" s="1">
-        <v>439.0844</v>
+        <v>439.7102</v>
       </c>
       <c r="EI5" s="1">
-        <v>69.462684</v>
+        <v>70.10813</v>
       </c>
       <c r="EJ5" s="1">
-        <v>250.45513</v>
+        <v>288.6461</v>
       </c>
       <c r="EK5" s="1">
-        <v>69.462684</v>
+        <v>70.10813</v>
       </c>
       <c r="EL5" s="1">
-        <v>250.45512</v>
+        <v>288.6461</v>
       </c>
       <c r="EM5" s="1">
-        <v>132.57697</v>
+        <v>132.50596</v>
       </c>
       <c r="EN5" s="1">
-        <v>115.84268</v>
+        <v>115.84065</v>
       </c>
       <c r="EO5" s="1">
-        <v>106.94315</v>
+        <v>106.92718</v>
       </c>
       <c r="EP5" s="1">
-        <v>159.09992</v>
+        <v>159.0721</v>
       </c>
       <c r="EQ5" s="1">
-        <v>106.94066</v>
+        <v>106.9247</v>
       </c>
       <c r="ER5" s="1">
-        <v>106.9386</v>
+        <v>106.92261</v>
       </c>
       <c r="ES5" s="1">
-        <v>115.78366</v>
+        <v>115.76571</v>
       </c>
       <c r="ET5" s="1">
-        <v>115.78244</v>
+        <v>115.76449</v>
       </c>
       <c r="EU5" s="1">
-        <v>106.94925</v>
+        <v>106.93324</v>
       </c>
       <c r="EV5" s="1">
-        <v>113.33531</v>
+        <v>113.5573</v>
       </c>
       <c r="EW5" s="1">
-        <v>106.94925</v>
+        <v>106.93324</v>
       </c>
       <c r="EX5" s="1">
-        <v>113.33531</v>
+        <v>113.5573</v>
       </c>
       <c r="EY5" s="1">
-        <v>106.94241</v>
+        <v>106.92804</v>
       </c>
       <c r="EZ5" s="1">
-        <v>66.932451</v>
+        <v>74.07612099999999</v>
       </c>
       <c r="FA5" s="1">
-        <v>66.932451</v>
+        <v>74.07612099999999</v>
       </c>
       <c r="FB5" s="1">
-        <v>-91.754729</v>
+        <v>-91.73984400000001</v>
       </c>
       <c r="FC5" s="1">
-        <v>-91.987092</v>
+        <v>-91.97280500000001</v>
       </c>
       <c r="FD5" s="1">
-        <v>-91.621774</v>
+        <v>-91.60714400000001</v>
       </c>
       <c r="FE5" s="1">
-        <v>-84.227604</v>
+        <v>-84.216403</v>
       </c>
       <c r="FF5" s="1">
-        <v>-134.7942</v>
+        <v>-134.76509</v>
       </c>
       <c r="FG5" s="1">
-        <v>-109.6876</v>
+        <v>-109.66636</v>
       </c>
       <c r="FH5" s="1">
-        <v>-84.23011299999999</v>
+        <v>-84.21729499999999</v>
       </c>
       <c r="FI5" s="1">
-        <v>-66.33916400000001</v>
+        <v>-66.323775</v>
       </c>
       <c r="FJ5" s="1">
-        <v>-66.33916400000001</v>
+        <v>-66.323775</v>
       </c>
       <c r="FK5" s="1">
-        <v>-92.21374899999999</v>
+        <v>-107.4345</v>
       </c>
       <c r="FL5" s="1">
-        <v>-107.05386</v>
+        <v>-106.49088</v>
       </c>
       <c r="FM5" s="1">
-        <v>-92.21374899999999</v>
+        <v>-107.4345</v>
       </c>
       <c r="FN5" s="1">
-        <v>-107.05386</v>
+        <v>-106.49088</v>
       </c>
     </row>
     <row r="6" spans="1:170" s="1" customFormat="1">
@@ -4173,13 +4173,13 @@
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>9.4106592E-05</v>
+        <v>9.4044104E-05</v>
       </c>
       <c r="S10" s="1">
-        <v>9.4106592E-05</v>
+        <v>9.4044104E-05</v>
       </c>
       <c r="T10" s="1">
-        <v>2.9981062E-05</v>
+        <v>8.2746212E-05</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>184</v>
@@ -4188,448 +4188,448 @@
         <v>184</v>
       </c>
       <c r="W10" s="1">
-        <v>-15.967424</v>
+        <v>-15.934622</v>
       </c>
       <c r="X10" s="1">
-        <v>-144.56174</v>
+        <v>-144.45213</v>
       </c>
       <c r="Y10" s="1">
-        <v>91.41186900000001</v>
+        <v>89.24028200000001</v>
       </c>
       <c r="Z10" s="1">
-        <v>422.67375</v>
+        <v>382.84292</v>
       </c>
       <c r="AA10" s="1">
-        <v>422.67373</v>
+        <v>382.84292</v>
       </c>
       <c r="AB10" s="1">
-        <v>422.67374</v>
+        <v>382.84292</v>
       </c>
       <c r="AC10" s="1">
-        <v>1.1357419E-05</v>
+        <v>2.1877188E-06</v>
       </c>
       <c r="AD10" s="1">
-        <v>-1027.9566</v>
+        <v>-1144.1613</v>
       </c>
       <c r="AE10" s="1">
-        <v>112.71928</v>
+        <v>112.51975</v>
       </c>
       <c r="AF10" s="1">
-        <v>352.9597199999999</v>
+        <v>352.95417</v>
       </c>
       <c r="AG10" s="1">
-        <v>43.509179</v>
+        <v>43.46567099999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>192.41618</v>
+        <v>192.33276</v>
       </c>
       <c r="AI10" s="1">
-        <v>43.502429</v>
+        <v>43.458918</v>
       </c>
       <c r="AJ10" s="1">
-        <v>43.496835</v>
+        <v>43.453243</v>
       </c>
       <c r="AK10" s="1">
-        <v>67.567367</v>
+        <v>67.51835100000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>67.564042</v>
+        <v>67.515038</v>
       </c>
       <c r="AM10" s="1">
-        <v>43.525731</v>
+        <v>43.482144</v>
       </c>
       <c r="AN10" s="1">
-        <v>60.892237</v>
+        <v>61.498623</v>
       </c>
       <c r="AO10" s="1">
-        <v>43.525731</v>
+        <v>43.482144</v>
       </c>
       <c r="AP10" s="1">
-        <v>60.892237</v>
+        <v>61.498623</v>
       </c>
       <c r="AQ10" s="1">
-        <v>43.50718</v>
+        <v>43.468003</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.24553</v>
+        <v>-58.876613</v>
       </c>
       <c r="AS10" s="1">
-        <v>-103.24553</v>
+        <v>-58.876613</v>
       </c>
       <c r="AT10" s="1">
-        <v>30.700605</v>
+        <v>30.662274</v>
       </c>
       <c r="AU10" s="1">
-        <v>31.317965</v>
+        <v>31.280887</v>
       </c>
       <c r="AV10" s="1">
-        <v>30.347151</v>
+        <v>30.309669</v>
       </c>
       <c r="AW10" s="1">
-        <v>10.267834</v>
+        <v>10.227898</v>
       </c>
       <c r="AX10" s="1">
-        <v>141.3489</v>
+        <v>141.27373</v>
       </c>
       <c r="AY10" s="1">
-        <v>77.10979900000001</v>
+        <v>77.055606</v>
       </c>
       <c r="AZ10" s="1">
-        <v>10.274832</v>
+        <v>10.23541</v>
       </c>
       <c r="BA10" s="1">
-        <v>-44.374082</v>
+        <v>-44.418559</v>
       </c>
       <c r="BB10" s="1">
-        <v>-44.374082</v>
+        <v>-44.418559</v>
       </c>
       <c r="BC10" s="1">
-        <v>31.917181</v>
+        <v>71.35749299999999</v>
       </c>
       <c r="BD10" s="1">
-        <v>70.38503799999999</v>
+        <v>68.94535999999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>31.917181</v>
+        <v>71.35749299999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>70.38503799999999</v>
+        <v>68.94535999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>578.3023499999999</v>
+        <v>578.1786199999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>-89.536951</v>
+        <v>-89.55015900000001</v>
       </c>
       <c r="BI10" s="1">
-        <v>103.55626</v>
+        <v>103.52303</v>
       </c>
       <c r="BJ10" s="1">
-        <v>308.13433</v>
+        <v>308.08481</v>
       </c>
       <c r="BK10" s="1">
-        <v>202.697</v>
+        <v>202.52758</v>
       </c>
       <c r="BL10" s="1">
-        <v>333.95379</v>
+        <v>333.74748</v>
       </c>
       <c r="BM10" s="1">
-        <v>233.80554</v>
+        <v>233.77632</v>
       </c>
       <c r="BN10" s="1">
-        <v>257.14783</v>
+        <v>256.96011</v>
       </c>
       <c r="BO10" s="1">
-        <v>22.483926</v>
+        <v>21.815133</v>
       </c>
       <c r="BP10" s="1">
-        <v>173.52804</v>
+        <v>134.20125</v>
       </c>
       <c r="BQ10" s="1">
-        <v>22.483926</v>
+        <v>21.815133</v>
       </c>
       <c r="BR10" s="1">
-        <v>173.52804</v>
+        <v>134.20125</v>
       </c>
       <c r="BS10" s="1">
-        <v>-63.099822</v>
+        <v>-64.176152</v>
       </c>
       <c r="BT10" s="1">
-        <v>373.09248</v>
+        <v>407.5885</v>
       </c>
       <c r="BU10" s="1">
-        <v>373.09248</v>
+        <v>407.5885</v>
       </c>
       <c r="BV10" s="1">
-        <v>260.75539</v>
+        <v>260.72577</v>
       </c>
       <c r="BW10" s="1">
-        <v>173.37072</v>
+        <v>173.20823</v>
       </c>
       <c r="BX10" s="1">
-        <v>291.65735</v>
+        <v>291.4642</v>
       </c>
       <c r="BY10" s="1">
-        <v>49.117042</v>
+        <v>49.093591</v>
       </c>
       <c r="BZ10" s="1">
-        <v>284.12432</v>
+        <v>284.0842</v>
       </c>
       <c r="CA10" s="1">
-        <v>256.78371</v>
+        <v>256.75266</v>
       </c>
       <c r="CB10" s="1">
-        <v>89.61918200000001</v>
+        <v>89.43466599999999</v>
       </c>
       <c r="CC10" s="1">
-        <v>372.74523</v>
+        <v>373.38643</v>
       </c>
       <c r="CD10" s="1">
-        <v>372.74523</v>
+        <v>373.38643</v>
       </c>
       <c r="CE10" s="1">
-        <v>-22.751065</v>
+        <v>-37.326369</v>
       </c>
       <c r="CF10" s="1">
-        <v>143.40127</v>
+        <v>182.15522</v>
       </c>
       <c r="CG10" s="1">
-        <v>-22.751065</v>
+        <v>-37.326369</v>
       </c>
       <c r="CH10" s="1">
-        <v>143.40127</v>
+        <v>182.15522</v>
       </c>
       <c r="CI10" s="1">
-        <v>363.27583</v>
+        <v>363.0764</v>
       </c>
       <c r="CJ10" s="1">
-        <v>352.9597199999999</v>
+        <v>352.95417</v>
       </c>
       <c r="CK10" s="1">
-        <v>328.70058</v>
+        <v>328.6554</v>
       </c>
       <c r="CL10" s="1">
-        <v>477.61722</v>
+        <v>477.53382</v>
       </c>
       <c r="CM10" s="1">
-        <v>328.69089</v>
+        <v>328.64573</v>
       </c>
       <c r="CN10" s="1">
-        <v>328.68273</v>
+        <v>328.63757</v>
       </c>
       <c r="CO10" s="1">
-        <v>352.74353</v>
+        <v>352.69455</v>
       </c>
       <c r="CP10" s="1">
-        <v>352.73964</v>
+        <v>352.69067</v>
       </c>
       <c r="CQ10" s="1">
-        <v>328.72368</v>
+        <v>328.67887</v>
       </c>
       <c r="CR10" s="1">
-        <v>346.07373</v>
+        <v>346.68083</v>
       </c>
       <c r="CS10" s="1">
-        <v>328.72368</v>
+        <v>328.67887</v>
       </c>
       <c r="CT10" s="1">
-        <v>346.07373</v>
+        <v>346.68083</v>
       </c>
       <c r="CU10" s="1">
-        <v>328.69773</v>
+        <v>328.65873</v>
       </c>
       <c r="CV10" s="1">
-        <v>139.18617</v>
+        <v>182.60944</v>
       </c>
       <c r="CW10" s="1">
-        <v>139.18617</v>
+        <v>182.60944</v>
       </c>
       <c r="CX10" s="1">
-        <v>323.50635</v>
+        <v>323.46729</v>
       </c>
       <c r="CY10" s="1">
-        <v>324.12672</v>
+        <v>324.08876</v>
       </c>
       <c r="CZ10" s="1">
-        <v>323.15113</v>
+        <v>323.1130199999999</v>
       </c>
       <c r="DA10" s="1">
-        <v>302.94035</v>
+        <v>302.90209</v>
       </c>
       <c r="DB10" s="1">
-        <v>434.1792</v>
+        <v>434.10405</v>
       </c>
       <c r="DC10" s="1">
-        <v>369.88458</v>
+        <v>369.83023</v>
       </c>
       <c r="DD10" s="1">
-        <v>302.92305</v>
+        <v>302.88485</v>
       </c>
       <c r="DE10" s="1">
-        <v>196.22571</v>
+        <v>196.16194</v>
       </c>
       <c r="DF10" s="1">
-        <v>196.22571</v>
+        <v>196.16194</v>
       </c>
       <c r="DG10" s="1">
-        <v>324.75568</v>
+        <v>364.19182</v>
       </c>
       <c r="DH10" s="1">
-        <v>363.16968</v>
+        <v>361.72894</v>
       </c>
       <c r="DI10" s="1">
-        <v>324.75568</v>
+        <v>364.19182</v>
       </c>
       <c r="DJ10" s="1">
-        <v>363.16968</v>
+        <v>361.72894</v>
       </c>
       <c r="DK10" s="1">
-        <v>710.87932</v>
+        <v>710.68458</v>
       </c>
       <c r="DL10" s="1">
-        <v>26.305732</v>
+        <v>26.290493</v>
       </c>
       <c r="DM10" s="1">
-        <v>210.49941</v>
+        <v>210.45022</v>
       </c>
       <c r="DN10" s="1">
-        <v>467.23425</v>
+        <v>467.15692</v>
       </c>
       <c r="DO10" s="1">
-        <v>309.63766</v>
+        <v>309.45228</v>
       </c>
       <c r="DP10" s="1">
-        <v>440.89239</v>
+        <v>440.67009</v>
       </c>
       <c r="DQ10" s="1">
-        <v>349.5892</v>
+        <v>349.54202</v>
       </c>
       <c r="DR10" s="1">
-        <v>372.93027</v>
+        <v>372.7246</v>
       </c>
       <c r="DS10" s="1">
-        <v>129.43318</v>
+        <v>128.74838</v>
       </c>
       <c r="DT10" s="1">
-        <v>286.86335</v>
+        <v>247.75855</v>
       </c>
       <c r="DU10" s="1">
-        <v>129.43318</v>
+        <v>128.74838</v>
       </c>
       <c r="DV10" s="1">
-        <v>286.86335</v>
+        <v>247.75855</v>
       </c>
       <c r="DW10" s="1">
-        <v>43.842588</v>
+        <v>42.75189</v>
       </c>
       <c r="DX10" s="1">
-        <v>440.02494</v>
+        <v>481.66462</v>
       </c>
       <c r="DY10" s="1">
-        <v>440.02494</v>
+        <v>481.66462</v>
       </c>
       <c r="DZ10" s="1">
-        <v>352.51012</v>
+        <v>352.4656199999999</v>
       </c>
       <c r="EA10" s="1">
-        <v>265.35781</v>
+        <v>265.18103</v>
       </c>
       <c r="EB10" s="1">
-        <v>383.27913</v>
+        <v>383.07134</v>
       </c>
       <c r="EC10" s="1">
-        <v>133.34465</v>
+        <v>133.30999</v>
       </c>
       <c r="ED10" s="1">
-        <v>418.91852</v>
+        <v>418.84929</v>
       </c>
       <c r="EE10" s="1">
-        <v>366.47131</v>
+        <v>366.41902</v>
       </c>
       <c r="EF10" s="1">
-        <v>173.8493</v>
+        <v>173.65196</v>
       </c>
       <c r="EG10" s="1">
-        <v>439.0844</v>
+        <v>439.7102</v>
       </c>
       <c r="EH10" s="1">
-        <v>439.0844</v>
+        <v>439.7102</v>
       </c>
       <c r="EI10" s="1">
-        <v>69.462684</v>
+        <v>70.10813</v>
       </c>
       <c r="EJ10" s="1">
-        <v>250.45513</v>
+        <v>288.6461</v>
       </c>
       <c r="EK10" s="1">
-        <v>69.462684</v>
+        <v>70.10813</v>
       </c>
       <c r="EL10" s="1">
-        <v>250.45512</v>
+        <v>288.6461</v>
       </c>
       <c r="EM10" s="1">
-        <v>132.57697</v>
+        <v>132.50596</v>
       </c>
       <c r="EN10" s="1">
-        <v>115.84268</v>
+        <v>115.84065</v>
       </c>
       <c r="EO10" s="1">
-        <v>106.94315</v>
+        <v>106.92718</v>
       </c>
       <c r="EP10" s="1">
-        <v>159.09992</v>
+        <v>159.0721</v>
       </c>
       <c r="EQ10" s="1">
-        <v>106.94066</v>
+        <v>106.9247</v>
       </c>
       <c r="ER10" s="1">
-        <v>106.9386</v>
+        <v>106.92261</v>
       </c>
       <c r="ES10" s="1">
-        <v>115.78366</v>
+        <v>115.76571</v>
       </c>
       <c r="ET10" s="1">
-        <v>115.78244</v>
+        <v>115.76449</v>
       </c>
       <c r="EU10" s="1">
-        <v>106.94925</v>
+        <v>106.93324</v>
       </c>
       <c r="EV10" s="1">
-        <v>113.33531</v>
+        <v>113.5573</v>
       </c>
       <c r="EW10" s="1">
-        <v>106.94925</v>
+        <v>106.93324</v>
       </c>
       <c r="EX10" s="1">
-        <v>113.33531</v>
+        <v>113.5573</v>
       </c>
       <c r="EY10" s="1">
-        <v>106.94241</v>
+        <v>106.92804</v>
       </c>
       <c r="EZ10" s="1">
-        <v>66.932451</v>
+        <v>74.07612099999999</v>
       </c>
       <c r="FA10" s="1">
-        <v>66.932451</v>
+        <v>74.07612099999999</v>
       </c>
       <c r="FB10" s="1">
-        <v>-91.754729</v>
+        <v>-91.73984400000001</v>
       </c>
       <c r="FC10" s="1">
-        <v>-91.987092</v>
+        <v>-91.97280500000001</v>
       </c>
       <c r="FD10" s="1">
-        <v>-91.621774</v>
+        <v>-91.60714400000001</v>
       </c>
       <c r="FE10" s="1">
-        <v>-84.227604</v>
+        <v>-84.216403</v>
       </c>
       <c r="FF10" s="1">
-        <v>-134.7942</v>
+        <v>-134.76509</v>
       </c>
       <c r="FG10" s="1">
-        <v>-109.6876</v>
+        <v>-109.66636</v>
       </c>
       <c r="FH10" s="1">
-        <v>-84.23011299999999</v>
+        <v>-84.21729499999999</v>
       </c>
       <c r="FI10" s="1">
-        <v>-66.33916400000001</v>
+        <v>-66.323775</v>
       </c>
       <c r="FJ10" s="1">
-        <v>-66.33916400000001</v>
+        <v>-66.323775</v>
       </c>
       <c r="FK10" s="1">
-        <v>-92.21374899999999</v>
+        <v>-107.4345</v>
       </c>
       <c r="FL10" s="1">
-        <v>-107.05386</v>
+        <v>-106.49088</v>
       </c>
       <c r="FM10" s="1">
-        <v>-92.21374899999999</v>
+        <v>-107.4345</v>
       </c>
       <c r="FN10" s="1">
-        <v>-107.05386</v>
+        <v>-106.49088</v>
       </c>
     </row>
     <row r="11" spans="1:170" s="1" customFormat="1">
